--- a/publication/analyses/outputs/rmse_z/idpt_bin_r-z_rmse-z.xlsx
+++ b/publication/analyses/outputs/rmse_z/idpt_bin_r-z_rmse-z.xlsx
@@ -568,37 +568,37 @@
         <v>136.9545454545455</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9031694553093642</v>
+        <v>0.9031694553093647</v>
       </c>
       <c r="D2" t="n">
         <v>-48.09999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>149.2878433458421</v>
+        <v>149.2878433455915</v>
       </c>
       <c r="F2" t="n">
-        <v>-47.77155866438309</v>
+        <v>-47.77156789896984</v>
       </c>
       <c r="G2" t="n">
-        <v>-47.80828328593273</v>
+        <v>-47.80829537787529</v>
       </c>
       <c r="H2" t="n">
-        <v>0.03672462154964171</v>
+        <v>0.03672747890544587</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4869755497109843</v>
+        <v>0.4869735503046106</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.0560736941842333</v>
+        <v>-0.0560736941344613</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1928064196989431</v>
+        <v>0.1928064200771831</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7931955403182955</v>
+        <v>0.7931955399569074</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.03673818865357206</v>
+        <v>-0.03673819226412511</v>
       </c>
       <c r="N2" t="n">
         <v>50.18181818181818</v>
@@ -613,22 +613,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2387561486616204</v>
+        <v>0.2387561488236129</v>
       </c>
       <c r="S2" t="n">
-        <v>1.023326444772388</v>
+        <v>1.023326445093124</v>
       </c>
       <c r="T2" t="n">
-        <v>1.22840325209294</v>
+        <v>1.228403252301451</v>
       </c>
       <c r="U2" t="n">
-        <v>47.77155866438309</v>
+        <v>47.77156789896984</v>
       </c>
       <c r="V2" t="n">
-        <v>149.2878433458421</v>
+        <v>149.2878433455915</v>
       </c>
       <c r="W2" t="n">
-        <v>0.6080926860771408</v>
+        <v>0.6080919941535566</v>
       </c>
       <c r="X2" t="n">
         <v>150</v>
@@ -648,37 +648,37 @@
         <v>395.953125</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9363323668300573</v>
+        <v>0.9363323668300554</v>
       </c>
       <c r="D3" t="n">
         <v>-43.09999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>148.4388624920542</v>
+        <v>148.4388624922167</v>
       </c>
       <c r="F3" t="n">
-        <v>-43.24514049833708</v>
+        <v>-43.24514048137289</v>
       </c>
       <c r="G3" t="n">
-        <v>-43.14635805364573</v>
+        <v>-43.14635803198964</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.09878244469135002</v>
+        <v>-0.0987824493832463</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3331253904503765</v>
+        <v>0.3331253918745896</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.1842674932422534</v>
+        <v>-0.1842674928542447</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2214328582270486</v>
+        <v>0.2214328587544028</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7803478614498371</v>
+        <v>0.7803478616556178</v>
       </c>
       <c r="M3" t="n">
-        <v>0.09876903239444845</v>
+        <v>0.09876903239442281</v>
       </c>
       <c r="N3" t="n">
         <v>50.96875</v>
@@ -693,22 +693,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.01416800447671741</v>
+        <v>0.01416800487676717</v>
       </c>
       <c r="S3" t="n">
-        <v>1.026003080605376</v>
+        <v>1.02600308117351</v>
       </c>
       <c r="T3" t="n">
-        <v>1.164801897667002</v>
+        <v>1.164801898049673</v>
       </c>
       <c r="U3" t="n">
-        <v>43.24514049833708</v>
+        <v>43.24514048137289</v>
       </c>
       <c r="V3" t="n">
-        <v>148.4388624920542</v>
+        <v>148.4388624922167</v>
       </c>
       <c r="W3" t="n">
-        <v>0.4464847706967019</v>
+        <v>0.4464847721048779</v>
       </c>
       <c r="X3" t="n">
         <v>150</v>
@@ -728,37 +728,37 @@
         <v>656.9545454545455</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9573055830619394</v>
+        <v>0.9573055830619398</v>
       </c>
       <c r="D4" t="n">
         <v>-38.09999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>149.3337207353453</v>
+        <v>149.3337207365424</v>
       </c>
       <c r="F4" t="n">
-        <v>-37.82106837333637</v>
+        <v>-37.82106837197897</v>
       </c>
       <c r="G4" t="n">
-        <v>-37.68518844029698</v>
+        <v>-37.68518843851261</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.1358799330394021</v>
+        <v>-0.135879933466355</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4093453913529215</v>
+        <v>0.4093453915557022</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.2255682721549366</v>
+        <v>-0.2255682721486826</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2120808737808377</v>
+        <v>0.2120808748780203</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8569244014667395</v>
+        <v>0.8569244023487851</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1358598048804649</v>
+        <v>0.1358598048812041</v>
       </c>
       <c r="N4" t="n">
         <v>50.18181818181818</v>
@@ -773,22 +773,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.06937611249498997</v>
+        <v>-0.06937611250187146</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9353143334126964</v>
+        <v>0.9353143348132356</v>
       </c>
       <c r="T4" t="n">
-        <v>1.142608516453812</v>
+        <v>1.142608517663085</v>
       </c>
       <c r="U4" t="n">
-        <v>37.82106837333637</v>
+        <v>37.82106837197897</v>
       </c>
       <c r="V4" t="n">
-        <v>149.3337207353453</v>
+        <v>149.3337207365424</v>
       </c>
       <c r="W4" t="n">
-        <v>0.5118685168080432</v>
+        <v>0.5118685169523874</v>
       </c>
       <c r="X4" t="n">
         <v>150</v>
@@ -808,37 +808,37 @@
         <v>917.9545454545455</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9689386457804988</v>
+        <v>0.9689386457804987</v>
       </c>
       <c r="D5" t="n">
         <v>-33.09999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>149.2984252523005</v>
+        <v>149.2984252515648</v>
       </c>
       <c r="F5" t="n">
-        <v>-33.04614239060551</v>
+        <v>-33.04614239230881</v>
       </c>
       <c r="G5" t="n">
-        <v>-32.98388033301514</v>
+        <v>-32.98388033521916</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.06226205759037556</v>
+        <v>-0.06226205708965167</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2174468160129455</v>
+        <v>0.2174468158799612</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.2247531000887197</v>
+        <v>-0.2247531001413025</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2398371895911829</v>
+        <v>0.2398371892690392</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8455677559812552</v>
+        <v>0.8455677556919889</v>
       </c>
       <c r="M5" t="n">
-        <v>0.06225078433683504</v>
+        <v>0.06225078433682664</v>
       </c>
       <c r="N5" t="n">
         <v>50.18181818181818</v>
@@ -853,22 +853,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.1096804641105527</v>
+        <v>-0.1096804642259302</v>
       </c>
       <c r="S5" t="n">
-        <v>0.897715622787094</v>
+        <v>0.8977156222170932</v>
       </c>
       <c r="T5" t="n">
-        <v>1.111636161932728</v>
+        <v>1.111636161552094</v>
       </c>
       <c r="U5" t="n">
-        <v>33.04614239060551</v>
+        <v>33.04614239230881</v>
       </c>
       <c r="V5" t="n">
-        <v>149.2984252523005</v>
+        <v>149.2984252515648</v>
       </c>
       <c r="W5" t="n">
-        <v>0.2909097754963824</v>
+        <v>0.2909097754860717</v>
       </c>
       <c r="X5" t="n">
         <v>150</v>
@@ -894,31 +894,31 @@
         <v>-28.09999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>149.2825176791398</v>
+        <v>149.282517679182</v>
       </c>
       <c r="F6" t="n">
-        <v>-28.4389856624166</v>
+        <v>-28.43898565897316</v>
       </c>
       <c r="G6" t="n">
-        <v>-28.40995576800576</v>
+        <v>-28.40995576350307</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.0290298944108374</v>
+        <v>-0.02902989547008829</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1778531218209522</v>
+        <v>0.1778531219839999</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.2066203311805427</v>
+        <v>-0.2066203311901811</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2054867660356561</v>
+        <v>0.2054867658660038</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8055063531465095</v>
+        <v>0.8055063531859492</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02902071001484042</v>
+        <v>0.02902071001411868</v>
       </c>
       <c r="N6" t="n">
         <v>50.18181818181818</v>
@@ -933,22 +933,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.1687020377252171</v>
+        <v>-0.1687020376136895</v>
       </c>
       <c r="S6" t="n">
-        <v>0.771600679540169</v>
+        <v>0.7716006796580157</v>
       </c>
       <c r="T6" t="n">
-        <v>1.018260845620913</v>
+        <v>1.018260845624424</v>
       </c>
       <c r="U6" t="n">
-        <v>28.4389856624166</v>
+        <v>28.43898565897316</v>
       </c>
       <c r="V6" t="n">
-        <v>149.2825176791398</v>
+        <v>149.282517679182</v>
       </c>
       <c r="W6" t="n">
-        <v>0.2444622677645669</v>
+        <v>0.2444622677065642</v>
       </c>
       <c r="X6" t="n">
         <v>150</v>
@@ -968,37 +968,37 @@
         <v>1439.954545454545</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9832878008450041</v>
+        <v>0.9832878008450039</v>
       </c>
       <c r="D7" t="n">
         <v>-23.09999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>149.1457828203344</v>
+        <v>149.1457828203018</v>
       </c>
       <c r="F7" t="n">
-        <v>-22.9304304966773</v>
+        <v>-22.9304304427426</v>
       </c>
       <c r="G7" t="n">
-        <v>-22.86769736418611</v>
+        <v>-22.86769729371632</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.06273313249119401</v>
+        <v>-0.06273314902628312</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1550858973317005</v>
+        <v>0.1550859022025501</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.1487670306435444</v>
+        <v>-0.1487670307048814</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1879467669714036</v>
+        <v>0.1879467668625764</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7869212104729654</v>
+        <v>0.7869212104819213</v>
       </c>
       <c r="M7" t="n">
-        <v>0.06272866524021636</v>
+        <v>0.06272866524045914</v>
       </c>
       <c r="N7" t="n">
         <v>50.18181818181818</v>
@@ -1013,22 +1013,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.1263008673369052</v>
+        <v>-0.1263008673602131</v>
       </c>
       <c r="S7" t="n">
-        <v>0.5873963518096148</v>
+        <v>0.5873963517719418</v>
       </c>
       <c r="T7" t="n">
-        <v>0.9093434148600116</v>
+        <v>0.9093434148382648</v>
       </c>
       <c r="U7" t="n">
-        <v>22.9304304966773</v>
+        <v>22.9304304427426</v>
       </c>
       <c r="V7" t="n">
-        <v>149.1457828203344</v>
+        <v>149.1457828203018</v>
       </c>
       <c r="W7" t="n">
-        <v>0.1882299100929846</v>
+        <v>0.1882299106781834</v>
       </c>
       <c r="X7" t="n">
         <v>150</v>
@@ -1048,37 +1048,37 @@
         <v>1695.112903225806</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9844128345596418</v>
+        <v>0.9844128345596416</v>
       </c>
       <c r="D8" t="n">
         <v>-18.09999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>148.4201273714208</v>
+        <v>148.4201273715243</v>
       </c>
       <c r="F8" t="n">
-        <v>-18.21796946414219</v>
+        <v>-18.21796946695439</v>
       </c>
       <c r="G8" t="n">
-        <v>-18.20520396641349</v>
+        <v>-18.20520397000869</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.0127654977286982</v>
+        <v>-0.01276549694570801</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1562869474176361</v>
+        <v>0.1562869466285148</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.1808856071370859</v>
+        <v>-0.1808856071444751</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1409368704995577</v>
+        <v>0.1409368704073247</v>
       </c>
       <c r="L8" t="n">
-        <v>0.7014842102565724</v>
+        <v>0.7014842103477977</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01304149492837354</v>
+        <v>0.01304149492910008</v>
       </c>
       <c r="N8" t="n">
         <v>50.03225806451613</v>
@@ -1093,22 +1093,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.1843616455123547</v>
+        <v>-0.1843616454406811</v>
       </c>
       <c r="S8" t="n">
-        <v>0.3485629856891385</v>
+        <v>0.3485629856573263</v>
       </c>
       <c r="T8" t="n">
-        <v>0.744926784608184</v>
+        <v>0.7449267846772992</v>
       </c>
       <c r="U8" t="n">
-        <v>18.21796946414219</v>
+        <v>18.21796946695439</v>
       </c>
       <c r="V8" t="n">
-        <v>148.4201273714208</v>
+        <v>148.4201273715243</v>
       </c>
       <c r="W8" t="n">
-        <v>0.1959415128571301</v>
+        <v>0.1959415124055769</v>
       </c>
       <c r="X8" t="n">
         <v>150</v>
@@ -1134,31 +1134,31 @@
         <v>-13.09999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>147.1050737194983</v>
+        <v>147.1050737195144</v>
       </c>
       <c r="F9" t="n">
-        <v>-13.61247464537722</v>
+        <v>-13.61247424007225</v>
       </c>
       <c r="G9" t="n">
-        <v>-13.53538260579001</v>
+        <v>-13.53538203551962</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.07709203958721537</v>
+        <v>-0.0770922045526261</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1712028007827756</v>
+        <v>0.1712028993332462</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.1974473839909702</v>
+        <v>-0.1974473840264263</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1463844343293244</v>
+        <v>0.1463844343982626</v>
       </c>
       <c r="L9" t="n">
-        <v>0.656918970364578</v>
+        <v>0.656918970367509</v>
       </c>
       <c r="M9" t="n">
-        <v>0.07582101096221246</v>
+        <v>0.07582101087257787</v>
       </c>
       <c r="N9" t="n">
         <v>46.47619047619047</v>
@@ -1173,22 +1173,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.1859249695471705</v>
+        <v>-0.1859249696274679</v>
       </c>
       <c r="S9" t="n">
-        <v>0.363904272300393</v>
+        <v>0.3639042723027709</v>
       </c>
       <c r="T9" t="n">
-        <v>0.717253128091879</v>
+        <v>0.7172531281019766</v>
       </c>
       <c r="U9" t="n">
-        <v>13.61247464537722</v>
+        <v>13.61247424007225</v>
       </c>
       <c r="V9" t="n">
-        <v>147.1050737194983</v>
+        <v>147.1050737195144</v>
       </c>
       <c r="W9" t="n">
-        <v>0.2819077285198159</v>
+        <v>0.2819077392327533</v>
       </c>
       <c r="X9" t="n">
         <v>150</v>
@@ -1208,37 +1208,37 @@
         <v>2084.321428571428</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9767894133164197</v>
+        <v>0.9767894133164194</v>
       </c>
       <c r="D10" t="n">
         <v>-8.099999999999994</v>
       </c>
       <c r="E10" t="n">
-        <v>143.2645534030217</v>
+        <v>143.2645534031509</v>
       </c>
       <c r="F10" t="n">
-        <v>-8.548833625717041</v>
+        <v>-8.548833376086984</v>
       </c>
       <c r="G10" t="n">
-        <v>-8.412366556792774</v>
+        <v>-8.412366102243347</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.1364670689242662</v>
+        <v>-0.136467273843636</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1737557501773709</v>
+        <v>0.1737558668869716</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.05721486612560004</v>
+        <v>-0.05721486606287637</v>
       </c>
       <c r="K10" t="n">
-        <v>0.05913984018250419</v>
+        <v>0.05913984027712819</v>
       </c>
       <c r="L10" t="n">
-        <v>0.6437294660002867</v>
+        <v>0.6437294660647037</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1353623264311157</v>
+        <v>0.1353623264450476</v>
       </c>
       <c r="N10" t="n">
         <v>43.96428571428572</v>
@@ -1253,22 +1253,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.08552303257463986</v>
+        <v>-0.08552303251252116</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1550151479402189</v>
+        <v>0.1550151480330381</v>
       </c>
       <c r="T10" t="n">
-        <v>0.6596606275957833</v>
+        <v>0.6596606276665492</v>
       </c>
       <c r="U10" t="n">
-        <v>8.548833625717041</v>
+        <v>8.548833376086984</v>
       </c>
       <c r="V10" t="n">
-        <v>143.2645534030217</v>
+        <v>143.2645534031509</v>
       </c>
       <c r="W10" t="n">
-        <v>0.1871869016408918</v>
+        <v>0.18718702740756</v>
       </c>
       <c r="X10" t="n">
         <v>150</v>
@@ -1288,37 +1288,37 @@
         <v>2211.25</v>
       </c>
       <c r="C11" t="n">
-        <v>0.951606915352475</v>
+        <v>0.9516069153524748</v>
       </c>
       <c r="D11" t="n">
         <v>-3.099999999999994</v>
       </c>
       <c r="E11" t="n">
-        <v>185.6305682810611</v>
+        <v>185.6305682810652</v>
       </c>
       <c r="F11" t="n">
-        <v>-4.41423130183245</v>
+        <v>-4.414231299881311</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.162115879123986</v>
+        <v>-4.162115875665233</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.2521154227084638</v>
+        <v>-0.2521154242160779</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3560885035597769</v>
+        <v>0.3560885035776984</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.002220436222683494</v>
+        <v>-0.002220436191931204</v>
       </c>
       <c r="K11" t="n">
-        <v>0.07660547811110517</v>
+        <v>0.07660547801211712</v>
       </c>
       <c r="L11" t="n">
-        <v>0.5850243242167364</v>
+        <v>0.5850243241963835</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2520332204535981</v>
+        <v>0.2520332204547531</v>
       </c>
       <c r="N11" t="n">
         <v>34.75</v>
@@ -1333,22 +1333,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0.1009390818557681</v>
+        <v>0.100939081873733</v>
       </c>
       <c r="S11" t="n">
-        <v>0.07784219414560312</v>
+        <v>0.0778421940438155</v>
       </c>
       <c r="T11" t="n">
-        <v>0.5786711844913018</v>
+        <v>0.5786711844784475</v>
       </c>
       <c r="U11" t="n">
-        <v>4.41423130183245</v>
+        <v>4.414231299881311</v>
       </c>
       <c r="V11" t="n">
-        <v>185.6305682810611</v>
+        <v>185.6305682810652</v>
       </c>
       <c r="W11" t="n">
-        <v>0.3700926394765579</v>
+        <v>0.370092640052716</v>
       </c>
       <c r="X11" t="n">
         <v>150</v>
@@ -1368,37 +1368,37 @@
         <v>2388.621212121212</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9556149259571814</v>
+        <v>0.9556149259571813</v>
       </c>
       <c r="D12" t="n">
         <v>1.900000000000006</v>
       </c>
       <c r="E12" t="n">
-        <v>149.0704048992467</v>
+        <v>149.0704048992427</v>
       </c>
       <c r="F12" t="n">
-        <v>2.482042539098344</v>
+        <v>2.482042362085087</v>
       </c>
       <c r="G12" t="n">
         <v>1.5</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9820425390983434</v>
+        <v>0.9820423620850866</v>
       </c>
       <c r="I12" t="n">
-        <v>1.477917704488044</v>
+        <v>1.477917570031433</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.1070891289331124</v>
+        <v>-0.1070891289493407</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2162202544670163</v>
+        <v>0.2162202544277478</v>
       </c>
       <c r="L12" t="n">
-        <v>0.7283568278615792</v>
+        <v>0.7283568278684126</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2241780577560993</v>
+        <v>0.2241780577038832</v>
       </c>
       <c r="N12" t="n">
         <v>50.18181818181818</v>
@@ -1413,22 +1413,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.1004271327204092</v>
+        <v>-0.100427132754632</v>
       </c>
       <c r="S12" t="n">
-        <v>0.1900535769950112</v>
+        <v>0.190053576941714</v>
       </c>
       <c r="T12" t="n">
-        <v>0.7212452864356778</v>
+        <v>0.7212452864429256</v>
       </c>
       <c r="U12" t="n">
-        <v>-2.482042539098344</v>
+        <v>-2.482042362085087</v>
       </c>
       <c r="V12" t="n">
-        <v>149.0704048992467</v>
+        <v>149.0704048992427</v>
       </c>
       <c r="W12" t="n">
-        <v>1.76523253478909</v>
+        <v>1.765232414251174</v>
       </c>
       <c r="X12" t="n">
         <v>150</v>
@@ -1448,37 +1448,37 @@
         <v>2642.539682539682</v>
       </c>
       <c r="C13" t="n">
-        <v>0.976969896649143</v>
+        <v>0.9769698966491429</v>
       </c>
       <c r="D13" t="n">
         <v>6.900000000000007</v>
       </c>
       <c r="E13" t="n">
-        <v>148.1094431470128</v>
+        <v>148.1094431470542</v>
       </c>
       <c r="F13" t="n">
-        <v>6.960924639121112</v>
+        <v>6.960924754584971</v>
       </c>
       <c r="G13" t="n">
-        <v>6.883590418386335</v>
+        <v>6.883590571785827</v>
       </c>
       <c r="H13" t="n">
-        <v>0.07733422073477698</v>
+        <v>0.07733418279914318</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1102650051707199</v>
+        <v>0.1102649745296713</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.09456971638944119</v>
+        <v>-0.09456971639436265</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2474637105361303</v>
+        <v>0.2474637105509601</v>
       </c>
       <c r="L13" t="n">
-        <v>0.7303560471719069</v>
+        <v>0.7303560472576388</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.07672121975796577</v>
+        <v>-0.07672121970984069</v>
       </c>
       <c r="N13" t="n">
         <v>49.19047619047619</v>
@@ -1493,22 +1493,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.04648410055147186</v>
+        <v>-0.04648410055804224</v>
       </c>
       <c r="S13" t="n">
-        <v>0.2224560183565326</v>
+        <v>0.2224560183678855</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7140886018427726</v>
+        <v>0.7140886019285745</v>
       </c>
       <c r="U13" t="n">
-        <v>-6.960924639121112</v>
+        <v>-6.960924754584971</v>
       </c>
       <c r="V13" t="n">
-        <v>148.1094431470128</v>
+        <v>148.1094431470542</v>
       </c>
       <c r="W13" t="n">
-        <v>0.1364844972212719</v>
+        <v>0.1364844755383184</v>
       </c>
       <c r="X13" t="n">
         <v>150</v>
@@ -1534,31 +1534,31 @@
         <v>11.90000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>149.047652576191</v>
+        <v>149.0476525763267</v>
       </c>
       <c r="F14" t="n">
-        <v>12.34756151661564</v>
+        <v>12.34756151801951</v>
       </c>
       <c r="G14" t="n">
-        <v>12.29422759640145</v>
+        <v>12.29422759822129</v>
       </c>
       <c r="H14" t="n">
-        <v>0.05333392021418953</v>
+        <v>0.05333391979822826</v>
       </c>
       <c r="I14" t="n">
-        <v>0.08095242944694003</v>
+        <v>0.08095242915209336</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.1022317781973542</v>
+        <v>-0.1022317781746004</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2431191713156676</v>
+        <v>0.2431191713011204</v>
       </c>
       <c r="L14" t="n">
-        <v>0.7625910907022813</v>
+        <v>0.7625910907422512</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.05333043645944369</v>
+        <v>-0.05333043645893723</v>
       </c>
       <c r="N14" t="n">
         <v>50.18181818181818</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.03633340347259618</v>
+        <v>-0.03633340343655229</v>
       </c>
       <c r="S14" t="n">
-        <v>0.1612108336884222</v>
+        <v>0.1612108336812009</v>
       </c>
       <c r="T14" t="n">
-        <v>0.7357687739249834</v>
+        <v>0.7357687739718431</v>
       </c>
       <c r="U14" t="n">
-        <v>-12.34756151661564</v>
+        <v>-12.34756151801951</v>
       </c>
       <c r="V14" t="n">
-        <v>149.047652576191</v>
+        <v>149.0476525763267</v>
       </c>
       <c r="W14" t="n">
-        <v>0.09669957874621556</v>
+        <v>0.09669957834618721</v>
       </c>
       <c r="X14" t="n">
         <v>150</v>
@@ -1614,31 +1614,31 @@
         <v>16.90000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>149.016590021033</v>
+        <v>149.0165900210029</v>
       </c>
       <c r="F15" t="n">
-        <v>17.04379066390467</v>
+        <v>17.04378136129064</v>
       </c>
       <c r="G15" t="n">
-        <v>17.00709991454513</v>
+        <v>17.00708776609422</v>
       </c>
       <c r="H15" t="n">
-        <v>0.03669074935953346</v>
+        <v>0.03669359519642566</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0820508670548678</v>
+        <v>0.08205268147122793</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.09440334467060318</v>
+        <v>-0.09440334472933837</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2234724127160004</v>
+        <v>0.223472412626351</v>
       </c>
       <c r="L15" t="n">
-        <v>0.776835657893906</v>
+        <v>0.7768356579063863</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.03668781393042522</v>
+        <v>-0.03668781707737109</v>
       </c>
       <c r="N15" t="n">
         <v>50.18181818181818</v>
@@ -1653,22 +1653,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.0148702537024875</v>
+        <v>0.01487025370397576</v>
       </c>
       <c r="S15" t="n">
-        <v>0.1175500582777298</v>
+        <v>0.1175500582785811</v>
       </c>
       <c r="T15" t="n">
-        <v>0.7482529007305905</v>
+        <v>0.7482529007555746</v>
       </c>
       <c r="U15" t="n">
-        <v>-17.04379066390467</v>
+        <v>-17.04378136129064</v>
       </c>
       <c r="V15" t="n">
-        <v>149.016590021033</v>
+        <v>149.0165900210029</v>
       </c>
       <c r="W15" t="n">
-        <v>0.1024487857682666</v>
+        <v>0.1024517392881149</v>
       </c>
       <c r="X15" t="n">
         <v>150</v>
@@ -1694,31 +1694,31 @@
         <v>21.90000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>149.0392810483642</v>
+        <v>149.0392810483436</v>
       </c>
       <c r="F16" t="n">
-        <v>22.16988583047957</v>
+        <v>22.16988577407212</v>
       </c>
       <c r="G16" t="n">
-        <v>22.14348720070471</v>
+        <v>22.14348712706708</v>
       </c>
       <c r="H16" t="n">
-        <v>0.02639862977485959</v>
+        <v>0.02639864700504083</v>
       </c>
       <c r="I16" t="n">
-        <v>0.09369844218761167</v>
+        <v>0.09369844385059167</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.1199148808817585</v>
+        <v>-0.1199148809442027</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2144885755599412</v>
+        <v>0.2144885755399772</v>
       </c>
       <c r="L16" t="n">
-        <v>0.7930349396555041</v>
+        <v>0.7930349396083524</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.02639793968166505</v>
+        <v>-0.02639793969452048</v>
       </c>
       <c r="N16" t="n">
         <v>50.18181818181818</v>
@@ -1733,22 +1733,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0.0577191182272349</v>
+        <v>0.05771911810988081</v>
       </c>
       <c r="S16" t="n">
-        <v>0.1147793519252395</v>
+        <v>0.1147793518513714</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7566718478182642</v>
+        <v>0.7566718477772842</v>
       </c>
       <c r="U16" t="n">
-        <v>-22.16988583047957</v>
+        <v>-22.16988577407212</v>
       </c>
       <c r="V16" t="n">
-        <v>149.0392810483642</v>
+        <v>149.0392810483436</v>
       </c>
       <c r="W16" t="n">
-        <v>0.1370911485552358</v>
+        <v>0.1370911542842208</v>
       </c>
       <c r="X16" t="n">
         <v>150</v>
@@ -1768,37 +1768,37 @@
         <v>3675.954545454545</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9814898069417918</v>
+        <v>0.9814898069417913</v>
       </c>
       <c r="D17" t="n">
         <v>26.90000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>149.127575553408</v>
+        <v>149.1275755536081</v>
       </c>
       <c r="F17" t="n">
-        <v>27.87721104172475</v>
+        <v>27.87721249577322</v>
       </c>
       <c r="G17" t="n">
-        <v>27.84517993602328</v>
+        <v>27.84518183438559</v>
       </c>
       <c r="H17" t="n">
-        <v>0.03203110570146592</v>
+        <v>0.0320306613876265</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1157736624161418</v>
+        <v>0.1157736226358986</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.1342058892076951</v>
+        <v>-0.1342058894410347</v>
       </c>
       <c r="K17" t="n">
-        <v>0.2326162526607359</v>
+        <v>0.2326162528847081</v>
       </c>
       <c r="L17" t="n">
-        <v>0.7893068851310749</v>
+        <v>0.7893068854699284</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.03202975699708133</v>
+        <v>-0.03202975668745162</v>
       </c>
       <c r="N17" t="n">
         <v>50.18181818181818</v>
@@ -1813,22 +1813,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0.09722142990194206</v>
+        <v>0.09722142972118346</v>
       </c>
       <c r="S17" t="n">
-        <v>0.1211748744089798</v>
+        <v>0.1211748746952738</v>
       </c>
       <c r="T17" t="n">
-        <v>0.7359056791682086</v>
+        <v>0.7359056795046556</v>
       </c>
       <c r="U17" t="n">
-        <v>-27.87721104172475</v>
+        <v>-27.87721249577322</v>
       </c>
       <c r="V17" t="n">
-        <v>149.127575553408</v>
+        <v>149.1275755536081</v>
       </c>
       <c r="W17" t="n">
-        <v>0.1697684730902192</v>
+        <v>0.1697684288411316</v>
       </c>
       <c r="X17" t="n">
         <v>150</v>
@@ -1848,37 +1848,37 @@
         <v>3936.954545454545</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9741205122009929</v>
+        <v>0.9741205122009921</v>
       </c>
       <c r="D18" t="n">
         <v>31.90000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>149.1245503954661</v>
+        <v>149.1245503955639</v>
       </c>
       <c r="F18" t="n">
-        <v>32.69717522111455</v>
+        <v>32.69718445949572</v>
       </c>
       <c r="G18" t="n">
-        <v>32.6327596643745</v>
+        <v>32.63277172314477</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0644155567400444</v>
+        <v>0.06441273635094644</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1428678742862556</v>
+        <v>0.1428656229037265</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.2008291301407761</v>
+        <v>-0.2008291303729948</v>
       </c>
       <c r="K18" t="n">
-        <v>0.2439977628296353</v>
+        <v>0.2439977627398588</v>
       </c>
       <c r="L18" t="n">
-        <v>0.8002736694231086</v>
+        <v>0.8002736696111481</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.06440904339347153</v>
+        <v>-0.06440904358083346</v>
       </c>
       <c r="N18" t="n">
         <v>50.18181818181818</v>
@@ -1893,22 +1893,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.05213689929845323</v>
+        <v>0.05213689901251618</v>
       </c>
       <c r="S18" t="n">
-        <v>0.1683637964671494</v>
+        <v>0.1683637964326307</v>
       </c>
       <c r="T18" t="n">
-        <v>0.7400679996792972</v>
+        <v>0.7400679998510928</v>
       </c>
       <c r="U18" t="n">
-        <v>-32.69717522111455</v>
+        <v>-32.69718445949572</v>
       </c>
       <c r="V18" t="n">
-        <v>149.1245503954661</v>
+        <v>149.1245503955639</v>
       </c>
       <c r="W18" t="n">
-        <v>0.1757897997456366</v>
+        <v>0.1757876887103915</v>
       </c>
       <c r="X18" t="n">
         <v>150</v>
@@ -1928,37 +1928,37 @@
         <v>4197.954545454545</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9630893707370043</v>
+        <v>0.9630893707370028</v>
       </c>
       <c r="D19" t="n">
         <v>36.90000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>149.0786375612963</v>
+        <v>149.0786375609828</v>
       </c>
       <c r="F19" t="n">
-        <v>37.73367919247577</v>
+        <v>37.73367039265472</v>
       </c>
       <c r="G19" t="n">
-        <v>37.69292631543188</v>
+        <v>37.69291482618024</v>
       </c>
       <c r="H19" t="n">
-        <v>0.04075287704389103</v>
+        <v>0.04075556647446761</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1706813574483106</v>
+        <v>0.1706825501349961</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.1898798219935485</v>
+        <v>-0.189879822058369</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2267351379708525</v>
+        <v>0.226735137715629</v>
       </c>
       <c r="L19" t="n">
-        <v>0.7783510029676005</v>
+        <v>0.7783510026658382</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.04074956356748825</v>
+        <v>-0.0407495632894125</v>
       </c>
       <c r="N19" t="n">
         <v>50.18181818181818</v>
@@ -1973,22 +1973,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0.1035494759776019</v>
+        <v>0.1035494759146129</v>
       </c>
       <c r="S19" t="n">
-        <v>0.1350518109072059</v>
+        <v>0.1350518105544395</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7201215403843364</v>
+        <v>0.7201215400101655</v>
       </c>
       <c r="U19" t="n">
-        <v>-37.73367919247577</v>
+        <v>-37.73367039265472</v>
       </c>
       <c r="V19" t="n">
-        <v>149.0786375612963</v>
+        <v>149.0786375609828</v>
       </c>
       <c r="W19" t="n">
-        <v>0.2187397582568084</v>
+        <v>0.218740964417885</v>
       </c>
       <c r="X19" t="n">
         <v>150</v>
@@ -2008,37 +2008,37 @@
         <v>4458.954545454545</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9481543443077105</v>
+        <v>0.9481543443077085</v>
       </c>
       <c r="D20" t="n">
         <v>41.90000000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>149.0351192888108</v>
+        <v>149.0351192885439</v>
       </c>
       <c r="F20" t="n">
-        <v>42.56668629642976</v>
+        <v>42.56668630025721</v>
       </c>
       <c r="G20" t="n">
-        <v>42.4389663528382</v>
+        <v>42.43896635786599</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1277199435915553</v>
+        <v>0.1277199423912214</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2364848103925149</v>
+        <v>0.2364848094312435</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.1985831071918735</v>
+        <v>-0.1985831070906952</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2300517294679809</v>
+        <v>0.2300517293598884</v>
       </c>
       <c r="L20" t="n">
-        <v>0.7982418212790616</v>
+        <v>0.7982418210657817</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.1277112621340717</v>
+        <v>-0.127711262134264</v>
       </c>
       <c r="N20" t="n">
         <v>50.18181818181818</v>
@@ -2053,22 +2053,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0.03837164944494709</v>
+        <v>0.03837164950466971</v>
       </c>
       <c r="S20" t="n">
-        <v>-0.003635936210593722</v>
+        <v>-0.00363593630199666</v>
       </c>
       <c r="T20" t="n">
-        <v>0.7388174014354015</v>
+        <v>0.738817401234215</v>
       </c>
       <c r="U20" t="n">
-        <v>-42.56668629642976</v>
+        <v>-42.56668630025721</v>
       </c>
       <c r="V20" t="n">
-        <v>149.0351192888108</v>
+        <v>149.0351192885439</v>
       </c>
       <c r="W20" t="n">
-        <v>0.2956531644657465</v>
+        <v>0.2956531634361334</v>
       </c>
       <c r="X20" t="n">
         <v>150</v>
@@ -2088,37 +2088,37 @@
         <v>4718.954545454545</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9172692916494719</v>
+        <v>0.9172692916494711</v>
       </c>
       <c r="D21" t="n">
         <v>46.90000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>149.0552815075554</v>
+        <v>149.055281507563</v>
       </c>
       <c r="F21" t="n">
-        <v>47.82946849907485</v>
+        <v>47.82946003424986</v>
       </c>
       <c r="G21" t="n">
-        <v>47.73906568297599</v>
+        <v>47.73905463312075</v>
       </c>
       <c r="H21" t="n">
-        <v>0.09040281609885643</v>
+        <v>0.0904054011291124</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3522981824277296</v>
+        <v>0.3522987854969729</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.1462044220000282</v>
+        <v>-0.1462044220102819</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2347031035754623</v>
+        <v>0.234703103641923</v>
       </c>
       <c r="L21" t="n">
-        <v>0.7153931983078249</v>
+        <v>0.7153931983338855</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.09100877024370886</v>
+        <v>-0.09100877167205651</v>
       </c>
       <c r="N21" t="n">
         <v>50.18181818181818</v>
@@ -2133,22 +2133,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.167799286346765</v>
+        <v>0.1677992863376429</v>
       </c>
       <c r="S21" t="n">
-        <v>0.09358048511923431</v>
+        <v>0.09358048518031555</v>
       </c>
       <c r="T21" t="n">
-        <v>0.679618480761872</v>
+        <v>0.6796184807114317</v>
       </c>
       <c r="U21" t="n">
-        <v>-47.82946849907485</v>
+        <v>-47.82946003424986</v>
       </c>
       <c r="V21" t="n">
-        <v>149.0552815075554</v>
+        <v>149.055281507563</v>
       </c>
       <c r="W21" t="n">
-        <v>0.4407290501742344</v>
+        <v>0.4407295897689664</v>
       </c>
       <c r="X21" t="n">
         <v>150</v>
@@ -2168,37 +2168,37 @@
         <v>4979.954545454545</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8666223389210875</v>
+        <v>0.8666223389210832</v>
       </c>
       <c r="D22" t="n">
         <v>51.90000000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>149.0238187768091</v>
+        <v>149.0238187768177</v>
       </c>
       <c r="F22" t="n">
-        <v>53.34342174945246</v>
+        <v>53.3434227240888</v>
       </c>
       <c r="G22" t="n">
-        <v>53.27214761449191</v>
+        <v>53.27214888613017</v>
       </c>
       <c r="H22" t="n">
-        <v>0.07127413496055292</v>
+        <v>0.07127383795863831</v>
       </c>
       <c r="I22" t="n">
-        <v>0.492908361214835</v>
+        <v>0.4929081347536503</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.1041000704293335</v>
+        <v>-0.1041000703533154</v>
       </c>
       <c r="K22" t="n">
-        <v>0.2177301749729298</v>
+        <v>0.2177301749829055</v>
       </c>
       <c r="L22" t="n">
-        <v>0.691842769204283</v>
+        <v>0.691842768946842</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.07125411969076582</v>
+        <v>-0.07125411941658094</v>
       </c>
       <c r="N22" t="n">
         <v>50.18181818181818</v>
@@ -2213,22 +2213,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0.2173104455882959</v>
+        <v>0.2173104455783979</v>
       </c>
       <c r="S22" t="n">
-        <v>0.009400719614138239</v>
+        <v>0.009400719509593298</v>
       </c>
       <c r="T22" t="n">
-        <v>0.674483767795697</v>
+        <v>0.6744837673802331</v>
       </c>
       <c r="U22" t="n">
-        <v>-53.34342174945246</v>
+        <v>-53.3434227240888</v>
       </c>
       <c r="V22" t="n">
-        <v>149.0238187768091</v>
+        <v>149.0238187768177</v>
       </c>
       <c r="W22" t="n">
-        <v>0.5987608350997099</v>
+        <v>0.5987606662360326</v>
       </c>
       <c r="X22" t="n">
         <v>150</v>
@@ -2248,37 +2248,37 @@
         <v>129.9333333333333</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8915527531498199</v>
+        <v>0.8915527531498194</v>
       </c>
       <c r="D23" t="n">
         <v>-48.09999999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>308.5870349754701</v>
+        <v>308.5870349754085</v>
       </c>
       <c r="F23" t="n">
-        <v>-47.83552901988661</v>
+        <v>-47.83553916868836</v>
       </c>
       <c r="G23" t="n">
-        <v>-47.80828328593273</v>
+        <v>-47.80829537787529</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.02724573395387283</v>
+        <v>-0.02724379081306978</v>
       </c>
       <c r="I23" t="n">
-        <v>0.5377379982487973</v>
+        <v>0.5377375079515699</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.01968942653832315</v>
+        <v>-0.01968942657454346</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.03130480281746487</v>
+        <v>-0.03130480276944828</v>
       </c>
       <c r="L23" t="n">
-        <v>0.649605690389044</v>
+        <v>0.6496056904772715</v>
       </c>
       <c r="M23" t="n">
-        <v>0.02721587939962042</v>
+        <v>0.02721588105447582</v>
       </c>
       <c r="N23" t="n">
         <v>50.71111111111111</v>
@@ -2293,22 +2293,22 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0.2792388842465203</v>
+        <v>0.2792388843211533</v>
       </c>
       <c r="S23" t="n">
-        <v>0.8133930974131857</v>
+        <v>0.8133930973973159</v>
       </c>
       <c r="T23" t="n">
-        <v>1.05786832636702</v>
+        <v>1.057868326381873</v>
       </c>
       <c r="U23" t="n">
-        <v>47.83552901988661</v>
+        <v>47.83553916868836</v>
       </c>
       <c r="V23" t="n">
-        <v>308.5870349754701</v>
+        <v>308.5870349754085</v>
       </c>
       <c r="W23" t="n">
-        <v>0.644880214140593</v>
+        <v>0.6448788723482753</v>
       </c>
       <c r="X23" t="n">
         <v>300</v>
@@ -2328,37 +2328,37 @@
         <v>390.3037037037037</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9252411134718921</v>
+        <v>0.9252411134718925</v>
       </c>
       <c r="D24" t="n">
         <v>-43.09999999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>308.5669349735003</v>
+        <v>308.566934973452</v>
       </c>
       <c r="F24" t="n">
-        <v>-43.11210311378534</v>
+        <v>-43.11210309558792</v>
       </c>
       <c r="G24" t="n">
-        <v>-43.14635805364573</v>
+        <v>-43.14635803198964</v>
       </c>
       <c r="H24" t="n">
-        <v>0.03425493986038824</v>
+        <v>0.03425493640172197</v>
       </c>
       <c r="I24" t="n">
-        <v>0.4179406072163641</v>
+        <v>0.4179406078237342</v>
       </c>
       <c r="J24" t="n">
-        <v>0.01139141256290573</v>
+        <v>0.01139141230635959</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.03733178116164163</v>
+        <v>-0.03733178149999966</v>
       </c>
       <c r="L24" t="n">
-        <v>0.6241590932098372</v>
+        <v>0.6241590930517921</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.03430390960764717</v>
+        <v>-0.03430390960899119</v>
       </c>
       <c r="N24" t="n">
         <v>50.71111111111111</v>
@@ -2373,22 +2373,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.2123049577032154</v>
+        <v>0.2123049574610046</v>
       </c>
       <c r="S24" t="n">
-        <v>0.774757757242859</v>
+        <v>0.7747577569464237</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9829481233968724</v>
+        <v>0.9829481230368516</v>
       </c>
       <c r="U24" t="n">
-        <v>43.11210311378534</v>
+        <v>43.11210309558792</v>
       </c>
       <c r="V24" t="n">
-        <v>308.5669349735003</v>
+        <v>308.566934973452</v>
       </c>
       <c r="W24" t="n">
-        <v>0.5453481866595937</v>
+        <v>0.5453481871534356</v>
       </c>
       <c r="X24" t="n">
         <v>300</v>
@@ -2408,37 +2408,37 @@
         <v>649.9333333333333</v>
       </c>
       <c r="C25" t="n">
-        <v>0.950943062336942</v>
+        <v>0.9509430623369415</v>
       </c>
       <c r="D25" t="n">
         <v>-38.09999999999999</v>
       </c>
       <c r="E25" t="n">
-        <v>308.5865516451096</v>
+        <v>308.5865516449453</v>
       </c>
       <c r="F25" t="n">
-        <v>-37.66980745012653</v>
+        <v>-37.66980744863207</v>
       </c>
       <c r="G25" t="n">
-        <v>-37.68518844029698</v>
+        <v>-37.68518843851261</v>
       </c>
       <c r="H25" t="n">
-        <v>0.01538099017045014</v>
+        <v>0.01538098988053769</v>
       </c>
       <c r="I25" t="n">
-        <v>0.3536492745086744</v>
+        <v>0.3536492745663722</v>
       </c>
       <c r="J25" t="n">
-        <v>0.016421883669399</v>
+        <v>0.01642188370243081</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.05437846815906906</v>
+        <v>-0.05437846862862538</v>
       </c>
       <c r="L25" t="n">
-        <v>0.5641088687881487</v>
+        <v>0.5641088687547346</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.01538116035444298</v>
+        <v>-0.01538116035505479</v>
       </c>
       <c r="N25" t="n">
         <v>50.71111111111111</v>
@@ -2453,22 +2453,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0.1744611236352629</v>
+        <v>0.1744611236612155</v>
       </c>
       <c r="S25" t="n">
-        <v>0.6752406796211321</v>
+        <v>0.6752406794759052</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8605565407485527</v>
+        <v>0.860556540674096</v>
       </c>
       <c r="U25" t="n">
-        <v>37.66980745012653</v>
+        <v>37.66980744863207</v>
       </c>
       <c r="V25" t="n">
-        <v>308.5865516451096</v>
+        <v>308.5865516449453</v>
       </c>
       <c r="W25" t="n">
-        <v>0.4424723214877504</v>
+        <v>0.4424723216546265</v>
       </c>
       <c r="X25" t="n">
         <v>300</v>
@@ -2488,37 +2488,37 @@
         <v>910.9333333333333</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9655230869108474</v>
+        <v>0.965523086910847</v>
       </c>
       <c r="D26" t="n">
         <v>-33.09999999999999</v>
       </c>
       <c r="E26" t="n">
-        <v>308.5963950705467</v>
+        <v>308.5963950709055</v>
       </c>
       <c r="F26" t="n">
-        <v>-32.98103364132657</v>
+        <v>-32.9810336431971</v>
       </c>
       <c r="G26" t="n">
-        <v>-32.98388033301514</v>
+        <v>-32.98388033521916</v>
       </c>
       <c r="H26" t="n">
-        <v>0.002846691688563659</v>
+        <v>0.00284669202205758</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2088194506059584</v>
+        <v>0.2088194510249054</v>
       </c>
       <c r="J26" t="n">
-        <v>0.01937061959517674</v>
+        <v>0.01937061955836841</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.05955406943904133</v>
+        <v>-0.05955406925698649</v>
       </c>
       <c r="L26" t="n">
-        <v>0.604153795549964</v>
+        <v>0.6041537953523147</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.002834460907003606</v>
+        <v>-0.002834460906606432</v>
       </c>
       <c r="N26" t="n">
         <v>50.71111111111111</v>
@@ -2533,22 +2533,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0.1362081081690277</v>
+        <v>0.1362081080617889</v>
       </c>
       <c r="S26" t="n">
-        <v>0.6044301930635353</v>
+        <v>0.6044301929713064</v>
       </c>
       <c r="T26" t="n">
-        <v>0.8308825954635566</v>
+        <v>0.8308825954281671</v>
       </c>
       <c r="U26" t="n">
-        <v>32.98103364132657</v>
+        <v>32.9810336431971</v>
       </c>
       <c r="V26" t="n">
-        <v>308.5963950705467</v>
+        <v>308.5963950709055</v>
       </c>
       <c r="W26" t="n">
-        <v>0.2618030048899083</v>
+        <v>0.2618030050494388</v>
       </c>
       <c r="X26" t="n">
         <v>300</v>
@@ -2568,37 +2568,37 @@
         <v>1171.933333333333</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9762366841143051</v>
+        <v>0.9762366841143045</v>
       </c>
       <c r="D27" t="n">
         <v>-28.09999999999999</v>
       </c>
       <c r="E27" t="n">
-        <v>308.6033196926564</v>
+        <v>308.603319693015</v>
       </c>
       <c r="F27" t="n">
-        <v>-28.41338927706695</v>
+        <v>-28.41338927328762</v>
       </c>
       <c r="G27" t="n">
-        <v>-28.40995576800576</v>
+        <v>-28.40995576350307</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.003433509061195055</v>
+        <v>-0.003433509784547558</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1906264455754296</v>
+        <v>0.1906264455263151</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.0003911519559179796</v>
+        <v>-0.0003911519083184574</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.03753208191979956</v>
+        <v>-0.03753208181759451</v>
       </c>
       <c r="L27" t="n">
-        <v>0.6266705602755116</v>
+        <v>0.6266705601286047</v>
       </c>
       <c r="M27" t="n">
-        <v>0.00343057697149234</v>
+        <v>0.003430576971181273</v>
       </c>
       <c r="N27" t="n">
         <v>50.71111111111111</v>
@@ -2613,22 +2613,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.03783047036196562</v>
+        <v>0.03783047052735271</v>
       </c>
       <c r="S27" t="n">
-        <v>0.5296319379015072</v>
+        <v>0.5296319382795687</v>
       </c>
       <c r="T27" t="n">
-        <v>0.7822676376337059</v>
+        <v>0.7822676380286224</v>
       </c>
       <c r="U27" t="n">
-        <v>28.41338927706695</v>
+        <v>28.41338927328762</v>
       </c>
       <c r="V27" t="n">
-        <v>308.6033196926564</v>
+        <v>308.603319693015</v>
       </c>
       <c r="W27" t="n">
-        <v>0.2277452623053267</v>
+        <v>0.2277452622521138</v>
       </c>
       <c r="X27" t="n">
         <v>300</v>
@@ -2648,37 +2648,37 @@
         <v>1432.933333333333</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9825975625350754</v>
+        <v>0.9825975625350751</v>
       </c>
       <c r="D28" t="n">
         <v>-23.09999999999999</v>
       </c>
       <c r="E28" t="n">
-        <v>308.5824166874196</v>
+        <v>308.582416687432</v>
       </c>
       <c r="F28" t="n">
-        <v>-22.86893338107717</v>
+        <v>-22.86893332185918</v>
       </c>
       <c r="G28" t="n">
-        <v>-22.86769736418611</v>
+        <v>-22.86769729371632</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.001236016891058623</v>
+        <v>-0.00123602814286354</v>
       </c>
       <c r="I28" t="n">
-        <v>0.18169954301253</v>
+        <v>0.1816995362112795</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.02103885852324146</v>
+        <v>-0.02103885846325134</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.008167488324552186</v>
+        <v>-0.008167488222515513</v>
       </c>
       <c r="L28" t="n">
-        <v>0.6118305469613421</v>
+        <v>0.6118305471545179</v>
       </c>
       <c r="M28" t="n">
-        <v>0.001240959700313794</v>
+        <v>0.001240959694467428</v>
       </c>
       <c r="N28" t="n">
         <v>50.71111111111111</v>
@@ -2693,22 +2693,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0.001602189195738829</v>
+        <v>0.001602189297038641</v>
       </c>
       <c r="S28" t="n">
-        <v>0.3918875942007498</v>
+        <v>0.3918875943852598</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7051457324706406</v>
+        <v>0.705145732692032</v>
       </c>
       <c r="U28" t="n">
-        <v>22.86893338107717</v>
+        <v>22.86893332185918</v>
       </c>
       <c r="V28" t="n">
-        <v>308.5824166874196</v>
+        <v>308.582416687432</v>
       </c>
       <c r="W28" t="n">
-        <v>0.2359350293616555</v>
+        <v>0.2359350193523495</v>
       </c>
       <c r="X28" t="n">
         <v>300</v>
@@ -2728,37 +2728,37 @@
         <v>1689.03125</v>
       </c>
       <c r="C29" t="n">
-        <v>0.9837636240663278</v>
+        <v>0.9837636240663274</v>
       </c>
       <c r="D29" t="n">
         <v>-18.09999999999999</v>
       </c>
       <c r="E29" t="n">
-        <v>310.7649334863429</v>
+        <v>310.7649334864943</v>
       </c>
       <c r="F29" t="n">
-        <v>-18.23237269028536</v>
+        <v>-18.23237269342308</v>
       </c>
       <c r="G29" t="n">
-        <v>-18.20520396641349</v>
+        <v>-18.20520397000869</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.02716872387187055</v>
+        <v>-0.02716872341439655</v>
       </c>
       <c r="I29" t="n">
-        <v>0.2533307874097087</v>
+        <v>0.2533307872136041</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.00695488047512771</v>
+        <v>-0.006954880507028856</v>
       </c>
       <c r="K29" t="n">
-        <v>0.01288724665238494</v>
+        <v>0.01288724664755663</v>
       </c>
       <c r="L29" t="n">
-        <v>0.5905286377690347</v>
+        <v>0.5905286377510113</v>
       </c>
       <c r="M29" t="n">
-        <v>0.02735741987161228</v>
+        <v>0.02735741987157114</v>
       </c>
       <c r="N29" t="n">
         <v>51.734375</v>
@@ -2773,22 +2773,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>-0.01090728363622373</v>
+        <v>-0.01090728358809334</v>
       </c>
       <c r="S29" t="n">
-        <v>0.2171230965513517</v>
+        <v>0.2171230966098038</v>
       </c>
       <c r="T29" t="n">
-        <v>0.6168522809925023</v>
+        <v>0.6168522809948344</v>
       </c>
       <c r="U29" t="n">
-        <v>18.23237269028536</v>
+        <v>18.23237269342308</v>
       </c>
       <c r="V29" t="n">
-        <v>310.7649334863429</v>
+        <v>310.7649334864943</v>
       </c>
       <c r="W29" t="n">
-        <v>0.3353541253858661</v>
+        <v>0.3353541257875995</v>
       </c>
       <c r="X29" t="n">
         <v>300</v>
@@ -2808,37 +2808,37 @@
         <v>1915.775510204082</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9819803884808186</v>
+        <v>0.9819803884808185</v>
       </c>
       <c r="D30" t="n">
         <v>-13.09999999999999</v>
       </c>
       <c r="E30" t="n">
-        <v>314.1591880295434</v>
+        <v>314.1591880294431</v>
       </c>
       <c r="F30" t="n">
-        <v>-13.60102491658522</v>
+        <v>-13.60102436369881</v>
       </c>
       <c r="G30" t="n">
-        <v>-13.53538260579001</v>
+        <v>-13.53538203551962</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.06564231079520819</v>
+        <v>-0.06564232817918615</v>
       </c>
       <c r="I30" t="n">
-        <v>0.2650995092007185</v>
+        <v>0.2650995436307577</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.024463614482267</v>
+        <v>-0.02446361442725084</v>
       </c>
       <c r="K30" t="n">
-        <v>0.001686902276859078</v>
+        <v>0.001686902366886217</v>
       </c>
       <c r="L30" t="n">
-        <v>0.6242913004632835</v>
+        <v>0.6242913004243965</v>
       </c>
       <c r="M30" t="n">
-        <v>0.06294138836612029</v>
+        <v>0.06294138833206402</v>
       </c>
       <c r="N30" t="n">
         <v>50.61224489795919</v>
@@ -2853,22 +2853,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>-0.00901267931912147</v>
+        <v>-0.009012679304701079</v>
       </c>
       <c r="S30" t="n">
-        <v>0.2171484407518679</v>
+        <v>0.2171484407633926</v>
       </c>
       <c r="T30" t="n">
-        <v>0.6440448959362219</v>
+        <v>0.6440448959025536</v>
       </c>
       <c r="U30" t="n">
-        <v>13.60102491658522</v>
+        <v>13.60102436369881</v>
       </c>
       <c r="V30" t="n">
-        <v>314.1591880295434</v>
+        <v>314.1591880294431</v>
       </c>
       <c r="W30" t="n">
-        <v>0.3729404872364189</v>
+        <v>0.3729404783296402</v>
       </c>
       <c r="X30" t="n">
         <v>300</v>
@@ -2894,31 +2894,31 @@
         <v>-8.099999999999994</v>
       </c>
       <c r="E31" t="n">
-        <v>313.8355989618011</v>
+        <v>313.8355989617435</v>
       </c>
       <c r="F31" t="n">
-        <v>-8.414479279504063</v>
+        <v>-8.414478785766546</v>
       </c>
       <c r="G31" t="n">
-        <v>-8.412366556792774</v>
+        <v>-8.412366102243347</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.002112722711288581</v>
+        <v>-0.002112683523199517</v>
       </c>
       <c r="I31" t="n">
-        <v>0.1599228692943277</v>
+        <v>0.1599229300598305</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.09383592537983013</v>
+        <v>-0.09383592536095274</v>
       </c>
       <c r="K31" t="n">
-        <v>0.004546449438153122</v>
+        <v>0.004546449481091406</v>
       </c>
       <c r="L31" t="n">
-        <v>0.5702434325020178</v>
+        <v>0.5702434324868967</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.00320835372325604</v>
+        <v>-0.003208353807178519</v>
       </c>
       <c r="N31" t="n">
         <v>52.9054054054054</v>
@@ -2933,22 +2933,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>-0.1050245998637378</v>
+        <v>-0.1050245998494966</v>
       </c>
       <c r="S31" t="n">
-        <v>0.09069748720035491</v>
+        <v>0.09069748724005158</v>
       </c>
       <c r="T31" t="n">
-        <v>0.5760791196811103</v>
+        <v>0.576079119668616</v>
       </c>
       <c r="U31" t="n">
-        <v>8.414479279504063</v>
+        <v>8.414478785766546</v>
       </c>
       <c r="V31" t="n">
-        <v>313.8355989618011</v>
+        <v>313.8355989617435</v>
       </c>
       <c r="W31" t="n">
-        <v>0.2118739956767227</v>
+        <v>0.2118740748143827</v>
       </c>
       <c r="X31" t="n">
         <v>300</v>
@@ -2968,37 +2968,37 @@
         <v>2209.363636363636</v>
       </c>
       <c r="C32" t="n">
-        <v>0.9471045725109227</v>
+        <v>0.9471045725109226</v>
       </c>
       <c r="D32" t="n">
         <v>-3.099999999999994</v>
       </c>
       <c r="E32" t="n">
-        <v>299.4965286255562</v>
+        <v>299.4965286255649</v>
       </c>
       <c r="F32" t="n">
-        <v>-4.288859789809476</v>
+        <v>-4.28885978638748</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.162115879123986</v>
+        <v>-4.162115875665233</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.1267439106854893</v>
+        <v>-0.1267439107222477</v>
       </c>
       <c r="I32" t="n">
-        <v>0.1975957906827046</v>
+        <v>0.1975957909250604</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.1652317745467051</v>
+        <v>-0.1652317745155282</v>
       </c>
       <c r="K32" t="n">
-        <v>0.07591751716693229</v>
+        <v>0.07591751717598588</v>
       </c>
       <c r="L32" t="n">
-        <v>0.5378698327641384</v>
+        <v>0.5378698327802816</v>
       </c>
       <c r="M32" t="n">
-        <v>0.1269059393447887</v>
+        <v>0.1269059393443591</v>
       </c>
       <c r="N32" t="n">
         <v>63.72727272727273</v>
@@ -3013,22 +3013,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>-0.06812974829275498</v>
+        <v>-0.0681297482744488</v>
       </c>
       <c r="S32" t="n">
-        <v>0.03553526464609528</v>
+        <v>0.03553526465217838</v>
       </c>
       <c r="T32" t="n">
-        <v>0.5271826846495814</v>
+        <v>0.527182684671343</v>
       </c>
       <c r="U32" t="n">
-        <v>4.288859789809476</v>
+        <v>4.28885978638748</v>
       </c>
       <c r="V32" t="n">
-        <v>299.4965286255562</v>
+        <v>299.4965286255649</v>
       </c>
       <c r="W32" t="n">
-        <v>0.2481053030978548</v>
+        <v>0.2481053032670055</v>
       </c>
       <c r="X32" t="n">
         <v>300</v>
@@ -3048,37 +3048,37 @@
         <v>2381.216417910448</v>
       </c>
       <c r="C33" t="n">
-        <v>0.9608685832168322</v>
+        <v>0.960868583216832</v>
       </c>
       <c r="D33" t="n">
         <v>1.900000000000006</v>
       </c>
       <c r="E33" t="n">
-        <v>308.4510535483128</v>
+        <v>308.4510535483328</v>
       </c>
       <c r="F33" t="n">
-        <v>2.751490578466883</v>
+        <v>2.75149038269559</v>
       </c>
       <c r="G33" t="n">
         <v>1.5</v>
       </c>
       <c r="H33" t="n">
-        <v>1.251490578466883</v>
+        <v>1.25149038269559</v>
       </c>
       <c r="I33" t="n">
-        <v>1.565798233161125</v>
+        <v>1.565798090779163</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.02821347551622</v>
+        <v>-0.02821347552067701</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.0462088517814748</v>
+        <v>-0.04620885177328782</v>
       </c>
       <c r="L33" t="n">
-        <v>0.5784605416624324</v>
+        <v>0.5784605416384931</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.05271285339222765</v>
+        <v>-0.0527128533456977</v>
       </c>
       <c r="N33" t="n">
         <v>50.91044776119403</v>
@@ -3093,22 +3093,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>-0.02193302933922633</v>
+        <v>-0.02193302935701864</v>
       </c>
       <c r="S33" t="n">
-        <v>-0.07461927189135525</v>
+        <v>-0.0746192718943529</v>
       </c>
       <c r="T33" t="n">
-        <v>0.5811663044074715</v>
+        <v>0.5811663043924847</v>
       </c>
       <c r="U33" t="n">
-        <v>-2.751490578466883</v>
+        <v>-2.75149038269559</v>
       </c>
       <c r="V33" t="n">
-        <v>308.4510535483128</v>
+        <v>308.4510535483328</v>
       </c>
       <c r="W33" t="n">
-        <v>1.74650667642385</v>
+        <v>1.746506551038297</v>
       </c>
       <c r="X33" t="n">
         <v>300</v>
@@ -3128,37 +3128,37 @@
         <v>2634.104838709678</v>
       </c>
       <c r="C34" t="n">
-        <v>0.9779186284260392</v>
+        <v>0.977918628426039</v>
       </c>
       <c r="D34" t="n">
         <v>6.900000000000006</v>
       </c>
       <c r="E34" t="n">
-        <v>312.2934600676253</v>
+        <v>312.2934600676163</v>
       </c>
       <c r="F34" t="n">
-        <v>6.880316997305972</v>
+        <v>6.880317124349476</v>
       </c>
       <c r="G34" t="n">
-        <v>6.883590418386335</v>
+        <v>6.883590571785827</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.003273421080364141</v>
+        <v>-0.003273447436351926</v>
       </c>
       <c r="I34" t="n">
-        <v>0.1147070925472882</v>
+        <v>0.1147070613313741</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.03829853951352979</v>
+        <v>-0.03829853951869704</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.063808167847868</v>
+        <v>-0.06380816785049701</v>
       </c>
       <c r="L34" t="n">
-        <v>0.5831479590580313</v>
+        <v>0.5831479590439912</v>
       </c>
       <c r="M34" t="n">
-        <v>0.00407663151190368</v>
+        <v>0.004076631469088805</v>
       </c>
       <c r="N34" t="n">
         <v>49.69354838709678</v>
@@ -3173,22 +3173,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0.008842451150576884</v>
+        <v>0.008842451143946491</v>
       </c>
       <c r="S34" t="n">
-        <v>-0.09207255212403205</v>
+        <v>-0.09207255212944644</v>
       </c>
       <c r="T34" t="n">
-        <v>0.5853859901406646</v>
+        <v>0.5853859901286663</v>
       </c>
       <c r="U34" t="n">
-        <v>-6.880316997305972</v>
+        <v>-6.880317124349476</v>
       </c>
       <c r="V34" t="n">
-        <v>312.2934600676253</v>
+        <v>312.2934600676163</v>
       </c>
       <c r="W34" t="n">
-        <v>0.166537521890119</v>
+        <v>0.1665375100588703</v>
       </c>
       <c r="X34" t="n">
         <v>300</v>
@@ -3208,37 +3208,37 @@
         <v>2887.204545454545</v>
       </c>
       <c r="C35" t="n">
-        <v>0.9893457461426299</v>
+        <v>0.9893457461426297</v>
       </c>
       <c r="D35" t="n">
         <v>11.90000000000001</v>
       </c>
       <c r="E35" t="n">
-        <v>310.1874683268372</v>
+        <v>310.1874683268438</v>
       </c>
       <c r="F35" t="n">
-        <v>12.3003564044921</v>
+        <v>12.30035640600028</v>
       </c>
       <c r="G35" t="n">
-        <v>12.29422759640145</v>
+        <v>12.29422759822129</v>
       </c>
       <c r="H35" t="n">
-        <v>0.006128808090653102</v>
+        <v>0.006128807778991243</v>
       </c>
       <c r="I35" t="n">
-        <v>0.08507383308095018</v>
+        <v>0.08507383298747367</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.03072934970779504</v>
+        <v>-0.03072934972777604</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.05527003636328522</v>
+        <v>-0.05527003636107172</v>
       </c>
       <c r="L35" t="n">
-        <v>0.6115710252656071</v>
+        <v>0.6115710251882772</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.006128021599703807</v>
+        <v>-0.006128021600120674</v>
       </c>
       <c r="N35" t="n">
         <v>50.13636363636363</v>
@@ -3253,22 +3253,22 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0.0336994632018024</v>
+        <v>0.03369946319531019</v>
       </c>
       <c r="S35" t="n">
-        <v>-0.1408081407389483</v>
+        <v>-0.1408081407289224</v>
       </c>
       <c r="T35" t="n">
-        <v>0.6222246033044135</v>
+        <v>0.6222246032363916</v>
       </c>
       <c r="U35" t="n">
-        <v>-12.3003564044921</v>
+        <v>-12.30035640600028</v>
       </c>
       <c r="V35" t="n">
-        <v>310.1874683268372</v>
+        <v>310.1874683268438</v>
       </c>
       <c r="W35" t="n">
-        <v>0.1212018161336548</v>
+        <v>0.1212018160504837</v>
       </c>
       <c r="X35" t="n">
         <v>300</v>
@@ -3288,37 +3288,37 @@
         <v>3146.933333333333</v>
       </c>
       <c r="C36" t="n">
-        <v>0.9895338483409108</v>
+        <v>0.9895338483409106</v>
       </c>
       <c r="D36" t="n">
         <v>16.90000000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>308.4777068872415</v>
+        <v>308.4777068871762</v>
       </c>
       <c r="F36" t="n">
-        <v>17.01773499826054</v>
+        <v>17.0177247822425</v>
       </c>
       <c r="G36" t="n">
-        <v>17.00709991454513</v>
+        <v>17.00708776609422</v>
       </c>
       <c r="H36" t="n">
-        <v>0.01063508371540478</v>
+        <v>0.01063701614828274</v>
       </c>
       <c r="I36" t="n">
-        <v>0.08718838963498995</v>
+        <v>0.08718914138909913</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.02882570231696627</v>
+        <v>-0.02882570230682657</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.03621873160283926</v>
+        <v>-0.03621873162657402</v>
       </c>
       <c r="L36" t="n">
-        <v>0.5998263282471037</v>
+        <v>0.5998263283274182</v>
       </c>
       <c r="M36" t="n">
-        <v>-0.01063542262025126</v>
+        <v>-0.01063542047198356</v>
       </c>
       <c r="N36" t="n">
         <v>50.71111111111111</v>
@@ -3333,22 +3333,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.07901076976049018</v>
+        <v>0.07901076983176351</v>
       </c>
       <c r="S36" t="n">
-        <v>-0.1471187760702227</v>
+        <v>-0.1471187760006927</v>
       </c>
       <c r="T36" t="n">
-        <v>0.6148595752845987</v>
+        <v>0.6148595753491262</v>
       </c>
       <c r="U36" t="n">
-        <v>-17.01773499826054</v>
+        <v>-17.0177247822425</v>
       </c>
       <c r="V36" t="n">
-        <v>308.4777068872415</v>
+        <v>308.4777068871762</v>
       </c>
       <c r="W36" t="n">
-        <v>0.1245639176144231</v>
+        <v>0.1245643602607399</v>
       </c>
       <c r="X36" t="n">
         <v>300</v>
@@ -3368,37 +3368,37 @@
         <v>3407.933333333333</v>
       </c>
       <c r="C37" t="n">
-        <v>0.9865147083627427</v>
+        <v>0.9865147083627424</v>
       </c>
       <c r="D37" t="n">
         <v>21.90000000000001</v>
       </c>
       <c r="E37" t="n">
-        <v>308.5057142366782</v>
+        <v>308.5057142367244</v>
       </c>
       <c r="F37" t="n">
-        <v>22.15030855335063</v>
+        <v>22.15030849153189</v>
       </c>
       <c r="G37" t="n">
-        <v>22.14348720070471</v>
+        <v>22.14348712706708</v>
       </c>
       <c r="H37" t="n">
-        <v>0.006821352645920313</v>
+        <v>0.006821364464808887</v>
       </c>
       <c r="I37" t="n">
-        <v>0.1034615527080757</v>
+        <v>0.1034615603356961</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.03040798704552843</v>
+        <v>-0.03040798708379142</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.03606752604336252</v>
+        <v>-0.03606752608296828</v>
       </c>
       <c r="L37" t="n">
-        <v>0.6036033037558032</v>
+        <v>0.6036033038183911</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.006820994367208858</v>
+        <v>-0.006820994353840999</v>
       </c>
       <c r="N37" t="n">
         <v>50.71111111111111</v>
@@ -3413,22 +3413,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.1455547332400648</v>
+        <v>0.1455547331416338</v>
       </c>
       <c r="S37" t="n">
-        <v>-0.1415657006156368</v>
+        <v>-0.1415657007273763</v>
       </c>
       <c r="T37" t="n">
-        <v>0.6299251412677039</v>
+        <v>0.6299251413279352</v>
       </c>
       <c r="U37" t="n">
-        <v>-22.15030855335063</v>
+        <v>-22.15030849153189</v>
       </c>
       <c r="V37" t="n">
-        <v>308.5057142366782</v>
+        <v>308.5057142367244</v>
       </c>
       <c r="W37" t="n">
-        <v>0.1473275466038363</v>
+        <v>0.1473275553503953</v>
       </c>
       <c r="X37" t="n">
         <v>300</v>
@@ -3448,37 +3448,37 @@
         <v>3668.933333333333</v>
       </c>
       <c r="C38" t="n">
-        <v>0.9806205367592173</v>
+        <v>0.9806205367592169</v>
       </c>
       <c r="D38" t="n">
         <v>26.90000000000001</v>
       </c>
       <c r="E38" t="n">
-        <v>308.4817713070579</v>
+        <v>308.4817713070376</v>
       </c>
       <c r="F38" t="n">
-        <v>27.83854656959357</v>
+        <v>27.83854816578647</v>
       </c>
       <c r="G38" t="n">
-        <v>27.84517993602328</v>
+        <v>27.84518183438559</v>
       </c>
       <c r="H38" t="n">
-        <v>-0.00663336642970941</v>
+        <v>-0.00663366859912176</v>
       </c>
       <c r="I38" t="n">
-        <v>0.1344387750690695</v>
+        <v>0.134438530973773</v>
       </c>
       <c r="J38" t="n">
-        <v>-0.03435185135989314</v>
+        <v>-0.03435185136521589</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.05469326905543552</v>
+        <v>-0.05469326909033601</v>
       </c>
       <c r="L38" t="n">
-        <v>0.6202239928470186</v>
+        <v>0.620223992853974</v>
       </c>
       <c r="M38" t="n">
-        <v>0.006625583513446282</v>
+        <v>0.006625583058964601</v>
       </c>
       <c r="N38" t="n">
         <v>50.71111111111111</v>
@@ -3493,22 +3493,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0.1955681163819861</v>
+        <v>0.1955681164301115</v>
       </c>
       <c r="S38" t="n">
-        <v>-0.1713556108528973</v>
+        <v>-0.1713556108223345</v>
       </c>
       <c r="T38" t="n">
-        <v>0.6496494218882136</v>
+        <v>0.6496494219213245</v>
       </c>
       <c r="U38" t="n">
-        <v>-27.83854656959357</v>
+        <v>-27.83854816578647</v>
       </c>
       <c r="V38" t="n">
-        <v>308.4817713070579</v>
+        <v>308.4817713070376</v>
       </c>
       <c r="W38" t="n">
-        <v>0.1818060614401039</v>
+        <v>0.1818058675887447</v>
       </c>
       <c r="X38" t="n">
         <v>300</v>
@@ -3528,37 +3528,37 @@
         <v>3929.933333333333</v>
       </c>
       <c r="C39" t="n">
-        <v>0.9718030902967913</v>
+        <v>0.9718030902967904</v>
       </c>
       <c r="D39" t="n">
         <v>31.90000000000001</v>
       </c>
       <c r="E39" t="n">
-        <v>308.4718985019624</v>
+        <v>308.471898502059</v>
       </c>
       <c r="F39" t="n">
-        <v>32.64279587727854</v>
+        <v>32.64280601924975</v>
       </c>
       <c r="G39" t="n">
-        <v>32.6327596643745</v>
+        <v>32.63277172314477</v>
       </c>
       <c r="H39" t="n">
-        <v>0.01003621290403324</v>
+        <v>0.01003429610497741</v>
       </c>
       <c r="I39" t="n">
-        <v>0.1487517464577372</v>
+        <v>0.1487503921805593</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.007121248202729245</v>
+        <v>-0.007121248137269098</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.06361205878152414</v>
+        <v>-0.06361205877454934</v>
       </c>
       <c r="L39" t="n">
-        <v>0.6060405296683407</v>
+        <v>0.6060405295739578</v>
       </c>
       <c r="M39" t="n">
-        <v>-0.01003547509547168</v>
+        <v>-0.01003547723976515</v>
       </c>
       <c r="N39" t="n">
         <v>50.71111111111111</v>
@@ -3573,22 +3573,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.2448808805796628</v>
+        <v>0.2448808805863144</v>
       </c>
       <c r="S39" t="n">
-        <v>-0.1425846266900884</v>
+        <v>-0.1425846266449803</v>
       </c>
       <c r="T39" t="n">
-        <v>0.6363515138146479</v>
+        <v>0.6363515137229221</v>
       </c>
       <c r="U39" t="n">
-        <v>-32.64279587727854</v>
+        <v>-32.64280601924975</v>
       </c>
       <c r="V39" t="n">
-        <v>308.4718985019624</v>
+        <v>308.471898502059</v>
       </c>
       <c r="W39" t="n">
-        <v>0.197278713269207</v>
+        <v>0.1972773816424123</v>
       </c>
       <c r="X39" t="n">
         <v>300</v>
@@ -3608,37 +3608,37 @@
         <v>4190.933333333333</v>
       </c>
       <c r="C40" t="n">
-        <v>0.9589580989054944</v>
+        <v>0.9589580989054929</v>
       </c>
       <c r="D40" t="n">
         <v>36.90000000000001</v>
       </c>
       <c r="E40" t="n">
-        <v>308.4620422306036</v>
+        <v>308.4620422307064</v>
       </c>
       <c r="F40" t="n">
-        <v>37.69156114863743</v>
+        <v>37.6915514881298</v>
       </c>
       <c r="G40" t="n">
-        <v>37.69292631543188</v>
+        <v>37.69291482618024</v>
       </c>
       <c r="H40" t="n">
-        <v>-0.001365166794455302</v>
+        <v>-0.001363338050438073</v>
       </c>
       <c r="I40" t="n">
-        <v>0.2105893540372029</v>
+        <v>0.210590282257156</v>
       </c>
       <c r="J40" t="n">
-        <v>-0.01022084524675653</v>
+        <v>-0.01022084526558865</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.06887034204473716</v>
+        <v>-0.06887034197408895</v>
       </c>
       <c r="L40" t="n">
-        <v>0.5950620656240391</v>
+        <v>0.595062065668276</v>
       </c>
       <c r="M40" t="n">
-        <v>0.001355760761576459</v>
+        <v>0.001355763061727088</v>
       </c>
       <c r="N40" t="n">
         <v>50.71111111111111</v>
@@ -3653,22 +3653,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.2827460109533743</v>
+        <v>0.2827460109366737</v>
       </c>
       <c r="S40" t="n">
-        <v>-0.1621551196617282</v>
+        <v>-0.162155119688797</v>
       </c>
       <c r="T40" t="n">
-        <v>0.6342270966410803</v>
+        <v>0.6342270967015078</v>
       </c>
       <c r="U40" t="n">
-        <v>-37.69156114863743</v>
+        <v>-37.6915514881298</v>
       </c>
       <c r="V40" t="n">
-        <v>308.4620422306036</v>
+        <v>308.4620422307064</v>
       </c>
       <c r="W40" t="n">
-        <v>0.283918736067231</v>
+        <v>0.2839189444565547</v>
       </c>
       <c r="X40" t="n">
         <v>300</v>
@@ -3688,37 +3688,37 @@
         <v>4451.933333333333</v>
       </c>
       <c r="C41" t="n">
-        <v>0.9413263418681885</v>
+        <v>0.941326341868188</v>
       </c>
       <c r="D41" t="n">
         <v>41.90000000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>308.4685752598779</v>
+        <v>308.4685752598701</v>
       </c>
       <c r="F41" t="n">
-        <v>42.41590675737374</v>
+        <v>42.41590676157597</v>
       </c>
       <c r="G41" t="n">
-        <v>42.4389663528382</v>
+        <v>42.43896635786599</v>
       </c>
       <c r="H41" t="n">
-        <v>-0.02305959546445958</v>
+        <v>-0.02305959629002377</v>
       </c>
       <c r="I41" t="n">
-        <v>0.2202058617977714</v>
+        <v>0.2202058617819916</v>
       </c>
       <c r="J41" t="n">
-        <v>0.004499550704565433</v>
+        <v>0.004499550804335317</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.0551834717270926</v>
+        <v>-0.05518347162261571</v>
       </c>
       <c r="L41" t="n">
-        <v>0.5851590141883634</v>
+        <v>0.5851590143930343</v>
       </c>
       <c r="M41" t="n">
-        <v>0.02305200214359939</v>
+        <v>0.0230520021430297</v>
       </c>
       <c r="N41" t="n">
         <v>50.71111111111111</v>
@@ -3733,22 +3733,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0.2406917968103535</v>
+        <v>0.2406917968667769</v>
       </c>
       <c r="S41" t="n">
-        <v>-0.2915126269574056</v>
+        <v>-0.2915126268428119</v>
       </c>
       <c r="T41" t="n">
-        <v>0.6596314350878899</v>
+        <v>0.659631435250532</v>
       </c>
       <c r="U41" t="n">
-        <v>-42.41590675737374</v>
+        <v>-42.41590676157597</v>
       </c>
       <c r="V41" t="n">
-        <v>308.4685752598779</v>
+        <v>308.4685752598701</v>
       </c>
       <c r="W41" t="n">
-        <v>0.3056873715540075</v>
+        <v>0.3056873718086385</v>
       </c>
       <c r="X41" t="n">
         <v>300</v>
@@ -3768,37 +3768,37 @@
         <v>4712.888059701492</v>
       </c>
       <c r="C42" t="n">
-        <v>0.9106308327383885</v>
+        <v>0.9106308327383851</v>
       </c>
       <c r="D42" t="n">
         <v>46.90000000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>308.2107544534479</v>
+        <v>308.2107544533434</v>
       </c>
       <c r="F42" t="n">
-        <v>47.72459945724351</v>
+        <v>47.72459013380963</v>
       </c>
       <c r="G42" t="n">
-        <v>47.73906568297599</v>
+        <v>47.73905463312075</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.01446622573248491</v>
+        <v>-0.01446449931112112</v>
       </c>
       <c r="I42" t="n">
-        <v>0.318215873507</v>
+        <v>0.3182171013972254</v>
       </c>
       <c r="J42" t="n">
-        <v>0.01313158010582698</v>
+        <v>0.01313158002834071</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.05803945418767397</v>
+        <v>-0.05803945426690902</v>
       </c>
       <c r="L42" t="n">
-        <v>0.6048679142872277</v>
+        <v>0.6048679142503968</v>
       </c>
       <c r="M42" t="n">
-        <v>0.01468137099873207</v>
+        <v>0.01468137212969377</v>
       </c>
       <c r="N42" t="n">
         <v>50.6044776119403</v>
@@ -3813,22 +3813,22 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.3265788655873914</v>
+        <v>0.3265788655009322</v>
       </c>
       <c r="S42" t="n">
-        <v>-0.2012156136517407</v>
+        <v>-0.2012156137615982</v>
       </c>
       <c r="T42" t="n">
-        <v>0.6614893720707853</v>
+        <v>0.6614893720272631</v>
       </c>
       <c r="U42" t="n">
-        <v>-47.72459945724351</v>
+        <v>-47.72459013380963</v>
       </c>
       <c r="V42" t="n">
-        <v>308.2107544534479</v>
+        <v>308.2107544533434</v>
       </c>
       <c r="W42" t="n">
-        <v>0.41127041678919</v>
+        <v>0.4112706160103829</v>
       </c>
       <c r="X42" t="n">
         <v>300</v>
@@ -3848,37 +3848,37 @@
         <v>4972.933333333333</v>
       </c>
       <c r="C43" t="n">
-        <v>0.8627178261950131</v>
+        <v>0.86271782619501</v>
       </c>
       <c r="D43" t="n">
         <v>51.90000000000001</v>
       </c>
       <c r="E43" t="n">
-        <v>308.4566636055744</v>
+        <v>308.4566636055009</v>
       </c>
       <c r="F43" t="n">
-        <v>53.35112792381805</v>
+        <v>53.35112899412422</v>
       </c>
       <c r="G43" t="n">
-        <v>53.27214761449191</v>
+        <v>53.27214888613017</v>
       </c>
       <c r="H43" t="n">
-        <v>0.07898030932615055</v>
+        <v>0.07898010799404574</v>
       </c>
       <c r="I43" t="n">
-        <v>0.4941500015349334</v>
+        <v>0.4941499964852784</v>
       </c>
       <c r="J43" t="n">
-        <v>-0.009043170252951423</v>
+        <v>-0.00904317022913142</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.06042850558512623</v>
+        <v>-0.06042850557485243</v>
       </c>
       <c r="L43" t="n">
-        <v>0.6729114354363104</v>
+        <v>0.6729114354936828</v>
       </c>
       <c r="M43" t="n">
-        <v>-0.0789763378064587</v>
+        <v>-0.07897633803020053</v>
       </c>
       <c r="N43" t="n">
         <v>50.71111111111111</v>
@@ -3893,22 +3893,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0.312119749930011</v>
+        <v>0.3121197498647499</v>
       </c>
       <c r="S43" t="n">
-        <v>-0.2696171710565183</v>
+        <v>-0.2696171711715669</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7531442417835948</v>
+        <v>0.7531442418822598</v>
       </c>
       <c r="U43" t="n">
-        <v>-53.35112792381805</v>
+        <v>-53.35112899412422</v>
       </c>
       <c r="V43" t="n">
-        <v>308.4566636055744</v>
+        <v>308.4566636055009</v>
       </c>
       <c r="W43" t="n">
-        <v>0.6426078536157271</v>
+        <v>0.6426078637089021</v>
       </c>
       <c r="X43" t="n">
         <v>300</v>
@@ -3928,37 +3928,37 @@
         <v>122.5</v>
       </c>
       <c r="C44" t="n">
-        <v>0.8708195109094919</v>
+        <v>0.8708195109094883</v>
       </c>
       <c r="D44" t="n">
         <v>-48.09999999999999</v>
       </c>
       <c r="E44" t="n">
-        <v>415.405727466648</v>
+        <v>415.4057274663498</v>
       </c>
       <c r="F44" t="n">
-        <v>-47.78737742342313</v>
+        <v>-47.78738297692991</v>
       </c>
       <c r="G44" t="n">
-        <v>-47.80828328593273</v>
+        <v>-47.80829537787529</v>
       </c>
       <c r="H44" t="n">
-        <v>0.02090586250959987</v>
+        <v>0.02091240094538143</v>
       </c>
       <c r="I44" t="n">
-        <v>0.5881343032552014</v>
+        <v>0.5881353855368154</v>
       </c>
       <c r="J44" t="n">
-        <v>0.1059822733133704</v>
+        <v>0.1059822733400621</v>
       </c>
       <c r="K44" t="n">
-        <v>-0.1416512553292764</v>
+        <v>-0.141651255853374</v>
       </c>
       <c r="L44" t="n">
-        <v>0.6228007280904845</v>
+        <v>0.6228007279182504</v>
       </c>
       <c r="M44" t="n">
-        <v>-0.02082372113021275</v>
+        <v>-0.02082372088199898</v>
       </c>
       <c r="N44" t="n">
         <v>40.45</v>
@@ -3973,22 +3973,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0.4315154906559256</v>
+        <v>0.4315154907763135</v>
       </c>
       <c r="S44" t="n">
-        <v>0.6690501192687321</v>
+        <v>0.6690501186938635</v>
       </c>
       <c r="T44" t="n">
-        <v>0.9466729803507781</v>
+        <v>0.9466729798663602</v>
       </c>
       <c r="U44" t="n">
-        <v>47.78737742342313</v>
+        <v>47.78738297692991</v>
       </c>
       <c r="V44" t="n">
-        <v>415.405727466648</v>
+        <v>415.4057274663498</v>
       </c>
       <c r="W44" t="n">
-        <v>0.6915283053678402</v>
+        <v>0.6915317933107213</v>
       </c>
       <c r="X44" t="n">
         <v>450</v>
@@ -4008,37 +4008,37 @@
         <v>382.9666666666666</v>
       </c>
       <c r="C45" t="n">
-        <v>0.9112877202352647</v>
+        <v>0.9112877202352648</v>
       </c>
       <c r="D45" t="n">
         <v>-43.09999999999999</v>
       </c>
       <c r="E45" t="n">
-        <v>415.4902715823465</v>
+        <v>415.4902715823531</v>
       </c>
       <c r="F45" t="n">
-        <v>-43.11821001996197</v>
+        <v>-43.11821001001984</v>
       </c>
       <c r="G45" t="n">
-        <v>-43.14635805364573</v>
+        <v>-43.14635803198964</v>
       </c>
       <c r="H45" t="n">
-        <v>0.02814803368376223</v>
+        <v>0.02814802196980134</v>
       </c>
       <c r="I45" t="n">
-        <v>0.3498271788084343</v>
+        <v>0.3498271796965386</v>
       </c>
       <c r="J45" t="n">
-        <v>0.1709213145252904</v>
+        <v>0.1709213146883659</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.1521985411618841</v>
+        <v>-0.1521985409629295</v>
       </c>
       <c r="L45" t="n">
-        <v>0.6028147048836617</v>
+        <v>0.6028147050073885</v>
       </c>
       <c r="M45" t="n">
-        <v>-0.02816983793686286</v>
+        <v>-0.02816983793382567</v>
       </c>
       <c r="N45" t="n">
         <v>40.45</v>
@@ -4053,22 +4053,22 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.3890564605596065</v>
+        <v>0.3890564607461093</v>
       </c>
       <c r="S45" t="n">
-        <v>0.6378807076089157</v>
+        <v>0.637880707838223</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8855109897888718</v>
+        <v>0.8855109900558435</v>
       </c>
       <c r="U45" t="n">
-        <v>43.11821001996197</v>
+        <v>43.11821001001984</v>
       </c>
       <c r="V45" t="n">
-        <v>415.4902715823465</v>
+        <v>415.4902715823531</v>
       </c>
       <c r="W45" t="n">
-        <v>0.4531497978195961</v>
+        <v>0.4531497949987456</v>
       </c>
       <c r="X45" t="n">
         <v>450</v>
@@ -4088,37 +4088,37 @@
         <v>642.5</v>
       </c>
       <c r="C46" t="n">
-        <v>0.9433395580939353</v>
+        <v>0.9433395580939329</v>
       </c>
       <c r="D46" t="n">
         <v>-38.09999999999999</v>
       </c>
       <c r="E46" t="n">
-        <v>415.5574254728306</v>
+        <v>415.5574254729607</v>
       </c>
       <c r="F46" t="n">
-        <v>-37.57032770465138</v>
+        <v>-37.57032770383298</v>
       </c>
       <c r="G46" t="n">
-        <v>-37.68518844029698</v>
+        <v>-37.68518843851261</v>
       </c>
       <c r="H46" t="n">
-        <v>0.1148607356455925</v>
+        <v>0.1148607346796333</v>
       </c>
       <c r="I46" t="n">
-        <v>0.3638450833725693</v>
+        <v>0.3638450830855842</v>
       </c>
       <c r="J46" t="n">
-        <v>0.2111758611136507</v>
+        <v>0.2111758610326332</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.1109374078010716</v>
+        <v>-0.1109374079513659</v>
       </c>
       <c r="L46" t="n">
-        <v>0.6354258667356922</v>
+        <v>0.6354258667705055</v>
       </c>
       <c r="M46" t="n">
-        <v>-0.1148381745710448</v>
+        <v>-0.1148381745704225</v>
       </c>
       <c r="N46" t="n">
         <v>40.45</v>
@@ -4133,22 +4133,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0.3812024499255248</v>
+        <v>0.3812024498768087</v>
       </c>
       <c r="S46" t="n">
-        <v>0.6033693712978846</v>
+        <v>0.6033693714216325</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8634243047124308</v>
+        <v>0.863424304729691</v>
       </c>
       <c r="U46" t="n">
-        <v>37.57032770465138</v>
+        <v>37.57032770383298</v>
       </c>
       <c r="V46" t="n">
-        <v>415.5574254728306</v>
+        <v>415.5574254729607</v>
       </c>
       <c r="W46" t="n">
-        <v>0.4500011611980978</v>
+        <v>0.4500011606492678</v>
       </c>
       <c r="X46" t="n">
         <v>450</v>
@@ -4168,37 +4168,37 @@
         <v>903.5</v>
       </c>
       <c r="C47" t="n">
-        <v>0.9595929891839926</v>
+        <v>0.9595929891839925</v>
       </c>
       <c r="D47" t="n">
         <v>-33.09999999999999</v>
       </c>
       <c r="E47" t="n">
-        <v>415.5616907982216</v>
+        <v>415.5616907982863</v>
       </c>
       <c r="F47" t="n">
-        <v>-32.9217970948913</v>
+        <v>-32.92179709591474</v>
       </c>
       <c r="G47" t="n">
-        <v>-32.98388033301514</v>
+        <v>-32.98388033521916</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0620832381238356</v>
+        <v>0.06208323930442093</v>
       </c>
       <c r="I47" t="n">
-        <v>0.2707117495539452</v>
+        <v>0.2707117492059817</v>
       </c>
       <c r="J47" t="n">
-        <v>0.2036445160077926</v>
+        <v>0.2036445161484104</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.129824252312534</v>
+        <v>-0.1298242523674902</v>
       </c>
       <c r="L47" t="n">
-        <v>0.6297014000632607</v>
+        <v>0.6297013998688211</v>
       </c>
       <c r="M47" t="n">
-        <v>-0.06209832572977531</v>
+        <v>-0.06209832573061078</v>
       </c>
       <c r="N47" t="n">
         <v>40.45</v>
@@ -4213,22 +4213,22 @@
         <v>0</v>
       </c>
       <c r="R47" t="n">
-        <v>0.3319426059019763</v>
+        <v>0.3319426059225777</v>
       </c>
       <c r="S47" t="n">
-        <v>0.5195216614081563</v>
+        <v>0.5195216611422886</v>
       </c>
       <c r="T47" t="n">
-        <v>0.7870877493766562</v>
+        <v>0.7870877491247661</v>
       </c>
       <c r="U47" t="n">
-        <v>32.9217970948913</v>
+        <v>32.92179709591474</v>
       </c>
       <c r="V47" t="n">
-        <v>415.5616907982216</v>
+        <v>415.5616907982863</v>
       </c>
       <c r="W47" t="n">
-        <v>0.3466176799200655</v>
+        <v>0.3466176796583109</v>
       </c>
       <c r="X47" t="n">
         <v>450</v>
@@ -4248,37 +4248,37 @@
         <v>1164.5</v>
       </c>
       <c r="C48" t="n">
-        <v>0.9715303067953525</v>
+        <v>0.9715303067953508</v>
       </c>
       <c r="D48" t="n">
         <v>-28.09999999999999</v>
       </c>
       <c r="E48" t="n">
-        <v>415.5370594823746</v>
+        <v>415.5370594823727</v>
       </c>
       <c r="F48" t="n">
-        <v>-28.37029745368012</v>
+        <v>-28.37029745161157</v>
       </c>
       <c r="G48" t="n">
-        <v>-28.40995576800576</v>
+        <v>-28.40995576350307</v>
       </c>
       <c r="H48" t="n">
-        <v>0.03965831432563659</v>
+        <v>0.03965831189150683</v>
       </c>
       <c r="I48" t="n">
-        <v>0.1919912764052523</v>
+        <v>0.1919912771331489</v>
       </c>
       <c r="J48" t="n">
-        <v>0.22816245619956</v>
+        <v>0.2281624561026592</v>
       </c>
       <c r="K48" t="n">
-        <v>-0.1415882583195537</v>
+        <v>-0.141588258362999</v>
       </c>
       <c r="L48" t="n">
-        <v>0.6350195300208</v>
+        <v>0.6350195300930276</v>
       </c>
       <c r="M48" t="n">
-        <v>-0.03964157920219892</v>
+        <v>-0.03964157920070353</v>
       </c>
       <c r="N48" t="n">
         <v>40.45</v>
@@ -4293,22 +4293,22 @@
         <v>0</v>
       </c>
       <c r="R48" t="n">
-        <v>0.2683550648008223</v>
+        <v>0.2683550647998664</v>
       </c>
       <c r="S48" t="n">
-        <v>0.4230582081185918</v>
+        <v>0.4230582083788909</v>
       </c>
       <c r="T48" t="n">
-        <v>0.722088861581058</v>
+        <v>0.7220888616513197</v>
       </c>
       <c r="U48" t="n">
-        <v>28.37029745368012</v>
+        <v>28.37029745161157</v>
       </c>
       <c r="V48" t="n">
-        <v>415.5370594823746</v>
+        <v>415.5370594823727</v>
       </c>
       <c r="W48" t="n">
-        <v>0.2504149523180089</v>
+        <v>0.250414952490495</v>
       </c>
       <c r="X48" t="n">
         <v>450</v>
@@ -4334,31 +4334,31 @@
         <v>-23.09999999999999</v>
       </c>
       <c r="E49" t="n">
-        <v>415.4749938376569</v>
+        <v>415.4749938377871</v>
       </c>
       <c r="F49" t="n">
-        <v>-22.79590982096648</v>
+        <v>-22.79590978852119</v>
       </c>
       <c r="G49" t="n">
-        <v>-22.86769736418611</v>
+        <v>-22.86769729371632</v>
       </c>
       <c r="H49" t="n">
-        <v>0.0717875432196278</v>
+        <v>0.07178750519512539</v>
       </c>
       <c r="I49" t="n">
-        <v>0.2806678749434342</v>
+        <v>0.2806678942715316</v>
       </c>
       <c r="J49" t="n">
-        <v>0.210981165384566</v>
+        <v>0.2109811653175385</v>
       </c>
       <c r="K49" t="n">
-        <v>-0.1883645949381695</v>
+        <v>-0.1883645950481787</v>
       </c>
       <c r="L49" t="n">
-        <v>0.6484090088540201</v>
+        <v>0.64840900875158</v>
       </c>
       <c r="M49" t="n">
-        <v>-0.07179369108993534</v>
+        <v>-0.07179369107706564</v>
       </c>
       <c r="N49" t="n">
         <v>40.45</v>
@@ -4373,22 +4373,22 @@
         <v>0</v>
       </c>
       <c r="R49" t="n">
-        <v>0.2347588526399229</v>
+        <v>0.234758852635441</v>
       </c>
       <c r="S49" t="n">
-        <v>0.2102387334935863</v>
+        <v>0.2102387334389343</v>
       </c>
       <c r="T49" t="n">
-        <v>0.6379468438509227</v>
+        <v>0.6379468436992307</v>
       </c>
       <c r="U49" t="n">
-        <v>22.79590982096648</v>
+        <v>22.79590978852119</v>
       </c>
       <c r="V49" t="n">
-        <v>415.4749938376569</v>
+        <v>415.4749938377871</v>
       </c>
       <c r="W49" t="n">
-        <v>0.3689455721893318</v>
+        <v>0.3689455862664357</v>
       </c>
       <c r="X49" t="n">
         <v>450</v>
@@ -4408,37 +4408,37 @@
         <v>1680.533333333333</v>
       </c>
       <c r="C50" t="n">
-        <v>0.9825690553165844</v>
+        <v>0.9825690553165839</v>
       </c>
       <c r="D50" t="n">
         <v>-18.09999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>415.4223514966161</v>
+        <v>415.4223514966339</v>
       </c>
       <c r="F50" t="n">
-        <v>-18.13439968154584</v>
+        <v>-18.13439968316417</v>
       </c>
       <c r="G50" t="n">
-        <v>-18.20520396641349</v>
+        <v>-18.20520397000869</v>
       </c>
       <c r="H50" t="n">
-        <v>0.070804284867652</v>
+        <v>0.07080428684451363</v>
       </c>
       <c r="I50" t="n">
-        <v>0.2212875450024856</v>
+        <v>0.2212875437469113</v>
       </c>
       <c r="J50" t="n">
-        <v>0.2017522057226206</v>
+        <v>0.2017522057975971</v>
       </c>
       <c r="K50" t="n">
-        <v>-0.1731275590413088</v>
+        <v>-0.1731275589352259</v>
       </c>
       <c r="L50" t="n">
-        <v>0.6514701823024992</v>
+        <v>0.6514701824566832</v>
       </c>
       <c r="M50" t="n">
-        <v>-0.07183870715210711</v>
+        <v>-0.07183870715276749</v>
       </c>
       <c r="N50" t="n">
         <v>40.45</v>
@@ -4453,22 +4453,22 @@
         <v>0</v>
       </c>
       <c r="R50" t="n">
-        <v>0.1914284258726559</v>
+        <v>0.1914284260380609</v>
       </c>
       <c r="S50" t="n">
-        <v>0.03837710231417998</v>
+        <v>0.03837710247042985</v>
       </c>
       <c r="T50" t="n">
-        <v>0.6254541531461357</v>
+        <v>0.6254541532457261</v>
       </c>
       <c r="U50" t="n">
-        <v>18.13439968154584</v>
+        <v>18.13439968316417</v>
       </c>
       <c r="V50" t="n">
-        <v>415.4223514966161</v>
+        <v>415.4223514966339</v>
       </c>
       <c r="W50" t="n">
-        <v>0.268333563506984</v>
+        <v>0.2683335627657808</v>
       </c>
       <c r="X50" t="n">
         <v>450</v>
@@ -4488,37 +4488,37 @@
         <v>1904.827586206897</v>
       </c>
       <c r="C51" t="n">
-        <v>0.9812028134277796</v>
+        <v>0.9812028134277795</v>
       </c>
       <c r="D51" t="n">
         <v>-13.09999999999999</v>
       </c>
       <c r="E51" t="n">
-        <v>413.1781941818039</v>
+        <v>413.1781941818954</v>
       </c>
       <c r="F51" t="n">
-        <v>-13.37319361738249</v>
+        <v>-13.37319339422235</v>
       </c>
       <c r="G51" t="n">
-        <v>-13.53538260579001</v>
+        <v>-13.53538203551962</v>
       </c>
       <c r="H51" t="n">
-        <v>0.1621889884075136</v>
+        <v>0.1621886412972776</v>
       </c>
       <c r="I51" t="n">
-        <v>0.2195345360726205</v>
+        <v>0.2195344661232482</v>
       </c>
       <c r="J51" t="n">
-        <v>0.1843142128775651</v>
+        <v>0.1843142128100571</v>
       </c>
       <c r="K51" t="n">
-        <v>-0.1088528045681749</v>
+        <v>-0.1088528047703323</v>
       </c>
       <c r="L51" t="n">
-        <v>0.6139276418256356</v>
+        <v>0.6139276416695433</v>
       </c>
       <c r="M51" t="n">
-        <v>-0.1612541124188335</v>
+        <v>-0.161254112296387</v>
       </c>
       <c r="N51" t="n">
         <v>38.70689655172414</v>
@@ -4533,22 +4533,22 @@
         <v>0</v>
       </c>
       <c r="R51" t="n">
-        <v>0.191765212872259</v>
+        <v>0.1917652127569214</v>
       </c>
       <c r="S51" t="n">
-        <v>0.1115027534160923</v>
+        <v>0.111502753153641</v>
       </c>
       <c r="T51" t="n">
-        <v>0.5999138259870094</v>
+        <v>0.5999138257865366</v>
       </c>
       <c r="U51" t="n">
-        <v>13.37319361738249</v>
+        <v>13.37319339422235</v>
       </c>
       <c r="V51" t="n">
-        <v>413.1781941818039</v>
+        <v>413.1781941818954</v>
       </c>
       <c r="W51" t="n">
-        <v>0.3039041210837041</v>
+        <v>0.3039041079552972</v>
       </c>
       <c r="X51" t="n">
         <v>450</v>
@@ -4568,37 +4568,37 @@
         <v>2082.058823529412</v>
       </c>
       <c r="C52" t="n">
-        <v>0.9777241999471914</v>
+        <v>0.9777241999471913</v>
       </c>
       <c r="D52" t="n">
         <v>-8.099999999999994</v>
       </c>
       <c r="E52" t="n">
-        <v>410.7168958451691</v>
+        <v>410.7168958451187</v>
       </c>
       <c r="F52" t="n">
-        <v>-8.343243131489373</v>
+        <v>-8.343242956544502</v>
       </c>
       <c r="G52" t="n">
-        <v>-8.412366556792774</v>
+        <v>-8.412366102243347</v>
       </c>
       <c r="H52" t="n">
-        <v>0.06912342530340045</v>
+        <v>0.06912314569884319</v>
       </c>
       <c r="I52" t="n">
-        <v>0.169886969286011</v>
+        <v>0.1698867320924661</v>
       </c>
       <c r="J52" t="n">
-        <v>0.167566171169372</v>
+        <v>0.1675661711075513</v>
       </c>
       <c r="K52" t="n">
-        <v>-0.03906574085361584</v>
+        <v>-0.03906574096773707</v>
       </c>
       <c r="L52" t="n">
-        <v>0.5616935713049772</v>
+        <v>0.5616935713759462</v>
       </c>
       <c r="M52" t="n">
-        <v>-0.06966131303039975</v>
+        <v>-0.06966131291627865</v>
       </c>
       <c r="N52" t="n">
         <v>36.8235294117647</v>
@@ -4613,22 +4613,22 @@
         <v>0</v>
       </c>
       <c r="R52" t="n">
-        <v>0.1367589087033809</v>
+        <v>0.136758908640508</v>
       </c>
       <c r="S52" t="n">
-        <v>0.06178240884410411</v>
+        <v>0.06178240873120834</v>
       </c>
       <c r="T52" t="n">
-        <v>0.5521445073519843</v>
+        <v>0.5521445074545679</v>
       </c>
       <c r="U52" t="n">
-        <v>8.343243131489373</v>
+        <v>8.343242956544502</v>
       </c>
       <c r="V52" t="n">
-        <v>410.7168958451691</v>
+        <v>410.7168958451187</v>
       </c>
       <c r="W52" t="n">
-        <v>0.2506665285717304</v>
+        <v>0.2506663697374401</v>
       </c>
       <c r="X52" t="n">
         <v>450</v>
@@ -4648,37 +4648,37 @@
         <v>2206</v>
       </c>
       <c r="C53" t="n">
-        <v>0.9563383733250068</v>
+        <v>0.9563383733250067</v>
       </c>
       <c r="D53" t="n">
         <v>-3.099999999999993</v>
       </c>
       <c r="E53" t="n">
-        <v>411.3074863070009</v>
+        <v>411.307486307002</v>
       </c>
       <c r="F53" t="n">
-        <v>-3.99049838688758</v>
+        <v>-3.990498385506083</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.162115879123986</v>
+        <v>-4.162115875665233</v>
       </c>
       <c r="H53" t="n">
-        <v>0.1716174922364057</v>
+        <v>0.1716174901591497</v>
       </c>
       <c r="I53" t="n">
-        <v>0.2759374004131133</v>
+        <v>0.2759373990056554</v>
       </c>
       <c r="J53" t="n">
-        <v>0.1304593760646569</v>
+        <v>0.1304593760313608</v>
       </c>
       <c r="K53" t="n">
-        <v>-0.08153675723429711</v>
+        <v>-0.08153675721314459</v>
       </c>
       <c r="L53" t="n">
-        <v>0.4707667742846101</v>
+        <v>0.4707667742870996</v>
       </c>
       <c r="M53" t="n">
-        <v>-0.1717213010433622</v>
+        <v>-0.171721301043354</v>
       </c>
       <c r="N53" t="n">
         <v>32.35714285714285</v>
@@ -4693,22 +4693,22 @@
         <v>0</v>
       </c>
       <c r="R53" t="n">
-        <v>0.2273018464989847</v>
+        <v>0.2273018464528807</v>
       </c>
       <c r="S53" t="n">
-        <v>-0.07683799548362354</v>
+        <v>-0.07683799546524266</v>
       </c>
       <c r="T53" t="n">
-        <v>0.5016954701623995</v>
+        <v>0.5016954701539189</v>
       </c>
       <c r="U53" t="n">
-        <v>3.99049838688758</v>
+        <v>3.990498385506083</v>
       </c>
       <c r="V53" t="n">
-        <v>411.3074863070009</v>
+        <v>411.307486307002</v>
       </c>
       <c r="W53" t="n">
-        <v>0.3636381164098531</v>
+        <v>0.3636381161519505</v>
       </c>
       <c r="X53" t="n">
         <v>450</v>
@@ -4728,37 +4728,37 @@
         <v>2374.3</v>
       </c>
       <c r="C54" t="n">
-        <v>0.95884847340614</v>
+        <v>0.9588484734061399</v>
       </c>
       <c r="D54" t="n">
         <v>1.900000000000006</v>
       </c>
       <c r="E54" t="n">
-        <v>415.3603101746494</v>
+        <v>415.3603101746583</v>
       </c>
       <c r="F54" t="n">
-        <v>2.843910061672977</v>
+        <v>2.84390995568791</v>
       </c>
       <c r="G54" t="n">
         <v>1.5</v>
       </c>
       <c r="H54" t="n">
-        <v>1.343910061672977</v>
+        <v>1.343909955687909</v>
       </c>
       <c r="I54" t="n">
-        <v>1.411906697152431</v>
+        <v>1.411906640066822</v>
       </c>
       <c r="J54" t="n">
-        <v>0.1808081371452381</v>
+        <v>0.1808081371738263</v>
       </c>
       <c r="K54" t="n">
-        <v>-0.134642510935</v>
+        <v>-0.13464251091017</v>
       </c>
       <c r="L54" t="n">
-        <v>0.5820580521430468</v>
+        <v>0.5820580521081257</v>
       </c>
       <c r="M54" t="n">
-        <v>-0.1288704909557312</v>
+        <v>-0.1288704910022152</v>
       </c>
       <c r="N54" t="n">
         <v>40.45</v>
@@ -4773,22 +4773,22 @@
         <v>0</v>
       </c>
       <c r="R54" t="n">
-        <v>0.1830135927516916</v>
+        <v>0.1830135927531362</v>
       </c>
       <c r="S54" t="n">
-        <v>-0.157935430292558</v>
+        <v>-0.1579354302849489</v>
       </c>
       <c r="T54" t="n">
-        <v>0.5929638782702433</v>
+        <v>0.5929638782307266</v>
       </c>
       <c r="U54" t="n">
-        <v>-2.843910061672977</v>
+        <v>-2.84390995568791</v>
       </c>
       <c r="V54" t="n">
-        <v>415.3603101746494</v>
+        <v>415.3603101746583</v>
       </c>
       <c r="W54" t="n">
-        <v>1.589104632375857</v>
+        <v>1.589104542249985</v>
       </c>
       <c r="X54" t="n">
         <v>450</v>
@@ -4808,37 +4808,37 @@
         <v>2628.933333333333</v>
       </c>
       <c r="C55" t="n">
-        <v>0.9746678128982355</v>
+        <v>0.9746678128982353</v>
       </c>
       <c r="D55" t="n">
         <v>6.900000000000006</v>
       </c>
       <c r="E55" t="n">
-        <v>415.3705950159659</v>
+        <v>415.3705950159311</v>
       </c>
       <c r="F55" t="n">
-        <v>6.811904454800628</v>
+        <v>6.81190452748289</v>
       </c>
       <c r="G55" t="n">
-        <v>6.883590418386335</v>
+        <v>6.883590571785827</v>
       </c>
       <c r="H55" t="n">
-        <v>-0.07168596358570675</v>
+        <v>-0.07168604430293732</v>
       </c>
       <c r="I55" t="n">
-        <v>0.1555356227294413</v>
+        <v>0.1555356974564348</v>
       </c>
       <c r="J55" t="n">
-        <v>0.1784485172036187</v>
+        <v>0.1784485172194537</v>
       </c>
       <c r="K55" t="n">
-        <v>-0.1279666825108303</v>
+        <v>-0.1279666825207774</v>
       </c>
       <c r="L55" t="n">
-        <v>0.5800312723441127</v>
+        <v>0.580031272382652</v>
       </c>
       <c r="M55" t="n">
-        <v>0.07213224228793895</v>
+        <v>0.07213224232587673</v>
       </c>
       <c r="N55" t="n">
         <v>40.45</v>
@@ -4853,22 +4853,22 @@
         <v>0</v>
       </c>
       <c r="R55" t="n">
-        <v>0.219932207569517</v>
+        <v>0.2199322075851335</v>
       </c>
       <c r="S55" t="n">
-        <v>-0.1493582005175337</v>
+        <v>-0.1493582005318801</v>
       </c>
       <c r="T55" t="n">
-        <v>0.6046736974194846</v>
+        <v>0.604673697457368</v>
       </c>
       <c r="U55" t="n">
-        <v>-6.811904454800628</v>
+        <v>-6.81190452748289</v>
       </c>
       <c r="V55" t="n">
-        <v>415.3705950159659</v>
+        <v>415.3705950159311</v>
       </c>
       <c r="W55" t="n">
-        <v>0.2085465718189995</v>
+        <v>0.2085466074373766</v>
       </c>
       <c r="X55" t="n">
         <v>450</v>
@@ -4888,37 +4888,37 @@
         <v>2880.25</v>
       </c>
       <c r="C56" t="n">
-        <v>0.9883893317408907</v>
+        <v>0.9883893317408906</v>
       </c>
       <c r="D56" t="n">
         <v>11.90000000000001</v>
       </c>
       <c r="E56" t="n">
-        <v>415.3527394798253</v>
+        <v>415.3527394798202</v>
       </c>
       <c r="F56" t="n">
-        <v>12.22207693918019</v>
+        <v>12.22207694002589</v>
       </c>
       <c r="G56" t="n">
-        <v>12.29422759640145</v>
+        <v>12.29422759822129</v>
       </c>
       <c r="H56" t="n">
-        <v>-0.072150657221261</v>
+        <v>-0.0721506581953968</v>
       </c>
       <c r="I56" t="n">
-        <v>0.1115195765641663</v>
+        <v>0.1115195774300823</v>
       </c>
       <c r="J56" t="n">
-        <v>0.1800595253730811</v>
+        <v>0.1800595253926087</v>
       </c>
       <c r="K56" t="n">
-        <v>-0.1458370084483243</v>
+        <v>-0.1458370084371916</v>
       </c>
       <c r="L56" t="n">
-        <v>0.6176792774335556</v>
+        <v>0.6176792774260391</v>
       </c>
       <c r="M56" t="n">
-        <v>0.07214512762473244</v>
+        <v>0.07214512762509129</v>
       </c>
       <c r="N56" t="n">
         <v>40.45</v>
@@ -4933,22 +4933,22 @@
         <v>0</v>
       </c>
       <c r="R56" t="n">
-        <v>0.2367691898870043</v>
+        <v>0.2367691899210422</v>
       </c>
       <c r="S56" t="n">
-        <v>-0.2218193237274149</v>
+        <v>-0.2218193237097301</v>
       </c>
       <c r="T56" t="n">
-        <v>0.6672809045305844</v>
+        <v>0.6672809045278373</v>
       </c>
       <c r="U56" t="n">
-        <v>-12.22207693918019</v>
+        <v>-12.22207694002589</v>
       </c>
       <c r="V56" t="n">
-        <v>415.3527394798253</v>
+        <v>415.3527394798202</v>
       </c>
       <c r="W56" t="n">
-        <v>0.1771447971498801</v>
+        <v>0.177144797515296</v>
       </c>
       <c r="X56" t="n">
         <v>450</v>
@@ -4968,37 +4968,37 @@
         <v>3139.5</v>
       </c>
       <c r="C57" t="n">
-        <v>0.9884503603571465</v>
+        <v>0.9884503603571464</v>
       </c>
       <c r="D57" t="n">
         <v>16.90000000000001</v>
       </c>
       <c r="E57" t="n">
-        <v>415.3119834344319</v>
+        <v>415.3119834345793</v>
       </c>
       <c r="F57" t="n">
-        <v>16.94281118377966</v>
+        <v>16.94280558144232</v>
       </c>
       <c r="G57" t="n">
-        <v>17.00709991454513</v>
+        <v>17.00708776609422</v>
       </c>
       <c r="H57" t="n">
-        <v>-0.06428873076547201</v>
+        <v>-0.06428218465189843</v>
       </c>
       <c r="I57" t="n">
-        <v>0.1052301893179495</v>
+        <v>0.1052263558817473</v>
       </c>
       <c r="J57" t="n">
-        <v>0.1687015093501618</v>
+        <v>0.1687015093916788</v>
       </c>
       <c r="K57" t="n">
-        <v>-0.164327507881302</v>
+        <v>-0.1643275077293055</v>
       </c>
       <c r="L57" t="n">
-        <v>0.6553295747355088</v>
+        <v>0.6553295746488447</v>
       </c>
       <c r="M57" t="n">
-        <v>0.06428629621902519</v>
+        <v>0.06428629484709063</v>
       </c>
       <c r="N57" t="n">
         <v>40.45</v>
@@ -5013,22 +5013,22 @@
         <v>0</v>
       </c>
       <c r="R57" t="n">
-        <v>0.2671932000798158</v>
+        <v>0.2671932001874077</v>
       </c>
       <c r="S57" t="n">
-        <v>-0.2632965531457371</v>
+        <v>-0.2632965529068071</v>
       </c>
       <c r="T57" t="n">
-        <v>0.7242031074166323</v>
+        <v>0.7242031073205701</v>
       </c>
       <c r="U57" t="n">
-        <v>-16.94281118377966</v>
+        <v>-16.94280558144232</v>
       </c>
       <c r="V57" t="n">
-        <v>415.3119834344319</v>
+        <v>415.3119834345793</v>
       </c>
       <c r="W57" t="n">
-        <v>0.1618005324819704</v>
+        <v>0.1617977069099018</v>
       </c>
       <c r="X57" t="n">
         <v>450</v>
@@ -5048,37 +5048,37 @@
         <v>3400.5</v>
       </c>
       <c r="C58" t="n">
-        <v>0.9846663357655702</v>
+        <v>0.9846663357655699</v>
       </c>
       <c r="D58" t="n">
         <v>21.90000000000001</v>
       </c>
       <c r="E58" t="n">
-        <v>415.3251686561775</v>
+        <v>415.3251686561772</v>
       </c>
       <c r="F58" t="n">
-        <v>22.0991021450956</v>
+        <v>22.09910211126247</v>
       </c>
       <c r="G58" t="n">
-        <v>22.14348720070471</v>
+        <v>22.14348712706708</v>
       </c>
       <c r="H58" t="n">
-        <v>-0.04438505560910553</v>
+        <v>-0.04438501580461487</v>
       </c>
       <c r="I58" t="n">
-        <v>0.1373627571066965</v>
+        <v>0.1373627335338667</v>
       </c>
       <c r="J58" t="n">
-        <v>0.2003243398218674</v>
+        <v>0.2003243399766464</v>
       </c>
       <c r="K58" t="n">
-        <v>-0.1547854995179171</v>
+        <v>-0.1547854994070704</v>
       </c>
       <c r="L58" t="n">
-        <v>0.6732078868821431</v>
+        <v>0.6732078867951911</v>
       </c>
       <c r="M58" t="n">
-        <v>0.04438497097606646</v>
+        <v>0.04438497096011809</v>
       </c>
       <c r="N58" t="n">
         <v>40.45</v>
@@ -5093,22 +5093,22 @@
         <v>0</v>
       </c>
       <c r="R58" t="n">
-        <v>0.3654192450252788</v>
+        <v>0.3654192450856837</v>
       </c>
       <c r="S58" t="n">
-        <v>-0.2464084365215663</v>
+        <v>-0.2464084364391587</v>
       </c>
       <c r="T58" t="n">
-        <v>0.763894940799651</v>
+        <v>0.7638949407483022</v>
       </c>
       <c r="U58" t="n">
-        <v>-22.0991021450956</v>
+        <v>-22.09910211126247</v>
       </c>
       <c r="V58" t="n">
-        <v>415.3251686561775</v>
+        <v>415.3251686561772</v>
       </c>
       <c r="W58" t="n">
-        <v>0.1978189690518435</v>
+        <v>0.1978189500161366</v>
       </c>
       <c r="X58" t="n">
         <v>450</v>
@@ -5128,37 +5128,37 @@
         <v>3661.5</v>
       </c>
       <c r="C59" t="n">
-        <v>0.9780217652113739</v>
+        <v>0.978021765211373</v>
       </c>
       <c r="D59" t="n">
         <v>26.90000000000001</v>
       </c>
       <c r="E59" t="n">
-        <v>415.3421343170722</v>
+        <v>415.3421343171429</v>
       </c>
       <c r="F59" t="n">
-        <v>27.824873018336</v>
+        <v>27.82487389256678</v>
       </c>
       <c r="G59" t="n">
-        <v>27.84517993602328</v>
+        <v>27.84518183438559</v>
       </c>
       <c r="H59" t="n">
-        <v>-0.02030691768728244</v>
+        <v>-0.02030794181880934</v>
       </c>
       <c r="I59" t="n">
-        <v>0.145652750609867</v>
+        <v>0.1456533543004116</v>
       </c>
       <c r="J59" t="n">
-        <v>0.2249181436875949</v>
+        <v>0.2249181439563975</v>
       </c>
       <c r="K59" t="n">
-        <v>-0.1328180225518443</v>
+        <v>-0.1328180227199396</v>
       </c>
       <c r="L59" t="n">
-        <v>0.6667331676048952</v>
+        <v>0.6667331677841982</v>
       </c>
       <c r="M59" t="n">
-        <v>0.02032516979152147</v>
+        <v>0.02032517047352667</v>
       </c>
       <c r="N59" t="n">
         <v>40.45</v>
@@ -5173,22 +5173,22 @@
         <v>0</v>
       </c>
       <c r="R59" t="n">
-        <v>0.4450366239858374</v>
+        <v>0.4450366243142085</v>
       </c>
       <c r="S59" t="n">
-        <v>-0.2369663066859959</v>
+        <v>-0.2369663067961708</v>
       </c>
       <c r="T59" t="n">
-        <v>0.7843292104796195</v>
+        <v>0.7843292107148961</v>
       </c>
       <c r="U59" t="n">
-        <v>-27.824873018336</v>
+        <v>-27.82487389256678</v>
       </c>
       <c r="V59" t="n">
-        <v>415.3421343170722</v>
+        <v>415.3421343171429</v>
       </c>
       <c r="W59" t="n">
-        <v>0.2032181741242293</v>
+        <v>0.2032186054592494</v>
       </c>
       <c r="X59" t="n">
         <v>450</v>
@@ -5208,37 +5208,37 @@
         <v>3922.5</v>
       </c>
       <c r="C60" t="n">
-        <v>0.9683457825679561</v>
+        <v>0.968345782567954</v>
       </c>
       <c r="D60" t="n">
         <v>31.90000000000001</v>
       </c>
       <c r="E60" t="n">
-        <v>415.3443326575269</v>
+        <v>415.3443326575942</v>
       </c>
       <c r="F60" t="n">
-        <v>32.53933502328857</v>
+        <v>32.53934057834172</v>
       </c>
       <c r="G60" t="n">
-        <v>32.6327596643745</v>
+        <v>32.63277172314477</v>
       </c>
       <c r="H60" t="n">
-        <v>-0.09342464108593376</v>
+        <v>-0.09343114480304777</v>
       </c>
       <c r="I60" t="n">
-        <v>0.2018529456250406</v>
+        <v>0.2018580480171847</v>
       </c>
       <c r="J60" t="n">
-        <v>0.2369348516101435</v>
+        <v>0.2369348517183124</v>
       </c>
       <c r="K60" t="n">
-        <v>-0.1252704068543425</v>
+        <v>-0.1252704067710355</v>
       </c>
       <c r="L60" t="n">
-        <v>0.6629991650681303</v>
+        <v>0.6629991650580751</v>
       </c>
       <c r="M60" t="n">
-        <v>0.09342976669763689</v>
+        <v>0.09342977172840321</v>
       </c>
       <c r="N60" t="n">
         <v>40.45</v>
@@ -5253,22 +5253,22 @@
         <v>0</v>
       </c>
       <c r="R60" t="n">
-        <v>0.4826690915455025</v>
+        <v>0.4826690915630978</v>
       </c>
       <c r="S60" t="n">
-        <v>-0.1962405091621611</v>
+        <v>-0.1962405090000144</v>
       </c>
       <c r="T60" t="n">
-        <v>0.7820442178651186</v>
+        <v>0.7820442177809244</v>
       </c>
       <c r="U60" t="n">
-        <v>-32.53933502328857</v>
+        <v>-32.53934057834172</v>
       </c>
       <c r="V60" t="n">
-        <v>415.3443326575269</v>
+        <v>415.3443326575942</v>
       </c>
       <c r="W60" t="n">
-        <v>0.2746712689560336</v>
+        <v>0.2746749083664398</v>
       </c>
       <c r="X60" t="n">
         <v>450</v>
@@ -5288,37 +5288,37 @@
         <v>4183.5</v>
       </c>
       <c r="C61" t="n">
-        <v>0.9532603045007804</v>
+        <v>0.9532603045007808</v>
       </c>
       <c r="D61" t="n">
         <v>36.90000000000001</v>
       </c>
       <c r="E61" t="n">
-        <v>415.3761607788791</v>
+        <v>415.376160778696</v>
       </c>
       <c r="F61" t="n">
-        <v>37.65116980821058</v>
+        <v>37.65116451824323</v>
       </c>
       <c r="G61" t="n">
-        <v>37.69292631543188</v>
+        <v>37.69291482618025</v>
       </c>
       <c r="H61" t="n">
-        <v>-0.04175650722130584</v>
+        <v>-0.04175030793701708</v>
       </c>
       <c r="I61" t="n">
-        <v>0.253466215350623</v>
+        <v>0.2534633073955815</v>
       </c>
       <c r="J61" t="n">
-        <v>0.2318647059973765</v>
+        <v>0.2318647061108045</v>
       </c>
       <c r="K61" t="n">
-        <v>-0.09445038216692771</v>
+        <v>-0.0944503820452514</v>
       </c>
       <c r="L61" t="n">
-        <v>0.6480199816191703</v>
+        <v>0.6480199816988069</v>
       </c>
       <c r="M61" t="n">
-        <v>0.04177405821070366</v>
+        <v>0.04177405272948356</v>
       </c>
       <c r="N61" t="n">
         <v>40.45</v>
@@ -5333,22 +5333,22 @@
         <v>0</v>
       </c>
       <c r="R61" t="n">
-        <v>0.5218251820408019</v>
+        <v>0.5218251821543337</v>
       </c>
       <c r="S61" t="n">
-        <v>-0.1838970800519462</v>
+        <v>-0.1838970800275102</v>
       </c>
       <c r="T61" t="n">
-        <v>0.797037781927761</v>
+        <v>0.7970377820741901</v>
       </c>
       <c r="U61" t="n">
-        <v>-37.65116980821058</v>
+        <v>-37.65116451824323</v>
       </c>
       <c r="V61" t="n">
-        <v>415.3761607788791</v>
+        <v>415.376160778696</v>
       </c>
       <c r="W61" t="n">
-        <v>0.3225720698119811</v>
+        <v>0.3225707537725948</v>
       </c>
       <c r="X61" t="n">
         <v>450</v>
@@ -5368,37 +5368,37 @@
         <v>4444.5</v>
       </c>
       <c r="C62" t="n">
-        <v>0.9323087700812962</v>
+        <v>0.9323087700812922</v>
       </c>
       <c r="D62" t="n">
         <v>41.90000000000001</v>
       </c>
       <c r="E62" t="n">
-        <v>415.2869965311966</v>
+        <v>415.2869965310832</v>
       </c>
       <c r="F62" t="n">
-        <v>42.35035853642934</v>
+        <v>42.35035853873321</v>
       </c>
       <c r="G62" t="n">
-        <v>42.4389663528382</v>
+        <v>42.43896635786599</v>
       </c>
       <c r="H62" t="n">
-        <v>-0.08860781640885981</v>
+        <v>-0.08860781913278176</v>
       </c>
       <c r="I62" t="n">
-        <v>0.2779859716657404</v>
+        <v>0.2779859723190027</v>
       </c>
       <c r="J62" t="n">
-        <v>0.2083174288253611</v>
+        <v>0.2083174284894961</v>
       </c>
       <c r="K62" t="n">
-        <v>-0.1288940910285556</v>
+        <v>-0.1288940911448183</v>
       </c>
       <c r="L62" t="n">
-        <v>0.6385344000733456</v>
+        <v>0.6385343998047638</v>
       </c>
       <c r="M62" t="n">
-        <v>0.08861538352435178</v>
+        <v>0.08861538352586489</v>
       </c>
       <c r="N62" t="n">
         <v>40.45</v>
@@ -5413,22 +5413,22 @@
         <v>0</v>
       </c>
       <c r="R62" t="n">
-        <v>0.4395517683553967</v>
+        <v>0.4395517679638348</v>
       </c>
       <c r="S62" t="n">
-        <v>-0.3588930878007261</v>
+        <v>-0.3588930878911379</v>
       </c>
       <c r="T62" t="n">
-        <v>0.7890624086666642</v>
+        <v>0.7890624083598095</v>
       </c>
       <c r="U62" t="n">
-        <v>-42.35035853642934</v>
+        <v>-42.35035853873321</v>
       </c>
       <c r="V62" t="n">
-        <v>415.2869965311966</v>
+        <v>415.2869965310832</v>
       </c>
       <c r="W62" t="n">
-        <v>0.3488414525256833</v>
+        <v>0.3488414529845138</v>
       </c>
       <c r="X62" t="n">
         <v>450</v>
@@ -5448,37 +5448,37 @@
         <v>4704.533333333334</v>
       </c>
       <c r="C63" t="n">
-        <v>0.8949815444014061</v>
+        <v>0.8949815444014055</v>
       </c>
       <c r="D63" t="n">
         <v>46.90000000000001</v>
       </c>
       <c r="E63" t="n">
-        <v>415.320576747345</v>
+        <v>415.3205767474718</v>
       </c>
       <c r="F63" t="n">
-        <v>47.67090594947444</v>
+        <v>47.67090085567193</v>
       </c>
       <c r="G63" t="n">
-        <v>47.739065682976</v>
+        <v>47.73905463312075</v>
       </c>
       <c r="H63" t="n">
-        <v>-0.06815973350155531</v>
+        <v>-0.06815377744882151</v>
       </c>
       <c r="I63" t="n">
-        <v>0.4058777822242694</v>
+        <v>0.4058758456711705</v>
       </c>
       <c r="J63" t="n">
-        <v>0.131497668629671</v>
+        <v>0.1314976688145633</v>
       </c>
       <c r="K63" t="n">
-        <v>-0.1285519662468396</v>
+        <v>-0.1285519661433513</v>
       </c>
       <c r="L63" t="n">
-        <v>0.6294950812236593</v>
+        <v>0.6294950811007957</v>
       </c>
       <c r="M63" t="n">
-        <v>0.06732125203756451</v>
+        <v>0.06732125108290379</v>
       </c>
       <c r="N63" t="n">
         <v>40.45</v>
@@ -5493,22 +5493,22 @@
         <v>0</v>
       </c>
       <c r="R63" t="n">
-        <v>0.4403434650543078</v>
+        <v>0.4403434652128676</v>
       </c>
       <c r="S63" t="n">
-        <v>-0.2663508465423519</v>
+        <v>-0.2663508464152626</v>
       </c>
       <c r="T63" t="n">
-        <v>0.774813815459497</v>
+        <v>0.7748138153952282</v>
       </c>
       <c r="U63" t="n">
-        <v>-47.67090594947444</v>
+        <v>-47.67090085567193</v>
       </c>
       <c r="V63" t="n">
-        <v>415.320576747345</v>
+        <v>415.3205767474718</v>
       </c>
       <c r="W63" t="n">
-        <v>0.570799597078704</v>
+        <v>0.5707988044172105</v>
       </c>
       <c r="X63" t="n">
         <v>450</v>
@@ -5528,37 +5528,37 @@
         <v>4965.5</v>
       </c>
       <c r="C64" t="n">
-        <v>0.8338007770434952</v>
+        <v>0.833800777043493</v>
       </c>
       <c r="D64" t="n">
         <v>51.90000000000001</v>
       </c>
       <c r="E64" t="n">
-        <v>415.2178141333887</v>
+        <v>415.2178141333084</v>
       </c>
       <c r="F64" t="n">
-        <v>53.01604253475303</v>
+        <v>53.0160431214039</v>
       </c>
       <c r="G64" t="n">
-        <v>53.27214761449191</v>
+        <v>53.27214888613017</v>
       </c>
       <c r="H64" t="n">
-        <v>-0.2561050797388819</v>
+        <v>-0.2561057647262606</v>
       </c>
       <c r="I64" t="n">
-        <v>0.5225842622212618</v>
+        <v>0.522584401301138</v>
       </c>
       <c r="J64" t="n">
-        <v>0.1348572105413198</v>
+        <v>0.1348572104035242</v>
       </c>
       <c r="K64" t="n">
-        <v>-0.1035390549034753</v>
+        <v>-0.1035390549374462</v>
       </c>
       <c r="L64" t="n">
-        <v>0.6449110653125613</v>
+        <v>0.6449110649525664</v>
       </c>
       <c r="M64" t="n">
-        <v>0.2560762917244743</v>
+        <v>0.2560762919262611</v>
       </c>
       <c r="N64" t="n">
         <v>40.45</v>
@@ -5573,22 +5573,22 @@
         <v>0</v>
       </c>
       <c r="R64" t="n">
-        <v>0.454408019492176</v>
+        <v>0.4544080192449782</v>
       </c>
       <c r="S64" t="n">
-        <v>-0.3106729150031596</v>
+        <v>-0.3106729151368041</v>
       </c>
       <c r="T64" t="n">
-        <v>0.8020584356207148</v>
+        <v>0.802058435263555</v>
       </c>
       <c r="U64" t="n">
-        <v>-53.01604253475303</v>
+        <v>-53.0160431214039</v>
       </c>
       <c r="V64" t="n">
-        <v>415.2178141333887</v>
+        <v>415.2178141333084</v>
       </c>
       <c r="W64" t="n">
-        <v>0.7301483145583395</v>
+        <v>0.7301484475645836</v>
       </c>
       <c r="X64" t="n">
         <v>450</v>

--- a/publication/analyses/outputs/rmse_z/idpt_bin_r-z_rmse-z.xlsx
+++ b/publication/analyses/outputs/rmse_z/idpt_bin_r-z_rmse-z.xlsx
@@ -568,37 +568,37 @@
         <v>136.9545454545455</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9031694553093647</v>
+        <v>0.9031694553093585</v>
       </c>
       <c r="D2" t="n">
         <v>-48.09999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>149.2878433455915</v>
+        <v>149.2878433458782</v>
       </c>
       <c r="F2" t="n">
-        <v>-47.77156789896984</v>
+        <v>-47.77155866322609</v>
       </c>
       <c r="G2" t="n">
-        <v>-47.80829537787529</v>
+        <v>-47.8082832843972</v>
       </c>
       <c r="H2" t="n">
-        <v>0.03672747890544587</v>
+        <v>0.03672462117110589</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4869735503046106</v>
+        <v>0.4869755499610376</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.0560736941344613</v>
+        <v>-0.05607369421217744</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1928064200771831</v>
+        <v>0.1928064201660362</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7931955399569074</v>
+        <v>0.7931955403496516</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.03673819226412511</v>
+        <v>-0.03673818865280133</v>
       </c>
       <c r="N2" t="n">
         <v>50.18181818181818</v>
@@ -613,22 +613,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2387561488236129</v>
+        <v>0.2387561485520469</v>
       </c>
       <c r="S2" t="n">
-        <v>1.023326445093124</v>
+        <v>1.023326445158137</v>
       </c>
       <c r="T2" t="n">
-        <v>1.228403252301451</v>
+        <v>1.228403252449257</v>
       </c>
       <c r="U2" t="n">
-        <v>47.77156789896984</v>
+        <v>47.77155866322609</v>
       </c>
       <c r="V2" t="n">
-        <v>149.2878433455915</v>
+        <v>149.2878433458782</v>
       </c>
       <c r="W2" t="n">
-        <v>0.6080919941535566</v>
+        <v>0.6080926861617174</v>
       </c>
       <c r="X2" t="n">
         <v>150</v>
@@ -648,37 +648,37 @@
         <v>395.953125</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9363323668300554</v>
+        <v>0.9363323668300543</v>
       </c>
       <c r="D3" t="n">
         <v>-43.09999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>148.4388624922167</v>
+        <v>148.4388624928171</v>
       </c>
       <c r="F3" t="n">
-        <v>-43.24514048137289</v>
+        <v>-43.24514053745244</v>
       </c>
       <c r="G3" t="n">
-        <v>-43.14635803198964</v>
+        <v>-43.1463581034952</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.0987824493832463</v>
+        <v>-0.09878243395723639</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3331253918745896</v>
+        <v>0.3331253872151322</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.1842674928542447</v>
+        <v>-0.1842674930980399</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2214328587544028</v>
+        <v>0.2214328587437486</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7803478616556178</v>
+        <v>0.7803478619403479</v>
       </c>
       <c r="M3" t="n">
-        <v>0.09876903239442281</v>
+        <v>0.09876903239606571</v>
       </c>
       <c r="N3" t="n">
         <v>50.96875</v>
@@ -693,22 +693,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.01416800487676717</v>
+        <v>0.01416800450347689</v>
       </c>
       <c r="S3" t="n">
-        <v>1.02600308117351</v>
+        <v>1.026003081311478</v>
       </c>
       <c r="T3" t="n">
-        <v>1.164801898049673</v>
+        <v>1.164801898382822</v>
       </c>
       <c r="U3" t="n">
-        <v>43.24514048137289</v>
+        <v>43.24514053745244</v>
       </c>
       <c r="V3" t="n">
-        <v>148.4388624922167</v>
+        <v>148.4388624928171</v>
       </c>
       <c r="W3" t="n">
-        <v>0.4464847721048779</v>
+        <v>0.4464847674900723</v>
       </c>
       <c r="X3" t="n">
         <v>150</v>
@@ -728,37 +728,37 @@
         <v>656.9545454545455</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9573055830619398</v>
+        <v>0.9573055830619362</v>
       </c>
       <c r="D4" t="n">
         <v>-38.09999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>149.3337207365424</v>
+        <v>149.3337207338922</v>
       </c>
       <c r="F4" t="n">
-        <v>-37.82106837197897</v>
+        <v>-37.82106964082241</v>
       </c>
       <c r="G4" t="n">
-        <v>-37.68518843851261</v>
+        <v>-37.68519009447498</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.135879933466355</v>
+        <v>-0.1358795463474316</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4093453915557022</v>
+        <v>0.4093452046592525</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.2255682721486826</v>
+        <v>-0.2255682719654831</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2120808748780203</v>
+        <v>0.2120808728467422</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8569244023487851</v>
+        <v>0.8569244004957287</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1358598048812041</v>
+        <v>0.1358598051673276</v>
       </c>
       <c r="N4" t="n">
         <v>50.18181818181818</v>
@@ -773,22 +773,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.06937611250187146</v>
+        <v>-0.06937611222876211</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9353143348132356</v>
+        <v>0.9353143320469859</v>
       </c>
       <c r="T4" t="n">
-        <v>1.142608517663085</v>
+        <v>1.14260851518091</v>
       </c>
       <c r="U4" t="n">
-        <v>37.82106837197897</v>
+        <v>37.82106964082241</v>
       </c>
       <c r="V4" t="n">
-        <v>149.3337207365424</v>
+        <v>149.3337207338922</v>
       </c>
       <c r="W4" t="n">
-        <v>0.5118685169523874</v>
+        <v>0.5118683837161545</v>
       </c>
       <c r="X4" t="n">
         <v>150</v>
@@ -808,37 +808,37 @@
         <v>917.9545454545455</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9689386457804987</v>
+        <v>0.9689386457804972</v>
       </c>
       <c r="D5" t="n">
         <v>-33.09999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>149.2984252515648</v>
+        <v>149.2984252520587</v>
       </c>
       <c r="F5" t="n">
-        <v>-33.04614239230881</v>
+        <v>-33.04614239012022</v>
       </c>
       <c r="G5" t="n">
-        <v>-32.98388033521916</v>
+        <v>-32.98388033237012</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.06226205708965167</v>
+        <v>-0.06226205775009212</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2174468158799612</v>
+        <v>0.2174468160567779</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.2247531001413025</v>
+        <v>-0.2247531001014944</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2398371892690392</v>
+        <v>0.2398371896525962</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8455677556919889</v>
+        <v>0.845567755942486</v>
       </c>
       <c r="M5" t="n">
-        <v>0.06225078433682664</v>
+        <v>0.06225078433685707</v>
       </c>
       <c r="N5" t="n">
         <v>50.18181818181818</v>
@@ -853,22 +853,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.1096804642259302</v>
+        <v>-0.1096804640859175</v>
       </c>
       <c r="S5" t="n">
-        <v>0.8977156222170932</v>
+        <v>0.8977156226931133</v>
       </c>
       <c r="T5" t="n">
-        <v>1.111636161552094</v>
+        <v>1.111636161917867</v>
       </c>
       <c r="U5" t="n">
-        <v>33.04614239230881</v>
+        <v>33.04614239012022</v>
       </c>
       <c r="V5" t="n">
-        <v>149.2984252515648</v>
+        <v>149.2984252520587</v>
       </c>
       <c r="W5" t="n">
-        <v>0.2909097754860717</v>
+        <v>0.290909775502467</v>
       </c>
       <c r="X5" t="n">
         <v>150</v>
@@ -888,37 +888,37 @@
         <v>1178.954545454545</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9778834975485664</v>
+        <v>0.9778834975485656</v>
       </c>
       <c r="D6" t="n">
         <v>-28.09999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>149.282517679182</v>
+        <v>149.2825176789985</v>
       </c>
       <c r="F6" t="n">
-        <v>-28.43898565897316</v>
+        <v>-28.43898565992245</v>
       </c>
       <c r="G6" t="n">
-        <v>-28.40995576350307</v>
+        <v>-28.40995576474833</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.02902989547008829</v>
+        <v>-0.02902989517412247</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1778531219839999</v>
+        <v>0.1778531219381436</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.2066203311901811</v>
+        <v>-0.2066203310751851</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2054867658660038</v>
+        <v>0.2054867657625548</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8055063531859492</v>
+        <v>0.8055063530103841</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02902071001411868</v>
+        <v>0.02902071001414925</v>
       </c>
       <c r="N6" t="n">
         <v>50.18181818181818</v>
@@ -933,22 +933,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.1687020376136895</v>
+        <v>-0.1687020374426209</v>
       </c>
       <c r="S6" t="n">
-        <v>0.7716006796580157</v>
+        <v>0.7716006796472409</v>
       </c>
       <c r="T6" t="n">
-        <v>1.018260845624424</v>
+        <v>1.018260845549219</v>
       </c>
       <c r="U6" t="n">
-        <v>28.43898565897316</v>
+        <v>28.43898565992245</v>
       </c>
       <c r="V6" t="n">
-        <v>149.282517679182</v>
+        <v>149.2825176789985</v>
       </c>
       <c r="W6" t="n">
-        <v>0.2444622677065642</v>
+        <v>0.2444622677217396</v>
       </c>
       <c r="X6" t="n">
         <v>150</v>
@@ -968,37 +968,37 @@
         <v>1439.954545454545</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9832878008450039</v>
+        <v>0.9832878008450031</v>
       </c>
       <c r="D7" t="n">
         <v>-23.09999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>149.1457828203018</v>
+        <v>149.145782820348</v>
       </c>
       <c r="F7" t="n">
-        <v>-22.9304304427426</v>
+        <v>-22.93043053032644</v>
       </c>
       <c r="G7" t="n">
-        <v>-22.86769729371632</v>
+        <v>-22.86769740813532</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.06273314902628312</v>
+        <v>-0.06273312219112313</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1550859022025501</v>
+        <v>0.1550858943003285</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.1487670307048814</v>
+        <v>-0.1487670307951983</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1879467668625764</v>
+        <v>0.1879467667764771</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7869212104819213</v>
+        <v>0.7869212105878681</v>
       </c>
       <c r="M7" t="n">
-        <v>0.06272866524045914</v>
+        <v>0.06272866523980991</v>
       </c>
       <c r="N7" t="n">
         <v>50.18181818181818</v>
@@ -1013,22 +1013,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.1263008673602131</v>
+        <v>-0.1263008674719315</v>
       </c>
       <c r="S7" t="n">
-        <v>0.5873963517719418</v>
+        <v>0.5873963517596668</v>
       </c>
       <c r="T7" t="n">
-        <v>0.9093434148382648</v>
+        <v>0.9093434149187405</v>
       </c>
       <c r="U7" t="n">
-        <v>22.9304304427426</v>
+        <v>22.93043053032644</v>
       </c>
       <c r="V7" t="n">
-        <v>149.1457828203018</v>
+        <v>149.145782820348</v>
       </c>
       <c r="W7" t="n">
-        <v>0.1882299106781834</v>
+        <v>0.1882299097324363</v>
       </c>
       <c r="X7" t="n">
         <v>150</v>
@@ -1048,37 +1048,37 @@
         <v>1695.112903225806</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9844128345596416</v>
+        <v>0.9844128345596413</v>
       </c>
       <c r="D8" t="n">
         <v>-18.09999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>148.4201273715243</v>
+        <v>148.4201273714244</v>
       </c>
       <c r="F8" t="n">
-        <v>-18.21796946695439</v>
+        <v>-18.21796946574603</v>
       </c>
       <c r="G8" t="n">
-        <v>-18.20520397000869</v>
+        <v>-18.20520396847115</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.01276549694570801</v>
+        <v>-0.01276549727488349</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1562869466285148</v>
+        <v>0.1562869469663442</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.1808856071444751</v>
+        <v>-0.1808856072395764</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1409368704073247</v>
+        <v>0.1409368704260133</v>
       </c>
       <c r="L8" t="n">
-        <v>0.7014842103477977</v>
+        <v>0.701484210269245</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01304149492910008</v>
+        <v>0.01304149492879682</v>
       </c>
       <c r="N8" t="n">
         <v>50.03225806451613</v>
@@ -1093,22 +1093,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.1843616454406811</v>
+        <v>-0.1843616455250532</v>
       </c>
       <c r="S8" t="n">
-        <v>0.3485629856573263</v>
+        <v>0.3485629856383319</v>
       </c>
       <c r="T8" t="n">
-        <v>0.7449267846772992</v>
+        <v>0.7449267845933398</v>
       </c>
       <c r="U8" t="n">
-        <v>18.21796946695439</v>
+        <v>18.21796946574603</v>
       </c>
       <c r="V8" t="n">
-        <v>148.4201273715243</v>
+        <v>148.4201273714244</v>
       </c>
       <c r="W8" t="n">
-        <v>0.1959415124055769</v>
+        <v>0.1959415126000545</v>
       </c>
       <c r="X8" t="n">
         <v>150</v>
@@ -1128,37 +1128,37 @@
         <v>1915.452380952381</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9820034291284174</v>
+        <v>0.9820034291284172</v>
       </c>
       <c r="D9" t="n">
         <v>-13.09999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>147.1050737195144</v>
+        <v>147.1050737194527</v>
       </c>
       <c r="F9" t="n">
-        <v>-13.61247424007225</v>
+        <v>-13.61247443413641</v>
       </c>
       <c r="G9" t="n">
-        <v>-13.53538203551962</v>
+        <v>-13.53538230868667</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.0770922045526261</v>
+        <v>-0.07709212544974109</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1712028993332462</v>
+        <v>0.1712028521235715</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.1974473840264263</v>
+        <v>-0.1974473840410574</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1463844343982626</v>
+        <v>0.1463844342697052</v>
       </c>
       <c r="L9" t="n">
-        <v>0.656918970367509</v>
+        <v>0.6569189703341999</v>
       </c>
       <c r="M9" t="n">
-        <v>0.07582101087257787</v>
+        <v>0.07582101091560071</v>
       </c>
       <c r="N9" t="n">
         <v>46.47619047619047</v>
@@ -1173,22 +1173,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.1859249696274679</v>
+        <v>-0.1859249696634687</v>
       </c>
       <c r="S9" t="n">
-        <v>0.3639042723027709</v>
+        <v>0.3639042721557813</v>
       </c>
       <c r="T9" t="n">
-        <v>0.7172531281019766</v>
+        <v>0.7172531280547757</v>
       </c>
       <c r="U9" t="n">
-        <v>13.61247424007225</v>
+        <v>13.61247443413641</v>
       </c>
       <c r="V9" t="n">
-        <v>147.1050737195144</v>
+        <v>147.1050737194527</v>
       </c>
       <c r="W9" t="n">
-        <v>0.2819077392327533</v>
+        <v>0.2819077340684246</v>
       </c>
       <c r="X9" t="n">
         <v>150</v>
@@ -1208,37 +1208,37 @@
         <v>2084.321428571428</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9767894133164194</v>
+        <v>0.9767894133164196</v>
       </c>
       <c r="D10" t="n">
         <v>-8.099999999999994</v>
       </c>
       <c r="E10" t="n">
-        <v>143.2645534031509</v>
+        <v>143.2645534029742</v>
       </c>
       <c r="F10" t="n">
-        <v>-8.548833376086984</v>
+        <v>-8.548833859202317</v>
       </c>
       <c r="G10" t="n">
-        <v>-8.412366102243347</v>
+        <v>-8.412366981061535</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.136467273843636</v>
+        <v>-0.1364668781407816</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1737558668869716</v>
+        <v>0.1737556418446798</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.05721486606287637</v>
+        <v>-0.05721486612033999</v>
       </c>
       <c r="K10" t="n">
-        <v>0.05913984027712819</v>
+        <v>0.05913984017363865</v>
       </c>
       <c r="L10" t="n">
-        <v>0.6437294660647037</v>
+        <v>0.643729466043783</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1353623264450476</v>
+        <v>0.1353623264186324</v>
       </c>
       <c r="N10" t="n">
         <v>43.96428571428572</v>
@@ -1253,22 +1253,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.08552303251252116</v>
+        <v>-0.08552303258700229</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1550151480330381</v>
+        <v>0.1550151478911549</v>
       </c>
       <c r="T10" t="n">
-        <v>0.6596606276665492</v>
+        <v>0.6596606276361773</v>
       </c>
       <c r="U10" t="n">
-        <v>8.548833376086984</v>
+        <v>8.548833859202317</v>
       </c>
       <c r="V10" t="n">
-        <v>143.2645534031509</v>
+        <v>143.2645534029742</v>
       </c>
       <c r="W10" t="n">
-        <v>0.18718702740756</v>
+        <v>0.1871867846861847</v>
       </c>
       <c r="X10" t="n">
         <v>150</v>
@@ -1288,37 +1288,37 @@
         <v>2211.25</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9516069153524748</v>
+        <v>0.951606915352475</v>
       </c>
       <c r="D11" t="n">
         <v>-3.099999999999994</v>
       </c>
       <c r="E11" t="n">
-        <v>185.6305682810652</v>
+        <v>185.6305682809677</v>
       </c>
       <c r="F11" t="n">
-        <v>-4.414231299881311</v>
+        <v>-4.414231298361277</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.162115875665233</v>
+        <v>-4.162115872956935</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.2521154242160779</v>
+        <v>-0.2521154254043415</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3560885035776984</v>
+        <v>0.356088503598176</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.002220436191931204</v>
+        <v>-0.002220436251356261</v>
       </c>
       <c r="K11" t="n">
-        <v>0.07660547801211712</v>
+        <v>0.07660547803538501</v>
       </c>
       <c r="L11" t="n">
-        <v>0.5850243241963835</v>
+        <v>0.5850243241169695</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2520332204547531</v>
+        <v>0.2520332204553108</v>
       </c>
       <c r="N11" t="n">
         <v>34.75</v>
@@ -1333,22 +1333,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0.100939081873733</v>
+        <v>0.1009390817991616</v>
       </c>
       <c r="S11" t="n">
-        <v>0.0778421940438155</v>
+        <v>0.0778421940472498</v>
       </c>
       <c r="T11" t="n">
-        <v>0.5786711844784475</v>
+        <v>0.5786711843944247</v>
       </c>
       <c r="U11" t="n">
-        <v>4.414231299881311</v>
+        <v>4.414231298361277</v>
       </c>
       <c r="V11" t="n">
-        <v>185.6305682810652</v>
+        <v>185.6305682809677</v>
       </c>
       <c r="W11" t="n">
-        <v>0.370092640052716</v>
+        <v>0.3700926405109633</v>
       </c>
       <c r="X11" t="n">
         <v>150</v>
@@ -1368,37 +1368,37 @@
         <v>2388.621212121212</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9556149259571813</v>
+        <v>0.9556149259571814</v>
       </c>
       <c r="D12" t="n">
         <v>1.900000000000006</v>
       </c>
       <c r="E12" t="n">
-        <v>149.0704048992427</v>
+        <v>149.0704048992446</v>
       </c>
       <c r="F12" t="n">
-        <v>2.482042362085087</v>
+        <v>2.482042468784713</v>
       </c>
       <c r="G12" t="n">
         <v>1.5</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9820423620850866</v>
+        <v>0.9820424687847127</v>
       </c>
       <c r="I12" t="n">
-        <v>1.477917570031433</v>
+        <v>1.477917651182878</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.1070891289493407</v>
+        <v>-0.1070891290055972</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2162202544277478</v>
+        <v>0.2162202544245904</v>
       </c>
       <c r="L12" t="n">
-        <v>0.7283568278684126</v>
+        <v>0.7283568278478751</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2241780577038832</v>
+        <v>0.2241780577386283</v>
       </c>
       <c r="N12" t="n">
         <v>50.18181818181818</v>
@@ -1413,22 +1413,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.100427132754632</v>
+        <v>-0.1004271328184534</v>
       </c>
       <c r="S12" t="n">
-        <v>0.190053576941714</v>
+        <v>0.1900535769638997</v>
       </c>
       <c r="T12" t="n">
-        <v>0.7212452864429256</v>
+        <v>0.72124528642958</v>
       </c>
       <c r="U12" t="n">
-        <v>-2.482042362085087</v>
+        <v>-2.482042468784713</v>
       </c>
       <c r="V12" t="n">
-        <v>149.0704048992427</v>
+        <v>149.0704048992446</v>
       </c>
       <c r="W12" t="n">
-        <v>1.765232414251174</v>
+        <v>1.765232486673549</v>
       </c>
       <c r="X12" t="n">
         <v>150</v>
@@ -1448,37 +1448,37 @@
         <v>2642.539682539682</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9769698966491429</v>
+        <v>0.976969896649143</v>
       </c>
       <c r="D13" t="n">
         <v>6.900000000000007</v>
       </c>
       <c r="E13" t="n">
-        <v>148.1094431470542</v>
+        <v>148.1094431471088</v>
       </c>
       <c r="F13" t="n">
-        <v>6.960924754584971</v>
+        <v>6.960924232768805</v>
       </c>
       <c r="G13" t="n">
-        <v>6.883590571785827</v>
+        <v>6.8835898764683</v>
       </c>
       <c r="H13" t="n">
-        <v>0.07733418279914318</v>
+        <v>0.07733435630050418</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1102649745296713</v>
+        <v>0.1102651145275987</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.09456971639436265</v>
+        <v>-0.09456971636480317</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2474637105509601</v>
+        <v>0.2474637105907771</v>
       </c>
       <c r="L13" t="n">
-        <v>0.7303560472576388</v>
+        <v>0.7303560472982847</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.07672121970984069</v>
+        <v>-0.07672121992315528</v>
       </c>
       <c r="N13" t="n">
         <v>49.19047619047619</v>
@@ -1493,22 +1493,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.04648410055804224</v>
+        <v>-0.04648410051593706</v>
       </c>
       <c r="S13" t="n">
-        <v>0.2224560183678855</v>
+        <v>0.222456018437959</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7140886019285745</v>
+        <v>0.7140886019715884</v>
       </c>
       <c r="U13" t="n">
-        <v>-6.960924754584971</v>
+        <v>-6.960924232768805</v>
       </c>
       <c r="V13" t="n">
-        <v>148.1094431470542</v>
+        <v>148.1094431471088</v>
       </c>
       <c r="W13" t="n">
-        <v>0.1364844755383184</v>
+        <v>0.1364845747016104</v>
       </c>
       <c r="X13" t="n">
         <v>150</v>
@@ -1534,31 +1534,31 @@
         <v>11.90000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>149.0476525763267</v>
+        <v>149.0476525762481</v>
       </c>
       <c r="F14" t="n">
-        <v>12.34756151801951</v>
+        <v>12.34756151724115</v>
       </c>
       <c r="G14" t="n">
-        <v>12.29422759822129</v>
+        <v>12.29422759721204</v>
       </c>
       <c r="H14" t="n">
-        <v>0.05333391979822826</v>
+        <v>0.05333392002911043</v>
       </c>
       <c r="I14" t="n">
-        <v>0.08095242915209336</v>
+        <v>0.08095242931617062</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.1022317781746004</v>
+        <v>-0.1022317781951343</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2431191713011204</v>
+        <v>0.2431191713094643</v>
       </c>
       <c r="L14" t="n">
-        <v>0.7625910907422512</v>
+        <v>0.7625910907028962</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.05333043645893723</v>
+        <v>-0.05333043645922161</v>
       </c>
       <c r="N14" t="n">
         <v>50.18181818181818</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.03633340343655229</v>
+        <v>-0.03633340344954315</v>
       </c>
       <c r="S14" t="n">
-        <v>0.1612108336812009</v>
+        <v>0.1612108337244282</v>
       </c>
       <c r="T14" t="n">
-        <v>0.7357687739718431</v>
+        <v>0.7357687739331998</v>
       </c>
       <c r="U14" t="n">
-        <v>-12.34756151801951</v>
+        <v>-12.34756151724115</v>
       </c>
       <c r="V14" t="n">
-        <v>149.0476525763267</v>
+        <v>149.0476525762481</v>
       </c>
       <c r="W14" t="n">
-        <v>0.09669957834618721</v>
+        <v>0.09669957856845975</v>
       </c>
       <c r="X14" t="n">
         <v>150</v>
@@ -1614,31 +1614,31 @@
         <v>16.90000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>149.0165900210029</v>
+        <v>149.0165900209454</v>
       </c>
       <c r="F15" t="n">
-        <v>17.04378136129064</v>
+        <v>17.04379066423665</v>
       </c>
       <c r="G15" t="n">
-        <v>17.00708776609422</v>
+        <v>17.00709991497616</v>
       </c>
       <c r="H15" t="n">
-        <v>0.03669359519642566</v>
+        <v>0.03669074926048698</v>
       </c>
       <c r="I15" t="n">
-        <v>0.08205268147122793</v>
+        <v>0.08205086699211918</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.09440334472933837</v>
+        <v>-0.09440334464440353</v>
       </c>
       <c r="K15" t="n">
-        <v>0.223472412626351</v>
+        <v>0.2234724126275572</v>
       </c>
       <c r="L15" t="n">
-        <v>0.7768356579063863</v>
+        <v>0.7768356577831868</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.03668781707737109</v>
+        <v>-0.03668781393039545</v>
       </c>
       <c r="N15" t="n">
         <v>50.18181818181818</v>
@@ -1653,22 +1653,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.01487025370397576</v>
+        <v>0.0148702537011943</v>
       </c>
       <c r="S15" t="n">
-        <v>0.1175500582785811</v>
+        <v>0.1175500582333028</v>
       </c>
       <c r="T15" t="n">
-        <v>0.7482529007555746</v>
+        <v>0.7482529006406249</v>
       </c>
       <c r="U15" t="n">
-        <v>-17.04378136129064</v>
+        <v>-17.04379066423665</v>
       </c>
       <c r="V15" t="n">
-        <v>149.0165900210029</v>
+        <v>149.0165900209454</v>
       </c>
       <c r="W15" t="n">
-        <v>0.1024517392881149</v>
+        <v>0.1024487856650398</v>
       </c>
       <c r="X15" t="n">
         <v>150</v>
@@ -1694,31 +1694,31 @@
         <v>21.90000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>149.0392810483436</v>
+        <v>149.0392810483402</v>
       </c>
       <c r="F16" t="n">
-        <v>22.16988577407212</v>
+        <v>22.16988645642637</v>
       </c>
       <c r="G16" t="n">
-        <v>22.14348712706708</v>
+        <v>22.14348801756694</v>
       </c>
       <c r="H16" t="n">
-        <v>0.02639864700504083</v>
+        <v>0.02639843885943552</v>
       </c>
       <c r="I16" t="n">
-        <v>0.09369844385059167</v>
+        <v>0.09369842526575953</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.1199148809442027</v>
+        <v>-0.1199148809540121</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2144885755399772</v>
+        <v>0.21448857554916</v>
       </c>
       <c r="L16" t="n">
-        <v>0.7930349396083524</v>
+        <v>0.7930349396303075</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.02639793969452048</v>
+        <v>-0.02639793955115847</v>
       </c>
       <c r="N16" t="n">
         <v>50.18181818181818</v>
@@ -1733,22 +1733,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0.05771911810988081</v>
+        <v>0.05771911810580013</v>
       </c>
       <c r="S16" t="n">
-        <v>0.1147793518513714</v>
+        <v>0.1147793517957097</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7566718477772842</v>
+        <v>0.7566718478030113</v>
       </c>
       <c r="U16" t="n">
-        <v>-22.16988577407212</v>
+        <v>-22.16988645642637</v>
       </c>
       <c r="V16" t="n">
-        <v>149.0392810483436</v>
+        <v>149.0392810483402</v>
       </c>
       <c r="W16" t="n">
-        <v>0.1370911542842208</v>
+        <v>0.1370910873533422</v>
       </c>
       <c r="X16" t="n">
         <v>150</v>
@@ -1768,37 +1768,37 @@
         <v>3675.954545454545</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9814898069417913</v>
+        <v>0.9814898069417918</v>
       </c>
       <c r="D17" t="n">
         <v>26.90000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>149.1275755536081</v>
+        <v>149.1275755534606</v>
       </c>
       <c r="F17" t="n">
-        <v>27.87721249577322</v>
+        <v>27.877212494682</v>
       </c>
       <c r="G17" t="n">
-        <v>27.84518183438559</v>
+        <v>27.84518183297603</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0320306613876265</v>
+        <v>0.03203066170596772</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1157736226358986</v>
+        <v>0.1157736226642509</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.1342058894410347</v>
+        <v>-0.1342058892181891</v>
       </c>
       <c r="K17" t="n">
-        <v>0.2326162528847081</v>
+        <v>0.2326162530585525</v>
       </c>
       <c r="L17" t="n">
-        <v>0.7893068854699284</v>
+        <v>0.7893068853465033</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.03202975668745162</v>
+        <v>-0.03202975668749194</v>
       </c>
       <c r="N17" t="n">
         <v>50.18181818181818</v>
@@ -1813,22 +1813,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0.09722142972118346</v>
+        <v>0.09722142988580283</v>
       </c>
       <c r="S17" t="n">
-        <v>0.1211748746952738</v>
+        <v>0.1211748748320171</v>
       </c>
       <c r="T17" t="n">
-        <v>0.7359056795046556</v>
+        <v>0.7359056793792839</v>
       </c>
       <c r="U17" t="n">
-        <v>-27.87721249577322</v>
+        <v>-27.877212494682</v>
       </c>
       <c r="V17" t="n">
-        <v>149.1275755536081</v>
+        <v>149.1275755534606</v>
       </c>
       <c r="W17" t="n">
-        <v>0.1697684288411316</v>
+        <v>0.1697684288704619</v>
       </c>
       <c r="X17" t="n">
         <v>150</v>
@@ -1848,37 +1848,37 @@
         <v>3936.954545454545</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9741205122009921</v>
+        <v>0.9741205122009929</v>
       </c>
       <c r="D18" t="n">
         <v>31.90000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>149.1245503955639</v>
+        <v>149.1245503952668</v>
       </c>
       <c r="F18" t="n">
-        <v>32.69718445949572</v>
+        <v>32.69718445828426</v>
       </c>
       <c r="G18" t="n">
-        <v>32.63277172314477</v>
+        <v>32.63277172154561</v>
       </c>
       <c r="H18" t="n">
-        <v>0.06441273635094644</v>
+        <v>0.06441273673864752</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1428656229037265</v>
+        <v>0.1428656232074725</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.2008291303729948</v>
+        <v>-0.2008291303601908</v>
       </c>
       <c r="K18" t="n">
-        <v>0.2439977627398588</v>
+        <v>0.2439977625391572</v>
       </c>
       <c r="L18" t="n">
-        <v>0.8002736696111481</v>
+        <v>0.8002736691857963</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.06440904358083346</v>
+        <v>-0.06440904358094134</v>
       </c>
       <c r="N18" t="n">
         <v>50.18181818181818</v>
@@ -1893,22 +1893,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.05213689901251618</v>
+        <v>0.05213689905171662</v>
       </c>
       <c r="S18" t="n">
-        <v>0.1683637964326307</v>
+        <v>0.1683637960905953</v>
       </c>
       <c r="T18" t="n">
-        <v>0.7400679998510928</v>
+        <v>0.7400679993785387</v>
       </c>
       <c r="U18" t="n">
-        <v>-32.69718445949572</v>
+        <v>-32.69718445828426</v>
       </c>
       <c r="V18" t="n">
-        <v>149.1245503955639</v>
+        <v>149.1245503952668</v>
       </c>
       <c r="W18" t="n">
-        <v>0.1757876887103915</v>
+        <v>0.1757876889982048</v>
       </c>
       <c r="X18" t="n">
         <v>150</v>
@@ -1928,37 +1928,37 @@
         <v>4197.954545454545</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9630893707370028</v>
+        <v>0.9630893707370036</v>
       </c>
       <c r="D19" t="n">
         <v>36.90000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>149.0786375609828</v>
+        <v>149.0786375618914</v>
       </c>
       <c r="F19" t="n">
-        <v>37.73367039265472</v>
+        <v>37.73366916633602</v>
       </c>
       <c r="G19" t="n">
-        <v>37.69291482618024</v>
+        <v>37.69291322976678</v>
       </c>
       <c r="H19" t="n">
-        <v>0.04075556647446761</v>
+        <v>0.04075593656924598</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1706825501349961</v>
+        <v>0.170682716549108</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.189879822058369</v>
+        <v>-0.1898798220463509</v>
       </c>
       <c r="K19" t="n">
-        <v>0.226735137715629</v>
+        <v>0.2267351384825609</v>
       </c>
       <c r="L19" t="n">
-        <v>0.7783510026658382</v>
+        <v>0.7783510035557729</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.0407495632894125</v>
+        <v>-0.04074956325718939</v>
       </c>
       <c r="N19" t="n">
         <v>50.18181818181818</v>
@@ -1973,22 +1973,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0.1035494759146129</v>
+        <v>0.1035494758878315</v>
       </c>
       <c r="S19" t="n">
-        <v>0.1350518105544395</v>
+        <v>0.135051811512786</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7201215400101655</v>
+        <v>0.720121541053833</v>
       </c>
       <c r="U19" t="n">
-        <v>-37.73367039265472</v>
+        <v>-37.73366916633602</v>
       </c>
       <c r="V19" t="n">
-        <v>149.0786375609828</v>
+        <v>149.0786375618914</v>
       </c>
       <c r="W19" t="n">
-        <v>0.218740964417885</v>
+        <v>0.2187411329553209</v>
       </c>
       <c r="X19" t="n">
         <v>150</v>
@@ -2008,37 +2008,37 @@
         <v>4458.954545454545</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9481543443077085</v>
+        <v>0.9481543443077066</v>
       </c>
       <c r="D20" t="n">
         <v>41.90000000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>149.0351192885439</v>
+        <v>149.0351192884869</v>
       </c>
       <c r="F20" t="n">
-        <v>42.56668630025721</v>
+        <v>42.56668629148376</v>
       </c>
       <c r="G20" t="n">
-        <v>42.43896635786599</v>
+        <v>42.43896634641209</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1277199423912214</v>
+        <v>0.1277199450716796</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2364848094312435</v>
+        <v>0.2364848116116219</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.1985831070906952</v>
+        <v>-0.198583107265782</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2300517293598884</v>
+        <v>0.2300517292966105</v>
       </c>
       <c r="L20" t="n">
-        <v>0.7982418210657817</v>
+        <v>0.7982418210137721</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.127711262134264</v>
+        <v>-0.1277112621338363</v>
       </c>
       <c r="N20" t="n">
         <v>50.18181818181818</v>
@@ -2053,22 +2053,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0.03837164950466971</v>
+        <v>0.03837164930405078</v>
       </c>
       <c r="S20" t="n">
-        <v>-0.00363593630199666</v>
+        <v>-0.003635936595128263</v>
       </c>
       <c r="T20" t="n">
-        <v>0.738817401234215</v>
+        <v>0.7388174011362735</v>
       </c>
       <c r="U20" t="n">
-        <v>-42.56668630025721</v>
+        <v>-42.56668629148376</v>
       </c>
       <c r="V20" t="n">
-        <v>149.0351192885439</v>
+        <v>149.0351192884869</v>
       </c>
       <c r="W20" t="n">
-        <v>0.2956531634361334</v>
+        <v>0.2956531657678652</v>
       </c>
       <c r="X20" t="n">
         <v>150</v>
@@ -2088,37 +2088,37 @@
         <v>4718.954545454545</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9172692916494711</v>
+        <v>0.917269291649472</v>
       </c>
       <c r="D21" t="n">
         <v>46.90000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>149.055281507563</v>
+        <v>149.0552815075829</v>
       </c>
       <c r="F21" t="n">
-        <v>47.82946003424986</v>
+        <v>47.8294684948191</v>
       </c>
       <c r="G21" t="n">
-        <v>47.73905463312075</v>
+        <v>47.73906567743065</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0904054011291124</v>
+        <v>0.09040281738845113</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3522987854969729</v>
+        <v>0.3522981827270814</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.1462044220102819</v>
+        <v>-0.1462044218581625</v>
       </c>
       <c r="K21" t="n">
-        <v>0.234703103641923</v>
+        <v>0.2347031037578319</v>
       </c>
       <c r="L21" t="n">
-        <v>0.7153931983338855</v>
+        <v>0.7153931983250897</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.09100877167205651</v>
+        <v>-0.09100877024437688</v>
       </c>
       <c r="N21" t="n">
         <v>50.18181818181818</v>
@@ -2133,22 +2133,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1677992863376429</v>
+        <v>0.167799286532618</v>
       </c>
       <c r="S21" t="n">
-        <v>0.09358048518031555</v>
+        <v>0.09358048535547038</v>
       </c>
       <c r="T21" t="n">
-        <v>0.6796184807114317</v>
+        <v>0.6796184808436434</v>
       </c>
       <c r="U21" t="n">
-        <v>-47.82946003424986</v>
+        <v>-47.8294684948191</v>
       </c>
       <c r="V21" t="n">
-        <v>149.055281507563</v>
+        <v>149.0552815075829</v>
       </c>
       <c r="W21" t="n">
-        <v>0.4407295897689664</v>
+        <v>0.4407290504418727</v>
       </c>
       <c r="X21" t="n">
         <v>150</v>
@@ -2168,37 +2168,37 @@
         <v>4979.954545454545</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8666223389210832</v>
+        <v>0.8666223389210791</v>
       </c>
       <c r="D22" t="n">
         <v>51.90000000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>149.0238187768177</v>
+        <v>149.0238187767136</v>
       </c>
       <c r="F22" t="n">
-        <v>53.3434227240888</v>
+        <v>53.34342316434687</v>
       </c>
       <c r="G22" t="n">
-        <v>53.27214888613017</v>
+        <v>53.27214946097494</v>
       </c>
       <c r="H22" t="n">
-        <v>0.07127383795863831</v>
+        <v>0.0712737033719323</v>
       </c>
       <c r="I22" t="n">
-        <v>0.4929081347536503</v>
+        <v>0.4929080321818752</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.1041000703533154</v>
+        <v>-0.1041000702259219</v>
       </c>
       <c r="K22" t="n">
-        <v>0.2177301749829055</v>
+        <v>0.2177301749797791</v>
       </c>
       <c r="L22" t="n">
-        <v>0.691842768946842</v>
+        <v>0.6918427690729924</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.07125411941658094</v>
+        <v>-0.07125411929200041</v>
       </c>
       <c r="N22" t="n">
         <v>50.18181818181818</v>
@@ -2213,22 +2213,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0.2173104455783979</v>
+        <v>0.2173104457601418</v>
       </c>
       <c r="S22" t="n">
-        <v>0.009400719509593298</v>
+        <v>0.009400719549859542</v>
       </c>
       <c r="T22" t="n">
-        <v>0.6744837673802331</v>
+        <v>0.6744837678128374</v>
       </c>
       <c r="U22" t="n">
-        <v>-53.3434227240888</v>
+        <v>-53.34342316434687</v>
       </c>
       <c r="V22" t="n">
-        <v>149.0238187768177</v>
+        <v>149.0238187767136</v>
       </c>
       <c r="W22" t="n">
-        <v>0.5987606662360326</v>
+        <v>0.5987605897204263</v>
       </c>
       <c r="X22" t="n">
         <v>150</v>
@@ -2248,37 +2248,37 @@
         <v>129.9333333333333</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8915527531498194</v>
+        <v>0.8915527531498173</v>
       </c>
       <c r="D23" t="n">
         <v>-48.09999999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>308.5870349754085</v>
+        <v>308.5870349755199</v>
       </c>
       <c r="F23" t="n">
-        <v>-47.83553916868836</v>
+        <v>-47.83552901861364</v>
       </c>
       <c r="G23" t="n">
-        <v>-47.80829537787529</v>
+        <v>-47.8082832843972</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.02724379081306978</v>
+        <v>-0.02724573421644199</v>
       </c>
       <c r="I23" t="n">
-        <v>0.5377375079515699</v>
+        <v>0.5377379983132534</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.01968942657454346</v>
+        <v>-0.01968942654435929</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.03130480276944828</v>
+        <v>-0.03130480294768187</v>
       </c>
       <c r="L23" t="n">
-        <v>0.6496056904772715</v>
+        <v>0.6496056905199324</v>
       </c>
       <c r="M23" t="n">
-        <v>0.02721588105447582</v>
+        <v>0.02721587939932141</v>
       </c>
       <c r="N23" t="n">
         <v>50.71111111111111</v>
@@ -2293,22 +2293,22 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0.2792388843211533</v>
+        <v>0.2792388841582177</v>
       </c>
       <c r="S23" t="n">
-        <v>0.8133930973973159</v>
+        <v>0.8133930971993956</v>
       </c>
       <c r="T23" t="n">
-        <v>1.057868326381873</v>
+        <v>1.057868326277907</v>
       </c>
       <c r="U23" t="n">
-        <v>47.83553916868836</v>
+        <v>47.83552901861364</v>
       </c>
       <c r="V23" t="n">
-        <v>308.5870349754085</v>
+        <v>308.5870349755199</v>
       </c>
       <c r="W23" t="n">
-        <v>0.6448788723482753</v>
+        <v>0.6448802143103912</v>
       </c>
       <c r="X23" t="n">
         <v>300</v>
@@ -2328,37 +2328,37 @@
         <v>390.3037037037037</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9252411134718925</v>
+        <v>0.9252411134718892</v>
       </c>
       <c r="D24" t="n">
         <v>-43.09999999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>308.566934973452</v>
+        <v>308.566934973798</v>
       </c>
       <c r="F24" t="n">
-        <v>-43.11210309558792</v>
+        <v>-43.1121031558302</v>
       </c>
       <c r="G24" t="n">
-        <v>-43.14635803198964</v>
+        <v>-43.1463581034952</v>
       </c>
       <c r="H24" t="n">
-        <v>0.03425493640172197</v>
+        <v>0.03425494766499986</v>
       </c>
       <c r="I24" t="n">
-        <v>0.4179406078237342</v>
+        <v>0.4179406057507558</v>
       </c>
       <c r="J24" t="n">
-        <v>0.01139141230635959</v>
+        <v>0.01139141244427804</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.03733178149999966</v>
+        <v>-0.03733178144244365</v>
       </c>
       <c r="L24" t="n">
-        <v>0.6241590930517921</v>
+        <v>0.6241590930440697</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.03430390960899119</v>
+        <v>-0.03430390960494084</v>
       </c>
       <c r="N24" t="n">
         <v>50.71111111111111</v>
@@ -2373,22 +2373,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.2123049574610046</v>
+        <v>0.2123049574662804</v>
       </c>
       <c r="S24" t="n">
-        <v>0.7747577569464237</v>
+        <v>0.7747577571532959</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9829481230368516</v>
+        <v>0.9829481232025395</v>
       </c>
       <c r="U24" t="n">
-        <v>43.11210309558792</v>
+        <v>43.1121031558302</v>
       </c>
       <c r="V24" t="n">
-        <v>308.566934973452</v>
+        <v>308.566934973798</v>
       </c>
       <c r="W24" t="n">
-        <v>0.5453481871534356</v>
+        <v>0.5453481853978954</v>
       </c>
       <c r="X24" t="n">
         <v>300</v>
@@ -2408,37 +2408,37 @@
         <v>649.9333333333333</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9509430623369415</v>
+        <v>0.9509430623369406</v>
       </c>
       <c r="D25" t="n">
         <v>-38.09999999999999</v>
       </c>
       <c r="E25" t="n">
-        <v>308.5865516449453</v>
+        <v>308.5865516447028</v>
       </c>
       <c r="F25" t="n">
-        <v>-37.66980744863207</v>
+        <v>-37.66980884196366</v>
       </c>
       <c r="G25" t="n">
-        <v>-37.68518843851261</v>
+        <v>-37.68519009447498</v>
       </c>
       <c r="H25" t="n">
-        <v>0.01538098988053769</v>
+        <v>0.01538125251130985</v>
       </c>
       <c r="I25" t="n">
-        <v>0.3536492745663722</v>
+        <v>0.3536492225031188</v>
       </c>
       <c r="J25" t="n">
-        <v>0.01642188370243081</v>
+        <v>0.01642188354206911</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.05437846862862538</v>
+        <v>-0.05437846811797163</v>
       </c>
       <c r="L25" t="n">
-        <v>0.5641088687547346</v>
+        <v>0.5641088684991249</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.01538116035505479</v>
+        <v>-0.01538116021762851</v>
       </c>
       <c r="N25" t="n">
         <v>50.71111111111111</v>
@@ -2453,22 +2453,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0.1744611236612155</v>
+        <v>0.1744611235838579</v>
       </c>
       <c r="S25" t="n">
-        <v>0.6752406794759052</v>
+        <v>0.6752406792279603</v>
       </c>
       <c r="T25" t="n">
-        <v>0.860556540674096</v>
+        <v>0.8605565403849127</v>
       </c>
       <c r="U25" t="n">
-        <v>37.66980744863207</v>
+        <v>37.66980884196366</v>
       </c>
       <c r="V25" t="n">
-        <v>308.5865516449453</v>
+        <v>308.5865516447028</v>
       </c>
       <c r="W25" t="n">
-        <v>0.4424723216546265</v>
+        <v>0.4424721665375829</v>
       </c>
       <c r="X25" t="n">
         <v>300</v>
@@ -2488,37 +2488,37 @@
         <v>910.9333333333333</v>
       </c>
       <c r="C26" t="n">
-        <v>0.965523086910847</v>
+        <v>0.9655230869108474</v>
       </c>
       <c r="D26" t="n">
         <v>-33.09999999999999</v>
       </c>
       <c r="E26" t="n">
-        <v>308.5963950709055</v>
+        <v>308.5963950708129</v>
       </c>
       <c r="F26" t="n">
-        <v>-32.9810336431971</v>
+        <v>-32.98103364079348</v>
       </c>
       <c r="G26" t="n">
-        <v>-32.98388033521916</v>
+        <v>-32.98388033237012</v>
       </c>
       <c r="H26" t="n">
-        <v>0.00284669202205758</v>
+        <v>0.002846691576642025</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2088194510249054</v>
+        <v>0.2088194504871399</v>
       </c>
       <c r="J26" t="n">
-        <v>0.01937061955836841</v>
+        <v>0.01937061965319966</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.05955406925698649</v>
+        <v>-0.05955406952792223</v>
       </c>
       <c r="L26" t="n">
-        <v>0.6041537953523147</v>
+        <v>0.604153795173306</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.002834460906606432</v>
+        <v>-0.002834460907123972</v>
       </c>
       <c r="N26" t="n">
         <v>50.71111111111111</v>
@@ -2533,22 +2533,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0.1362081080617889</v>
+        <v>0.1362081082606462</v>
       </c>
       <c r="S26" t="n">
-        <v>0.6044301929713064</v>
+        <v>0.6044301928061203</v>
       </c>
       <c r="T26" t="n">
-        <v>0.8308825954281671</v>
+        <v>0.8308825953910578</v>
       </c>
       <c r="U26" t="n">
-        <v>32.9810336431971</v>
+        <v>32.98103364079348</v>
       </c>
       <c r="V26" t="n">
-        <v>308.5963950709055</v>
+        <v>308.5963950708129</v>
       </c>
       <c r="W26" t="n">
-        <v>0.2618030050494388</v>
+        <v>0.2618030048444576</v>
       </c>
       <c r="X26" t="n">
         <v>300</v>
@@ -2568,37 +2568,37 @@
         <v>1171.933333333333</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9762366841143045</v>
+        <v>0.9762366841143043</v>
       </c>
       <c r="D27" t="n">
         <v>-28.09999999999999</v>
       </c>
       <c r="E27" t="n">
-        <v>308.603319693015</v>
+        <v>308.6033196927368</v>
       </c>
       <c r="F27" t="n">
-        <v>-28.41338927328762</v>
+        <v>-28.41338927432961</v>
       </c>
       <c r="G27" t="n">
-        <v>-28.40995576350307</v>
+        <v>-28.40995576474833</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.003433509784547558</v>
+        <v>-0.003433509581281624</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1906264455263151</v>
+        <v>0.1906264455395008</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.0003911519083184574</v>
+        <v>-0.0003911520174074989</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.03753208181759451</v>
+        <v>-0.03753208180937095</v>
       </c>
       <c r="L27" t="n">
-        <v>0.6266705601286047</v>
+        <v>0.6266705601945419</v>
       </c>
       <c r="M27" t="n">
-        <v>0.003430576971181273</v>
+        <v>0.003430576971325572</v>
       </c>
       <c r="N27" t="n">
         <v>50.71111111111111</v>
@@ -2613,22 +2613,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.03783047052735271</v>
+        <v>0.03783047047896781</v>
       </c>
       <c r="S27" t="n">
-        <v>0.5296319382795687</v>
+        <v>0.5296319383965096</v>
       </c>
       <c r="T27" t="n">
-        <v>0.7822676380286224</v>
+        <v>0.78226763793473</v>
       </c>
       <c r="U27" t="n">
-        <v>28.41338927328762</v>
+        <v>28.41338927432961</v>
       </c>
       <c r="V27" t="n">
-        <v>308.603319693015</v>
+        <v>308.6033196927368</v>
       </c>
       <c r="W27" t="n">
-        <v>0.2277452622521138</v>
+        <v>0.2277452622668796</v>
       </c>
       <c r="X27" t="n">
         <v>300</v>
@@ -2654,31 +2654,31 @@
         <v>-23.09999999999999</v>
       </c>
       <c r="E28" t="n">
-        <v>308.582416687432</v>
+        <v>308.5824166875241</v>
       </c>
       <c r="F28" t="n">
-        <v>-22.86893332185918</v>
+        <v>-22.8689334180196</v>
       </c>
       <c r="G28" t="n">
-        <v>-22.86769729371632</v>
+        <v>-22.86769740813532</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.00123602814286354</v>
+        <v>-0.001236009884281152</v>
       </c>
       <c r="I28" t="n">
-        <v>0.1816995362112795</v>
+        <v>0.1816995472624588</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.02103885846325134</v>
+        <v>-0.02103885844559567</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.008167488222515513</v>
+        <v>-0.008167488190984515</v>
       </c>
       <c r="L28" t="n">
-        <v>0.6118305471545179</v>
+        <v>0.6118305468261888</v>
       </c>
       <c r="M28" t="n">
-        <v>0.001240959694467428</v>
+        <v>0.00124095970415281</v>
       </c>
       <c r="N28" t="n">
         <v>50.71111111111111</v>
@@ -2693,22 +2693,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0.001602189297038641</v>
+        <v>0.001602189288649924</v>
       </c>
       <c r="S28" t="n">
-        <v>0.3918875943852598</v>
+        <v>0.3918875944745887</v>
       </c>
       <c r="T28" t="n">
-        <v>0.705145732692032</v>
+        <v>0.7051457326032298</v>
       </c>
       <c r="U28" t="n">
-        <v>22.86893332185918</v>
+        <v>22.8689334180196</v>
       </c>
       <c r="V28" t="n">
-        <v>308.582416687432</v>
+        <v>308.5824166875241</v>
       </c>
       <c r="W28" t="n">
-        <v>0.2359350193523495</v>
+        <v>0.2359350356128134</v>
       </c>
       <c r="X28" t="n">
         <v>300</v>
@@ -2734,31 +2734,31 @@
         <v>-18.09999999999999</v>
       </c>
       <c r="E29" t="n">
-        <v>310.7649334864943</v>
+        <v>310.7649334863275</v>
       </c>
       <c r="F29" t="n">
-        <v>-18.23237269342308</v>
+        <v>-18.2323726920757</v>
       </c>
       <c r="G29" t="n">
-        <v>-18.20520397000869</v>
+        <v>-18.20520396847115</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.02716872341439655</v>
+        <v>-0.02716872360454955</v>
       </c>
       <c r="I29" t="n">
-        <v>0.2533307872136041</v>
+        <v>0.2533307872977475</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.006954880507028856</v>
+        <v>-0.006954880479420058</v>
       </c>
       <c r="K29" t="n">
-        <v>0.01288724664755663</v>
+        <v>0.01288724663113982</v>
       </c>
       <c r="L29" t="n">
-        <v>0.5905286377510113</v>
+        <v>0.5905286377060392</v>
       </c>
       <c r="M29" t="n">
-        <v>0.02735741987157114</v>
+        <v>0.02735741987160692</v>
       </c>
       <c r="N29" t="n">
         <v>51.734375</v>
@@ -2773,22 +2773,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>-0.01090728358809334</v>
+        <v>-0.0109072835500278</v>
       </c>
       <c r="S29" t="n">
-        <v>0.2171230966098038</v>
+        <v>0.2171230965544685</v>
       </c>
       <c r="T29" t="n">
-        <v>0.6168522809948344</v>
+        <v>0.6168522809070054</v>
       </c>
       <c r="U29" t="n">
-        <v>18.23237269342308</v>
+        <v>18.2323726920757</v>
       </c>
       <c r="V29" t="n">
-        <v>310.7649334864943</v>
+        <v>310.7649334863275</v>
       </c>
       <c r="W29" t="n">
-        <v>0.3353541257875995</v>
+        <v>0.3353541256129964</v>
       </c>
       <c r="X29" t="n">
         <v>300</v>
@@ -2814,31 +2814,31 @@
         <v>-13.09999999999999</v>
       </c>
       <c r="E30" t="n">
-        <v>314.1591880294431</v>
+        <v>314.1591880295448</v>
       </c>
       <c r="F30" t="n">
-        <v>-13.60102436369881</v>
+        <v>-13.60102462842354</v>
       </c>
       <c r="G30" t="n">
-        <v>-13.53538203551962</v>
+        <v>-13.53538230868667</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.06564232817918615</v>
+        <v>-0.06564231973687043</v>
       </c>
       <c r="I30" t="n">
-        <v>0.2650995436307577</v>
+        <v>0.2650995271327111</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.02446361442725084</v>
+        <v>-0.02446361446491918</v>
       </c>
       <c r="K30" t="n">
-        <v>0.001686902366886217</v>
+        <v>0.001686902362736214</v>
       </c>
       <c r="L30" t="n">
-        <v>0.6242913004243965</v>
+        <v>0.6242913004359845</v>
       </c>
       <c r="M30" t="n">
-        <v>0.06294138833206402</v>
+        <v>0.0629413883483517</v>
       </c>
       <c r="N30" t="n">
         <v>50.61224489795919</v>
@@ -2853,22 +2853,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>-0.009012679304701079</v>
+        <v>-0.009012679360489275</v>
       </c>
       <c r="S30" t="n">
-        <v>0.2171484407633926</v>
+        <v>0.217148440749037</v>
       </c>
       <c r="T30" t="n">
-        <v>0.6440448959025536</v>
+        <v>0.6440448958906004</v>
       </c>
       <c r="U30" t="n">
-        <v>13.60102436369881</v>
+        <v>13.60102462842354</v>
       </c>
       <c r="V30" t="n">
-        <v>314.1591880294431</v>
+        <v>314.1591880295448</v>
       </c>
       <c r="W30" t="n">
-        <v>0.3729404783296402</v>
+        <v>0.3729404825725992</v>
       </c>
       <c r="X30" t="n">
         <v>300</v>
@@ -2894,31 +2894,31 @@
         <v>-8.099999999999994</v>
       </c>
       <c r="E31" t="n">
-        <v>313.8355989617435</v>
+        <v>313.8355989618049</v>
       </c>
       <c r="F31" t="n">
-        <v>-8.414478785766546</v>
+        <v>-8.414479740836576</v>
       </c>
       <c r="G31" t="n">
-        <v>-8.412366102243347</v>
+        <v>-8.412366981061535</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.002112683523199517</v>
+        <v>-0.002112759775041384</v>
       </c>
       <c r="I31" t="n">
-        <v>0.1599229300598305</v>
+        <v>0.1599228124655617</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.09383592536095274</v>
+        <v>-0.0938359254132435</v>
       </c>
       <c r="K31" t="n">
-        <v>0.004546449481091406</v>
+        <v>0.004546449440668824</v>
       </c>
       <c r="L31" t="n">
-        <v>0.5702434324868967</v>
+        <v>0.5702434324711756</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.003208353807178519</v>
+        <v>-0.00320835364421175</v>
       </c>
       <c r="N31" t="n">
         <v>52.9054054054054</v>
@@ -2933,22 +2933,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>-0.1050245998494966</v>
+        <v>-0.105024599901208</v>
       </c>
       <c r="S31" t="n">
-        <v>0.09069748724005158</v>
+        <v>0.09069748716386258</v>
       </c>
       <c r="T31" t="n">
-        <v>0.576079119668616</v>
+        <v>0.5760791196475159</v>
       </c>
       <c r="U31" t="n">
-        <v>8.414478785766546</v>
+        <v>8.414479740836576</v>
       </c>
       <c r="V31" t="n">
-        <v>313.8355989617435</v>
+        <v>313.8355989618049</v>
       </c>
       <c r="W31" t="n">
-        <v>0.2118740748143827</v>
+        <v>0.2118739217851475</v>
       </c>
       <c r="X31" t="n">
         <v>300</v>
@@ -2974,31 +2974,31 @@
         <v>-3.099999999999994</v>
       </c>
       <c r="E32" t="n">
-        <v>299.4965286255649</v>
+        <v>299.4965286255546</v>
       </c>
       <c r="F32" t="n">
-        <v>-4.28885978638748</v>
+        <v>-4.288859783716774</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.162115875665233</v>
+        <v>-4.162115872956935</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.1267439107222477</v>
+        <v>-0.1267439107598382</v>
       </c>
       <c r="I32" t="n">
-        <v>0.1975957909250604</v>
+        <v>0.1975957911195989</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.1652317745155282</v>
+        <v>-0.1652317745151131</v>
       </c>
       <c r="K32" t="n">
-        <v>0.07591751717598588</v>
+        <v>0.075917517175948</v>
       </c>
       <c r="L32" t="n">
-        <v>0.5378698327802816</v>
+        <v>0.5378698327701095</v>
       </c>
       <c r="M32" t="n">
-        <v>0.1269059393443591</v>
+        <v>0.1269059393440277</v>
       </c>
       <c r="N32" t="n">
         <v>63.72727272727273</v>
@@ -3013,22 +3013,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>-0.0681297482744488</v>
+        <v>-0.06812974828781992</v>
       </c>
       <c r="S32" t="n">
-        <v>0.03553526465217838</v>
+        <v>0.03553526464120761</v>
       </c>
       <c r="T32" t="n">
-        <v>0.527182684671343</v>
+        <v>0.5271826846611449</v>
       </c>
       <c r="U32" t="n">
-        <v>4.28885978638748</v>
+        <v>4.288859783716774</v>
       </c>
       <c r="V32" t="n">
-        <v>299.4965286255649</v>
+        <v>299.4965286255546</v>
       </c>
       <c r="W32" t="n">
-        <v>0.2481053032670055</v>
+        <v>0.2481053034062696</v>
       </c>
       <c r="X32" t="n">
         <v>300</v>
@@ -3048,37 +3048,37 @@
         <v>2381.216417910448</v>
       </c>
       <c r="C33" t="n">
-        <v>0.960868583216832</v>
+        <v>0.9608685832168322</v>
       </c>
       <c r="D33" t="n">
         <v>1.900000000000006</v>
       </c>
       <c r="E33" t="n">
-        <v>308.4510535483328</v>
+        <v>308.4510535483271</v>
       </c>
       <c r="F33" t="n">
-        <v>2.75149038269559</v>
+        <v>2.751490500335121</v>
       </c>
       <c r="G33" t="n">
         <v>1.5</v>
       </c>
       <c r="H33" t="n">
-        <v>1.25149038269559</v>
+        <v>1.251490500335121</v>
       </c>
       <c r="I33" t="n">
-        <v>1.565798090779163</v>
+        <v>1.565798176289123</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.02821347552067701</v>
+        <v>-0.02821347548377693</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.04620885177328782</v>
+        <v>-0.04620885176671339</v>
       </c>
       <c r="L33" t="n">
-        <v>0.5784605416384931</v>
+        <v>0.578460541652967</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.0527128533456977</v>
+        <v>-0.05271285337399748</v>
       </c>
       <c r="N33" t="n">
         <v>50.91044776119403</v>
@@ -3093,22 +3093,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>-0.02193302935701864</v>
+        <v>-0.02193302933035791</v>
       </c>
       <c r="S33" t="n">
-        <v>-0.0746192718943529</v>
+        <v>-0.07461927186451885</v>
       </c>
       <c r="T33" t="n">
-        <v>0.5811663043924847</v>
+        <v>0.5811663044016325</v>
       </c>
       <c r="U33" t="n">
-        <v>-2.75149038269559</v>
+        <v>-2.751490500335121</v>
       </c>
       <c r="V33" t="n">
-        <v>308.4510535483328</v>
+        <v>308.4510535483271</v>
       </c>
       <c r="W33" t="n">
-        <v>1.746506551038297</v>
+        <v>1.746506626669227</v>
       </c>
       <c r="X33" t="n">
         <v>300</v>
@@ -3128,37 +3128,37 @@
         <v>2634.104838709678</v>
       </c>
       <c r="C34" t="n">
-        <v>0.977918628426039</v>
+        <v>0.9779186284260392</v>
       </c>
       <c r="D34" t="n">
         <v>6.900000000000006</v>
       </c>
       <c r="E34" t="n">
-        <v>312.2934600676163</v>
+        <v>312.2934600676149</v>
       </c>
       <c r="F34" t="n">
-        <v>6.880317124349476</v>
+        <v>6.880316549770694</v>
       </c>
       <c r="G34" t="n">
-        <v>6.883590571785827</v>
+        <v>6.8835898764683</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.003273447436351926</v>
+        <v>-0.003273326697606147</v>
       </c>
       <c r="I34" t="n">
-        <v>0.1147070613313741</v>
+        <v>0.1147072020334342</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.03829853951869704</v>
+        <v>-0.03829853953117886</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.06380816785049701</v>
+        <v>-0.06380816787675116</v>
       </c>
       <c r="L34" t="n">
-        <v>0.5831479590439912</v>
+        <v>0.5831479590707808</v>
       </c>
       <c r="M34" t="n">
-        <v>0.004076631469088805</v>
+        <v>0.004076631662107607</v>
       </c>
       <c r="N34" t="n">
         <v>49.69354838709678</v>
@@ -3173,22 +3173,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0.008842451143946491</v>
+        <v>0.008842451143570356</v>
       </c>
       <c r="S34" t="n">
-        <v>-0.09207255212944644</v>
+        <v>-0.09207255212591223</v>
       </c>
       <c r="T34" t="n">
-        <v>0.5853859901286663</v>
+        <v>0.5853859901504014</v>
       </c>
       <c r="U34" t="n">
-        <v>-6.880317124349476</v>
+        <v>-6.880316549770694</v>
       </c>
       <c r="V34" t="n">
-        <v>312.2934600676163</v>
+        <v>312.2934600676149</v>
       </c>
       <c r="W34" t="n">
-        <v>0.1665375100588703</v>
+        <v>0.166537563546051</v>
       </c>
       <c r="X34" t="n">
         <v>300</v>
@@ -3214,31 +3214,31 @@
         <v>11.90000000000001</v>
       </c>
       <c r="E35" t="n">
-        <v>310.1874683268438</v>
+        <v>310.1874683268499</v>
       </c>
       <c r="F35" t="n">
-        <v>12.30035640600028</v>
+        <v>12.30035640516434</v>
       </c>
       <c r="G35" t="n">
-        <v>12.29422759822129</v>
+        <v>12.29422759721204</v>
       </c>
       <c r="H35" t="n">
-        <v>0.006128807778991243</v>
+        <v>0.006128807952300852</v>
       </c>
       <c r="I35" t="n">
-        <v>0.08507383298747367</v>
+        <v>0.08507383303953715</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.03072934972777604</v>
+        <v>-0.03072934971998623</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.05527003636107172</v>
+        <v>-0.05527003633769314</v>
       </c>
       <c r="L35" t="n">
-        <v>0.6115710251882772</v>
+        <v>0.6115710252516438</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.006128021600120674</v>
+        <v>-0.006128021599864367</v>
       </c>
       <c r="N35" t="n">
         <v>50.13636363636363</v>
@@ -3253,22 +3253,22 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0.03369946319531019</v>
+        <v>0.03369946321104828</v>
       </c>
       <c r="S35" t="n">
-        <v>-0.1408081407289224</v>
+        <v>-0.1408081406696236</v>
       </c>
       <c r="T35" t="n">
-        <v>0.6222246032363916</v>
+        <v>0.6222246032825177</v>
       </c>
       <c r="U35" t="n">
-        <v>-12.30035640600028</v>
+        <v>-12.30035640516434</v>
       </c>
       <c r="V35" t="n">
-        <v>310.1874683268438</v>
+        <v>310.1874683268499</v>
       </c>
       <c r="W35" t="n">
-        <v>0.1212018160504837</v>
+        <v>0.1212018160965221</v>
       </c>
       <c r="X35" t="n">
         <v>300</v>
@@ -3288,37 +3288,37 @@
         <v>3146.933333333333</v>
       </c>
       <c r="C36" t="n">
-        <v>0.9895338483409106</v>
+        <v>0.9895338483409108</v>
       </c>
       <c r="D36" t="n">
         <v>16.90000000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>308.4777068871762</v>
+        <v>308.4777068872494</v>
       </c>
       <c r="F36" t="n">
-        <v>17.0177247822425</v>
+        <v>17.01773499862643</v>
       </c>
       <c r="G36" t="n">
-        <v>17.00708776609422</v>
+        <v>17.00709991497616</v>
       </c>
       <c r="H36" t="n">
-        <v>0.01063701614828274</v>
+        <v>0.01063508365027193</v>
       </c>
       <c r="I36" t="n">
-        <v>0.08718914138909913</v>
+        <v>0.08718838961018147</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.02882570230682657</v>
+        <v>-0.02882570231125035</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.03621873162657402</v>
+        <v>-0.03621873160296595</v>
       </c>
       <c r="L36" t="n">
-        <v>0.5998263283274182</v>
+        <v>0.599826328237507</v>
       </c>
       <c r="M36" t="n">
-        <v>-0.01063542047198356</v>
+        <v>-0.01063542262032108</v>
       </c>
       <c r="N36" t="n">
         <v>50.71111111111111</v>
@@ -3333,22 +3333,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.07901076983176351</v>
+        <v>0.0790107697395338</v>
       </c>
       <c r="S36" t="n">
-        <v>-0.1471187760006927</v>
+        <v>-0.1471187760235067</v>
       </c>
       <c r="T36" t="n">
-        <v>0.6148595753491262</v>
+        <v>0.6148595752722802</v>
       </c>
       <c r="U36" t="n">
-        <v>-17.0177247822425</v>
+        <v>-17.01773499862643</v>
       </c>
       <c r="V36" t="n">
-        <v>308.4777068871762</v>
+        <v>308.4777068872494</v>
       </c>
       <c r="W36" t="n">
-        <v>0.1245643602607399</v>
+        <v>0.1245639175984641</v>
       </c>
       <c r="X36" t="n">
         <v>300</v>
@@ -3368,37 +3368,37 @@
         <v>3407.933333333333</v>
       </c>
       <c r="C37" t="n">
-        <v>0.9865147083627424</v>
+        <v>0.9865147083627426</v>
       </c>
       <c r="D37" t="n">
         <v>21.90000000000001</v>
       </c>
       <c r="E37" t="n">
-        <v>308.5057142367244</v>
+        <v>308.5057142366175</v>
       </c>
       <c r="F37" t="n">
-        <v>22.15030849153189</v>
+        <v>22.15030924063803</v>
       </c>
       <c r="G37" t="n">
-        <v>22.14348712706708</v>
+        <v>22.14348801756694</v>
       </c>
       <c r="H37" t="n">
-        <v>0.006821364464808887</v>
+        <v>0.006821223071095939</v>
       </c>
       <c r="I37" t="n">
-        <v>0.1034615603356961</v>
+        <v>0.1034614697871858</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.03040798708379142</v>
+        <v>-0.03040798708563451</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.03606752608296828</v>
+        <v>-0.03606752603682416</v>
       </c>
       <c r="L37" t="n">
-        <v>0.6036033038183911</v>
+        <v>0.6036033038995366</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.006820994353840999</v>
+        <v>-0.006820994515457075</v>
       </c>
       <c r="N37" t="n">
         <v>50.71111111111111</v>
@@ -3413,22 +3413,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.1455547331416338</v>
+        <v>0.1455547331490655</v>
       </c>
       <c r="S37" t="n">
-        <v>-0.1415657007273763</v>
+        <v>-0.1415657007337903</v>
       </c>
       <c r="T37" t="n">
-        <v>0.6299251413279352</v>
+        <v>0.6299251414139053</v>
       </c>
       <c r="U37" t="n">
-        <v>-22.15030849153189</v>
+        <v>-22.15030924063803</v>
       </c>
       <c r="V37" t="n">
-        <v>308.5057142367244</v>
+        <v>308.5057142366175</v>
       </c>
       <c r="W37" t="n">
-        <v>0.1473275553503953</v>
+        <v>0.1473274491432342</v>
       </c>
       <c r="X37" t="n">
         <v>300</v>
@@ -3448,37 +3448,37 @@
         <v>3668.933333333333</v>
       </c>
       <c r="C38" t="n">
-        <v>0.9806205367592169</v>
+        <v>0.9806205367592167</v>
       </c>
       <c r="D38" t="n">
         <v>26.90000000000001</v>
       </c>
       <c r="E38" t="n">
-        <v>308.4817713070376</v>
+        <v>308.4817713070503</v>
       </c>
       <c r="F38" t="n">
-        <v>27.83854816578647</v>
+        <v>27.83854816458837</v>
       </c>
       <c r="G38" t="n">
-        <v>27.84518183438559</v>
+        <v>27.84518183297603</v>
       </c>
       <c r="H38" t="n">
-        <v>-0.00663366859912176</v>
+        <v>-0.006633668387657347</v>
       </c>
       <c r="I38" t="n">
-        <v>0.134438530973773</v>
+        <v>0.134438531159596</v>
       </c>
       <c r="J38" t="n">
-        <v>-0.03435185136521589</v>
+        <v>-0.03435185128778463</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.05469326909033601</v>
+        <v>-0.05469326919263306</v>
       </c>
       <c r="L38" t="n">
-        <v>0.620223992853974</v>
+        <v>0.620223992932706</v>
       </c>
       <c r="M38" t="n">
-        <v>0.006625583058964601</v>
+        <v>0.006625583059281711</v>
       </c>
       <c r="N38" t="n">
         <v>50.71111111111111</v>
@@ -3493,22 +3493,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0.1955681164301115</v>
+        <v>0.1955681164513768</v>
       </c>
       <c r="S38" t="n">
-        <v>-0.1713556108223345</v>
+        <v>-0.1713556109545767</v>
       </c>
       <c r="T38" t="n">
-        <v>0.6496494219213245</v>
+        <v>0.6496494220179201</v>
       </c>
       <c r="U38" t="n">
-        <v>-27.83854816578647</v>
+        <v>-27.83854816458837</v>
       </c>
       <c r="V38" t="n">
-        <v>308.4817713070376</v>
+        <v>308.4817713070503</v>
       </c>
       <c r="W38" t="n">
-        <v>0.1818058675887447</v>
+        <v>0.1818058677356001</v>
       </c>
       <c r="X38" t="n">
         <v>300</v>
@@ -3528,37 +3528,37 @@
         <v>3929.933333333333</v>
       </c>
       <c r="C39" t="n">
-        <v>0.9718030902967904</v>
+        <v>0.971803090296791</v>
       </c>
       <c r="D39" t="n">
         <v>31.90000000000001</v>
       </c>
       <c r="E39" t="n">
-        <v>308.471898502059</v>
+        <v>308.4718985020298</v>
       </c>
       <c r="F39" t="n">
-        <v>32.64280601924975</v>
+        <v>32.64280601792176</v>
       </c>
       <c r="G39" t="n">
-        <v>32.63277172314477</v>
+        <v>32.63277172154561</v>
       </c>
       <c r="H39" t="n">
-        <v>0.01003429610497741</v>
+        <v>0.01003429637615772</v>
       </c>
       <c r="I39" t="n">
-        <v>0.1487503921805593</v>
+        <v>0.1487503923591752</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.007121248137269098</v>
+        <v>-0.007121248223342137</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.06361205877454934</v>
+        <v>-0.0636120587057208</v>
       </c>
       <c r="L39" t="n">
-        <v>0.6060405295739578</v>
+        <v>0.6060405296641245</v>
       </c>
       <c r="M39" t="n">
-        <v>-0.01003547723976515</v>
+        <v>-0.01003547723947835</v>
       </c>
       <c r="N39" t="n">
         <v>50.71111111111111</v>
@@ -3573,22 +3573,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.2448808805863144</v>
+        <v>0.2448808805241025</v>
       </c>
       <c r="S39" t="n">
-        <v>-0.1425846266449803</v>
+        <v>-0.1425846267263058</v>
       </c>
       <c r="T39" t="n">
-        <v>0.6363515137229221</v>
+        <v>0.6363515138019518</v>
       </c>
       <c r="U39" t="n">
-        <v>-32.64280601924975</v>
+        <v>-32.64280601792176</v>
       </c>
       <c r="V39" t="n">
-        <v>308.471898502059</v>
+        <v>308.4718985020298</v>
       </c>
       <c r="W39" t="n">
-        <v>0.1972773816424123</v>
+        <v>0.1972773818160725</v>
       </c>
       <c r="X39" t="n">
         <v>300</v>
@@ -3614,31 +3614,31 @@
         <v>36.90000000000001</v>
       </c>
       <c r="E40" t="n">
-        <v>308.4620422307064</v>
+        <v>308.4620422306878</v>
       </c>
       <c r="F40" t="n">
-        <v>37.6915514881298</v>
+        <v>37.69155014249382</v>
       </c>
       <c r="G40" t="n">
-        <v>37.69291482618024</v>
+        <v>37.69291322976678</v>
       </c>
       <c r="H40" t="n">
-        <v>-0.001363338050438073</v>
+        <v>-0.001363087272955161</v>
       </c>
       <c r="I40" t="n">
-        <v>0.210590282257156</v>
+        <v>0.2105904112892664</v>
       </c>
       <c r="J40" t="n">
-        <v>-0.01022084526558865</v>
+        <v>-0.01022084531428578</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.06887034197408895</v>
+        <v>-0.06887034236893433</v>
       </c>
       <c r="L40" t="n">
-        <v>0.595062065668276</v>
+        <v>0.5950620656936869</v>
       </c>
       <c r="M40" t="n">
-        <v>0.001355763061727088</v>
+        <v>0.001355763383151672</v>
       </c>
       <c r="N40" t="n">
         <v>50.71111111111111</v>
@@ -3653,22 +3653,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.2827460109366737</v>
+        <v>0.2827460108483069</v>
       </c>
       <c r="S40" t="n">
-        <v>-0.162155119688797</v>
+        <v>-0.1621551198954262</v>
       </c>
       <c r="T40" t="n">
-        <v>0.6342270967015078</v>
+        <v>0.6342270967040822</v>
       </c>
       <c r="U40" t="n">
-        <v>-37.6915514881298</v>
+        <v>-37.69155014249382</v>
       </c>
       <c r="V40" t="n">
-        <v>308.4620422307064</v>
+        <v>308.4620422306878</v>
       </c>
       <c r="W40" t="n">
-        <v>0.2839189444565547</v>
+        <v>0.2839189730715864</v>
       </c>
       <c r="X40" t="n">
         <v>300</v>
@@ -3688,37 +3688,37 @@
         <v>4451.933333333333</v>
       </c>
       <c r="C41" t="n">
-        <v>0.941326341868188</v>
+        <v>0.9413263418681878</v>
       </c>
       <c r="D41" t="n">
         <v>41.90000000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>308.4685752598701</v>
+        <v>308.4685752597886</v>
       </c>
       <c r="F41" t="n">
-        <v>42.41590676157597</v>
+        <v>42.41590675194633</v>
       </c>
       <c r="G41" t="n">
-        <v>42.43896635786599</v>
+        <v>42.43896634641209</v>
       </c>
       <c r="H41" t="n">
-        <v>-0.02305959629002377</v>
+        <v>-0.02305959446575134</v>
       </c>
       <c r="I41" t="n">
-        <v>0.2202058617819916</v>
+        <v>0.2202058618126155</v>
       </c>
       <c r="J41" t="n">
-        <v>0.004499550804335317</v>
+        <v>0.004499550746138918</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.05518347162261571</v>
+        <v>-0.05518347176231089</v>
       </c>
       <c r="L41" t="n">
-        <v>0.5851590143930343</v>
+        <v>0.5851590143420691</v>
       </c>
       <c r="M41" t="n">
-        <v>0.0230520021430297</v>
+        <v>0.02305200214439514</v>
       </c>
       <c r="N41" t="n">
         <v>50.71111111111111</v>
@@ -3733,22 +3733,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0.2406917968667769</v>
+        <v>0.2406917967825686</v>
       </c>
       <c r="S41" t="n">
-        <v>-0.2915126268428119</v>
+        <v>-0.2915126272140266</v>
       </c>
       <c r="T41" t="n">
-        <v>0.659631435250532</v>
+        <v>0.6596314353429079</v>
       </c>
       <c r="U41" t="n">
-        <v>-42.41590676157597</v>
+        <v>-42.41590675194633</v>
       </c>
       <c r="V41" t="n">
-        <v>308.4685752598701</v>
+        <v>308.4685752597886</v>
       </c>
       <c r="W41" t="n">
-        <v>0.3056873718086385</v>
+        <v>0.3056873712265341</v>
       </c>
       <c r="X41" t="n">
         <v>300</v>
@@ -3768,37 +3768,37 @@
         <v>4712.888059701492</v>
       </c>
       <c r="C42" t="n">
-        <v>0.9106308327383851</v>
+        <v>0.9106308327383875</v>
       </c>
       <c r="D42" t="n">
         <v>46.90000000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>308.2107544533434</v>
+        <v>308.210754453222</v>
       </c>
       <c r="F42" t="n">
-        <v>47.72459013380963</v>
+        <v>47.72459945255541</v>
       </c>
       <c r="G42" t="n">
-        <v>47.73905463312075</v>
+        <v>47.73906567743065</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.01446449931112112</v>
+        <v>-0.01446622487523849</v>
       </c>
       <c r="I42" t="n">
-        <v>0.3182171013972254</v>
+        <v>0.3182158741246715</v>
       </c>
       <c r="J42" t="n">
-        <v>0.01313158002834071</v>
+        <v>0.01313158004940203</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.05803945426690902</v>
+        <v>-0.05803945424482923</v>
       </c>
       <c r="L42" t="n">
-        <v>0.6048679142503968</v>
+        <v>0.6048679142594804</v>
       </c>
       <c r="M42" t="n">
-        <v>0.01468137212969377</v>
+        <v>0.01468137099929054</v>
       </c>
       <c r="N42" t="n">
         <v>50.6044776119403</v>
@@ -3813,22 +3813,22 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.3265788655009322</v>
+        <v>0.326578865576731</v>
       </c>
       <c r="S42" t="n">
-        <v>-0.2012156137615982</v>
+        <v>-0.2012156136483326</v>
       </c>
       <c r="T42" t="n">
-        <v>0.6614893720272631</v>
+        <v>0.6614893720700209</v>
       </c>
       <c r="U42" t="n">
-        <v>-47.72459013380963</v>
+        <v>-47.72459945255541</v>
       </c>
       <c r="V42" t="n">
-        <v>308.2107544533434</v>
+        <v>308.210754453222</v>
       </c>
       <c r="W42" t="n">
-        <v>0.4112706160103829</v>
+        <v>0.4112704168907243</v>
       </c>
       <c r="X42" t="n">
         <v>300</v>
@@ -3848,37 +3848,37 @@
         <v>4972.933333333333</v>
       </c>
       <c r="C43" t="n">
-        <v>0.86271782619501</v>
+        <v>0.8627178261950076</v>
       </c>
       <c r="D43" t="n">
         <v>51.90000000000001</v>
       </c>
       <c r="E43" t="n">
-        <v>308.4566636055009</v>
+        <v>308.4566636055029</v>
       </c>
       <c r="F43" t="n">
-        <v>53.35112899412422</v>
+        <v>53.35112947751534</v>
       </c>
       <c r="G43" t="n">
-        <v>53.27214888613017</v>
+        <v>53.27214946097494</v>
       </c>
       <c r="H43" t="n">
-        <v>0.07898010799404574</v>
+        <v>0.07898001654040092</v>
       </c>
       <c r="I43" t="n">
-        <v>0.4941499964852784</v>
+        <v>0.4941499941005444</v>
       </c>
       <c r="J43" t="n">
-        <v>-0.00904317022913142</v>
+        <v>-0.00904317034946755</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.06042850557485243</v>
+        <v>-0.06042850557973012</v>
       </c>
       <c r="L43" t="n">
-        <v>0.6729114354936828</v>
+        <v>0.672911435493325</v>
       </c>
       <c r="M43" t="n">
-        <v>-0.07897633803020053</v>
+        <v>-0.07897633813145084</v>
       </c>
       <c r="N43" t="n">
         <v>50.71111111111111</v>
@@ -3893,22 +3893,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0.3121197498647499</v>
+        <v>0.3121197497985355</v>
       </c>
       <c r="S43" t="n">
-        <v>-0.2696171711715669</v>
+        <v>-0.26961717113374</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7531442418822598</v>
+        <v>0.7531442417971991</v>
       </c>
       <c r="U43" t="n">
-        <v>-53.35112899412422</v>
+        <v>-53.35112947751534</v>
       </c>
       <c r="V43" t="n">
-        <v>308.4566636055009</v>
+        <v>308.4566636055029</v>
       </c>
       <c r="W43" t="n">
-        <v>0.6426078637089021</v>
+        <v>0.6426078682162589</v>
       </c>
       <c r="X43" t="n">
         <v>300</v>
@@ -3928,37 +3928,37 @@
         <v>122.5</v>
       </c>
       <c r="C44" t="n">
-        <v>0.8708195109094883</v>
+        <v>0.8708195109094899</v>
       </c>
       <c r="D44" t="n">
         <v>-48.09999999999999</v>
       </c>
       <c r="E44" t="n">
-        <v>415.4057274663498</v>
+        <v>415.4057274664183</v>
       </c>
       <c r="F44" t="n">
-        <v>-47.78738297692991</v>
+        <v>-47.787377422726</v>
       </c>
       <c r="G44" t="n">
-        <v>-47.80829537787529</v>
+        <v>-47.8082832843972</v>
       </c>
       <c r="H44" t="n">
-        <v>0.02091240094538143</v>
+        <v>0.02090586167119793</v>
       </c>
       <c r="I44" t="n">
-        <v>0.5881353855368154</v>
+        <v>0.5881343031210469</v>
       </c>
       <c r="J44" t="n">
-        <v>0.1059822733400621</v>
+        <v>0.1059822733575284</v>
       </c>
       <c r="K44" t="n">
-        <v>-0.141651255853374</v>
+        <v>-0.1416512555500331</v>
       </c>
       <c r="L44" t="n">
-        <v>0.6228007279182504</v>
+        <v>0.6228007282534094</v>
       </c>
       <c r="M44" t="n">
-        <v>-0.02082372088199898</v>
+        <v>-0.02082372113036778</v>
       </c>
       <c r="N44" t="n">
         <v>40.45</v>
@@ -3973,22 +3973,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0.4315154907763135</v>
+        <v>0.4315154906136149</v>
       </c>
       <c r="S44" t="n">
-        <v>0.6690501186938635</v>
+        <v>0.6690501189697624</v>
       </c>
       <c r="T44" t="n">
-        <v>0.9466729798663602</v>
+        <v>0.9466729801039777</v>
       </c>
       <c r="U44" t="n">
-        <v>47.78738297692991</v>
+        <v>47.787377422726</v>
       </c>
       <c r="V44" t="n">
-        <v>415.4057274663498</v>
+        <v>415.4057274664183</v>
       </c>
       <c r="W44" t="n">
-        <v>0.6915317933107213</v>
+        <v>0.6915283049292704</v>
       </c>
       <c r="X44" t="n">
         <v>450</v>
@@ -4008,37 +4008,37 @@
         <v>382.9666666666666</v>
       </c>
       <c r="C45" t="n">
-        <v>0.9112877202352648</v>
+        <v>0.9112877202352612</v>
       </c>
       <c r="D45" t="n">
         <v>-43.09999999999999</v>
       </c>
       <c r="E45" t="n">
-        <v>415.4902715823531</v>
+        <v>415.4902715824031</v>
       </c>
       <c r="F45" t="n">
-        <v>-43.11821001001984</v>
+        <v>-43.11821004297639</v>
       </c>
       <c r="G45" t="n">
-        <v>-43.14635803198964</v>
+        <v>-43.1463581034952</v>
       </c>
       <c r="H45" t="n">
-        <v>0.02814802196980134</v>
+        <v>0.02814806051881234</v>
       </c>
       <c r="I45" t="n">
-        <v>0.3498271796965386</v>
+        <v>0.3498271771784813</v>
       </c>
       <c r="J45" t="n">
-        <v>0.1709213146883659</v>
+        <v>0.1709213146378096</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.1521985409629295</v>
+        <v>-0.152198541081202</v>
       </c>
       <c r="L45" t="n">
-        <v>0.6028147050073885</v>
+        <v>0.6028147048589981</v>
       </c>
       <c r="M45" t="n">
-        <v>-0.02816983793382567</v>
+        <v>-0.02816983794464058</v>
       </c>
       <c r="N45" t="n">
         <v>40.45</v>
@@ -4053,22 +4053,22 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.3890564607461093</v>
+        <v>0.3890564605506573</v>
       </c>
       <c r="S45" t="n">
-        <v>0.637880707838223</v>
+        <v>0.6378807078848346</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8855109900558435</v>
+        <v>0.8855109899251343</v>
       </c>
       <c r="U45" t="n">
-        <v>43.11821001001984</v>
+        <v>43.11821004297639</v>
       </c>
       <c r="V45" t="n">
-        <v>415.4902715823531</v>
+        <v>415.4902715824031</v>
       </c>
       <c r="W45" t="n">
-        <v>0.4531497949987456</v>
+        <v>0.4531498046130774</v>
       </c>
       <c r="X45" t="n">
         <v>450</v>
@@ -4088,37 +4088,37 @@
         <v>642.5</v>
       </c>
       <c r="C46" t="n">
-        <v>0.9433395580939329</v>
+        <v>0.943339558093934</v>
       </c>
       <c r="D46" t="n">
         <v>-38.09999999999999</v>
       </c>
       <c r="E46" t="n">
-        <v>415.5574254729607</v>
+        <v>415.5574254732204</v>
       </c>
       <c r="F46" t="n">
-        <v>-37.57032770383298</v>
+        <v>-37.57032846615331</v>
       </c>
       <c r="G46" t="n">
-        <v>-37.68518843851261</v>
+        <v>-37.68519009447498</v>
       </c>
       <c r="H46" t="n">
-        <v>0.1148607346796333</v>
+        <v>0.1148616283216692</v>
       </c>
       <c r="I46" t="n">
-        <v>0.3638450830855842</v>
+        <v>0.3638453542502781</v>
       </c>
       <c r="J46" t="n">
-        <v>0.2111758610326332</v>
+        <v>0.2111758611916115</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.1109374079513659</v>
+        <v>-0.1109374068659483</v>
       </c>
       <c r="L46" t="n">
-        <v>0.6354258667705055</v>
+        <v>0.635425866772766</v>
       </c>
       <c r="M46" t="n">
-        <v>-0.1148381745704225</v>
+        <v>-0.1148381751943834</v>
       </c>
       <c r="N46" t="n">
         <v>40.45</v>
@@ -4133,22 +4133,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0.3812024498768087</v>
+        <v>0.3812024500744547</v>
       </c>
       <c r="S46" t="n">
-        <v>0.6033693714216325</v>
+        <v>0.6033693718048336</v>
       </c>
       <c r="T46" t="n">
-        <v>0.863424304729691</v>
+        <v>0.8634243051522773</v>
       </c>
       <c r="U46" t="n">
-        <v>37.57032770383298</v>
+        <v>37.57032846615331</v>
       </c>
       <c r="V46" t="n">
-        <v>415.5574254729607</v>
+        <v>415.5574254732204</v>
       </c>
       <c r="W46" t="n">
-        <v>0.4500011606492678</v>
+        <v>0.450001670938503</v>
       </c>
       <c r="X46" t="n">
         <v>450</v>
@@ -4168,37 +4168,37 @@
         <v>903.5</v>
       </c>
       <c r="C47" t="n">
-        <v>0.9595929891839925</v>
+        <v>0.9595929891839906</v>
       </c>
       <c r="D47" t="n">
         <v>-33.09999999999999</v>
       </c>
       <c r="E47" t="n">
-        <v>415.5616907982863</v>
+        <v>415.5616907985217</v>
       </c>
       <c r="F47" t="n">
-        <v>-32.92179709591474</v>
+        <v>-32.92179709459969</v>
       </c>
       <c r="G47" t="n">
-        <v>-32.98388033521916</v>
+        <v>-32.98388033237012</v>
       </c>
       <c r="H47" t="n">
-        <v>0.06208323930442093</v>
+        <v>0.06208323777043022</v>
       </c>
       <c r="I47" t="n">
-        <v>0.2707117492059817</v>
+        <v>0.2707117496519794</v>
       </c>
       <c r="J47" t="n">
-        <v>0.2036445161484104</v>
+        <v>0.2036445158920738</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.1298242523674902</v>
+        <v>-0.129824252180252</v>
       </c>
       <c r="L47" t="n">
-        <v>0.6297013998688211</v>
+        <v>0.6297013997715667</v>
       </c>
       <c r="M47" t="n">
-        <v>-0.06209832573061078</v>
+        <v>-0.06209832572946835</v>
       </c>
       <c r="N47" t="n">
         <v>40.45</v>
@@ -4213,22 +4213,22 @@
         <v>0</v>
       </c>
       <c r="R47" t="n">
-        <v>0.3319426059225777</v>
+        <v>0.3319426057951908</v>
       </c>
       <c r="S47" t="n">
-        <v>0.5195216611422886</v>
+        <v>0.5195216614034599</v>
       </c>
       <c r="T47" t="n">
-        <v>0.7870877491247661</v>
+        <v>0.7870877492591197</v>
       </c>
       <c r="U47" t="n">
-        <v>32.92179709591474</v>
+        <v>32.92179709459969</v>
       </c>
       <c r="V47" t="n">
-        <v>415.5616907982863</v>
+        <v>415.5616907985217</v>
       </c>
       <c r="W47" t="n">
-        <v>0.3466176796583109</v>
+        <v>0.3466176799915396</v>
       </c>
       <c r="X47" t="n">
         <v>450</v>
@@ -4248,37 +4248,37 @@
         <v>1164.5</v>
       </c>
       <c r="C48" t="n">
-        <v>0.9715303067953508</v>
+        <v>0.9715303067953509</v>
       </c>
       <c r="D48" t="n">
         <v>-28.09999999999999</v>
       </c>
       <c r="E48" t="n">
-        <v>415.5370594823727</v>
+        <v>415.5370594825903</v>
       </c>
       <c r="F48" t="n">
-        <v>-28.37029745161157</v>
+        <v>-28.37029745218187</v>
       </c>
       <c r="G48" t="n">
-        <v>-28.40995576350307</v>
+        <v>-28.40995576474833</v>
       </c>
       <c r="H48" t="n">
-        <v>0.03965831189150683</v>
+        <v>0.03965831256646168</v>
       </c>
       <c r="I48" t="n">
-        <v>0.1919912771331489</v>
+        <v>0.1919912769331968</v>
       </c>
       <c r="J48" t="n">
-        <v>0.2281624561026592</v>
+        <v>0.2281624562205167</v>
       </c>
       <c r="K48" t="n">
-        <v>-0.141588258362999</v>
+        <v>-0.1415882582677784</v>
       </c>
       <c r="L48" t="n">
-        <v>0.6350195300930276</v>
+        <v>0.6350195303476571</v>
       </c>
       <c r="M48" t="n">
-        <v>-0.03964157920070353</v>
+        <v>-0.039641579201028</v>
       </c>
       <c r="N48" t="n">
         <v>40.45</v>
@@ -4293,22 +4293,22 @@
         <v>0</v>
       </c>
       <c r="R48" t="n">
-        <v>0.2683550647998664</v>
+        <v>0.2683550650084931</v>
       </c>
       <c r="S48" t="n">
-        <v>0.4230582083788909</v>
+        <v>0.423058208544446</v>
       </c>
       <c r="T48" t="n">
-        <v>0.7220888616513197</v>
+        <v>0.7220888620464213</v>
       </c>
       <c r="U48" t="n">
-        <v>28.37029745161157</v>
+        <v>28.37029745218187</v>
       </c>
       <c r="V48" t="n">
-        <v>415.5370594823727</v>
+        <v>415.5370594825903</v>
       </c>
       <c r="W48" t="n">
-        <v>0.250414952490495</v>
+        <v>0.2504149524433176</v>
       </c>
       <c r="X48" t="n">
         <v>450</v>
@@ -4328,37 +4328,37 @@
         <v>1425.5</v>
       </c>
       <c r="C49" t="n">
-        <v>0.9787439859426681</v>
+        <v>0.9787439859426676</v>
       </c>
       <c r="D49" t="n">
         <v>-23.09999999999999</v>
       </c>
       <c r="E49" t="n">
-        <v>415.4749938377871</v>
+        <v>415.4749938377411</v>
       </c>
       <c r="F49" t="n">
-        <v>-22.79590978852119</v>
+        <v>-22.7959098412055</v>
       </c>
       <c r="G49" t="n">
-        <v>-22.86769729371632</v>
+        <v>-22.86769740813532</v>
       </c>
       <c r="H49" t="n">
-        <v>0.07178750519512539</v>
+        <v>0.07178756692981522</v>
       </c>
       <c r="I49" t="n">
-        <v>0.2806678942715316</v>
+        <v>0.2806678628739423</v>
       </c>
       <c r="J49" t="n">
-        <v>0.2109811653175385</v>
+        <v>0.21098116537687</v>
       </c>
       <c r="K49" t="n">
-        <v>-0.1883645950481787</v>
+        <v>-0.1883645950241109</v>
       </c>
       <c r="L49" t="n">
-        <v>0.64840900875158</v>
+        <v>0.648409008715465</v>
       </c>
       <c r="M49" t="n">
-        <v>-0.07179369107706564</v>
+        <v>-0.07179369109813744</v>
       </c>
       <c r="N49" t="n">
         <v>40.45</v>
@@ -4373,22 +4373,22 @@
         <v>0</v>
       </c>
       <c r="R49" t="n">
-        <v>0.234758852635441</v>
+        <v>0.2347588526386675</v>
       </c>
       <c r="S49" t="n">
-        <v>0.2102387334389343</v>
+        <v>0.2102387335592168</v>
       </c>
       <c r="T49" t="n">
-        <v>0.6379468436992307</v>
+        <v>0.6379468438060688</v>
       </c>
       <c r="U49" t="n">
-        <v>22.79590978852119</v>
+        <v>22.7959098412055</v>
       </c>
       <c r="V49" t="n">
-        <v>415.4749938377871</v>
+        <v>415.4749938377411</v>
       </c>
       <c r="W49" t="n">
-        <v>0.3689455862664357</v>
+        <v>0.3689455633953507</v>
       </c>
       <c r="X49" t="n">
         <v>450</v>
@@ -4408,37 +4408,37 @@
         <v>1680.533333333333</v>
       </c>
       <c r="C50" t="n">
-        <v>0.9825690553165839</v>
+        <v>0.9825690553165841</v>
       </c>
       <c r="D50" t="n">
         <v>-18.09999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>415.4223514966339</v>
+        <v>415.422351496625</v>
       </c>
       <c r="F50" t="n">
-        <v>-18.13439968316417</v>
+        <v>-18.13439968246968</v>
       </c>
       <c r="G50" t="n">
-        <v>-18.20520397000869</v>
+        <v>-18.20520396847115</v>
       </c>
       <c r="H50" t="n">
-        <v>0.07080428684451363</v>
+        <v>0.07080428600146178</v>
       </c>
       <c r="I50" t="n">
-        <v>0.2212875437469113</v>
+        <v>0.2212875442905284</v>
       </c>
       <c r="J50" t="n">
-        <v>0.2017522057975971</v>
+        <v>0.2017522058373601</v>
       </c>
       <c r="K50" t="n">
-        <v>-0.1731275589352259</v>
+        <v>-0.1731275589198528</v>
       </c>
       <c r="L50" t="n">
-        <v>0.6514701824566832</v>
+        <v>0.6514701824851318</v>
       </c>
       <c r="M50" t="n">
-        <v>-0.07183870715276749</v>
+        <v>-0.07183870715252756</v>
       </c>
       <c r="N50" t="n">
         <v>40.45</v>
@@ -4453,22 +4453,22 @@
         <v>0</v>
       </c>
       <c r="R50" t="n">
-        <v>0.1914284260380609</v>
+        <v>0.1914284260843847</v>
       </c>
       <c r="S50" t="n">
-        <v>0.03837710247042985</v>
+        <v>0.03837710245149872</v>
       </c>
       <c r="T50" t="n">
-        <v>0.6254541532457261</v>
+        <v>0.6254541533425438</v>
       </c>
       <c r="U50" t="n">
-        <v>18.13439968316417</v>
+        <v>18.13439968246968</v>
       </c>
       <c r="V50" t="n">
-        <v>415.4223514966339</v>
+        <v>415.422351496625</v>
       </c>
       <c r="W50" t="n">
-        <v>0.2683335627657808</v>
+        <v>0.2683335630891678</v>
       </c>
       <c r="X50" t="n">
         <v>450</v>
@@ -4494,31 +4494,31 @@
         <v>-13.09999999999999</v>
       </c>
       <c r="E51" t="n">
-        <v>413.1781941818954</v>
+        <v>413.1781941817729</v>
       </c>
       <c r="F51" t="n">
-        <v>-13.37319339422235</v>
+        <v>-13.37319350107687</v>
       </c>
       <c r="G51" t="n">
-        <v>-13.53538203551962</v>
+        <v>-13.53538230868667</v>
       </c>
       <c r="H51" t="n">
-        <v>0.1621886412972776</v>
+        <v>0.1621888076098018</v>
       </c>
       <c r="I51" t="n">
-        <v>0.2195344661232482</v>
+        <v>0.2195344996764403</v>
       </c>
       <c r="J51" t="n">
-        <v>0.1843142128100571</v>
+        <v>0.1843142128842411</v>
       </c>
       <c r="K51" t="n">
-        <v>-0.1088528047703323</v>
+        <v>-0.1088528046705301</v>
       </c>
       <c r="L51" t="n">
-        <v>0.6139276416695433</v>
+        <v>0.6139276416487081</v>
       </c>
       <c r="M51" t="n">
-        <v>-0.161254112296387</v>
+        <v>-0.1612541123550702</v>
       </c>
       <c r="N51" t="n">
         <v>38.70689655172414</v>
@@ -4533,22 +4533,22 @@
         <v>0</v>
       </c>
       <c r="R51" t="n">
-        <v>0.1917652127569214</v>
+        <v>0.1917652128095955</v>
       </c>
       <c r="S51" t="n">
-        <v>0.111502753153641</v>
+        <v>0.111502753234539</v>
       </c>
       <c r="T51" t="n">
-        <v>0.5999138257865366</v>
+        <v>0.5999138257543964</v>
       </c>
       <c r="U51" t="n">
-        <v>13.37319339422235</v>
+        <v>13.37319350107687</v>
       </c>
       <c r="V51" t="n">
-        <v>413.1781941818954</v>
+        <v>413.1781941817729</v>
       </c>
       <c r="W51" t="n">
-        <v>0.3039041079552972</v>
+        <v>0.3039041143095061</v>
       </c>
       <c r="X51" t="n">
         <v>450</v>
@@ -4568,37 +4568,37 @@
         <v>2082.058823529412</v>
       </c>
       <c r="C52" t="n">
-        <v>0.9777241999471913</v>
+        <v>0.9777241999471914</v>
       </c>
       <c r="D52" t="n">
         <v>-8.099999999999994</v>
       </c>
       <c r="E52" t="n">
-        <v>410.7168958451187</v>
+        <v>410.7168958451291</v>
       </c>
       <c r="F52" t="n">
-        <v>-8.343242956544502</v>
+        <v>-8.343243295000971</v>
       </c>
       <c r="G52" t="n">
-        <v>-8.412366102243347</v>
+        <v>-8.412366981061535</v>
       </c>
       <c r="H52" t="n">
-        <v>0.06912314569884319</v>
+        <v>0.0691236860605646</v>
       </c>
       <c r="I52" t="n">
-        <v>0.1698867320924661</v>
+        <v>0.1698871911415396</v>
       </c>
       <c r="J52" t="n">
-        <v>0.1675661711075513</v>
+        <v>0.1675661712145563</v>
       </c>
       <c r="K52" t="n">
-        <v>-0.03906574096773707</v>
+        <v>-0.0390657408522045</v>
       </c>
       <c r="L52" t="n">
-        <v>0.5616935713759462</v>
+        <v>0.561693571358272</v>
       </c>
       <c r="M52" t="n">
-        <v>-0.06966131291627865</v>
+        <v>-0.06966131313823294</v>
       </c>
       <c r="N52" t="n">
         <v>36.8235294117647</v>
@@ -4613,22 +4613,22 @@
         <v>0</v>
       </c>
       <c r="R52" t="n">
-        <v>0.136758908640508</v>
+        <v>0.1367589087294581</v>
       </c>
       <c r="S52" t="n">
-        <v>0.06178240873120834</v>
+        <v>0.06178240881136578</v>
       </c>
       <c r="T52" t="n">
-        <v>0.5521445074545679</v>
+        <v>0.552144507408334</v>
       </c>
       <c r="U52" t="n">
-        <v>8.343242956544502</v>
+        <v>8.343243295000971</v>
       </c>
       <c r="V52" t="n">
-        <v>410.7168958451187</v>
+        <v>410.7168958451291</v>
       </c>
       <c r="W52" t="n">
-        <v>0.2506663697374401</v>
+        <v>0.2506666765747865</v>
       </c>
       <c r="X52" t="n">
         <v>450</v>
@@ -4648,37 +4648,37 @@
         <v>2206</v>
       </c>
       <c r="C53" t="n">
-        <v>0.9563383733250067</v>
+        <v>0.9563383733250068</v>
       </c>
       <c r="D53" t="n">
         <v>-3.099999999999993</v>
       </c>
       <c r="E53" t="n">
-        <v>411.307486307002</v>
+        <v>411.3074863070213</v>
       </c>
       <c r="F53" t="n">
-        <v>-3.990498385506083</v>
+        <v>-3.990498384430218</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.162115875665233</v>
+        <v>-4.162115872956935</v>
       </c>
       <c r="H53" t="n">
-        <v>0.1716174901591497</v>
+        <v>0.1716174885267175</v>
       </c>
       <c r="I53" t="n">
-        <v>0.2759373990056554</v>
+        <v>0.2759373979006988</v>
       </c>
       <c r="J53" t="n">
-        <v>0.1304593760313608</v>
+        <v>0.1304593760481115</v>
       </c>
       <c r="K53" t="n">
-        <v>-0.08153675721314459</v>
+        <v>-0.08153675721983197</v>
       </c>
       <c r="L53" t="n">
-        <v>0.4707667742870996</v>
+        <v>0.4707667742518729</v>
       </c>
       <c r="M53" t="n">
-        <v>-0.171721301043354</v>
+        <v>-0.1717213010432561</v>
       </c>
       <c r="N53" t="n">
         <v>32.35714285714285</v>
@@ -4693,22 +4693,22 @@
         <v>0</v>
       </c>
       <c r="R53" t="n">
-        <v>0.2273018464528807</v>
+        <v>0.2273018464558319</v>
       </c>
       <c r="S53" t="n">
-        <v>-0.07683799546524266</v>
+        <v>-0.07683799549250803</v>
       </c>
       <c r="T53" t="n">
-        <v>0.5016954701539189</v>
+        <v>0.5016954701212468</v>
       </c>
       <c r="U53" t="n">
-        <v>3.990498385506083</v>
+        <v>3.990498384430218</v>
       </c>
       <c r="V53" t="n">
-        <v>411.307486307002</v>
+        <v>411.3074863070213</v>
       </c>
       <c r="W53" t="n">
-        <v>0.3636381161519505</v>
+        <v>0.3636381159440817</v>
       </c>
       <c r="X53" t="n">
         <v>450</v>
@@ -4728,37 +4728,37 @@
         <v>2374.3</v>
       </c>
       <c r="C54" t="n">
-        <v>0.9588484734061399</v>
+        <v>0.95884847340614</v>
       </c>
       <c r="D54" t="n">
         <v>1.900000000000006</v>
       </c>
       <c r="E54" t="n">
-        <v>415.3603101746583</v>
+        <v>415.3603101746409</v>
       </c>
       <c r="F54" t="n">
-        <v>2.84390995568791</v>
+        <v>2.843910019210522</v>
       </c>
       <c r="G54" t="n">
         <v>1.5</v>
       </c>
       <c r="H54" t="n">
-        <v>1.343909955687909</v>
+        <v>1.343910019210522</v>
       </c>
       <c r="I54" t="n">
-        <v>1.411906640066822</v>
+        <v>1.411906674887694</v>
       </c>
       <c r="J54" t="n">
-        <v>0.1808081371738263</v>
+        <v>0.1808081371526933</v>
       </c>
       <c r="K54" t="n">
-        <v>-0.13464251091017</v>
+        <v>-0.1346425109213207</v>
       </c>
       <c r="L54" t="n">
-        <v>0.5820580521081257</v>
+        <v>0.5820580521082754</v>
       </c>
       <c r="M54" t="n">
-        <v>-0.1288704910022152</v>
+        <v>-0.1288704909772286</v>
       </c>
       <c r="N54" t="n">
         <v>40.45</v>
@@ -4773,22 +4773,22 @@
         <v>0</v>
       </c>
       <c r="R54" t="n">
-        <v>0.1830135927531362</v>
+        <v>0.18301359272881</v>
       </c>
       <c r="S54" t="n">
-        <v>-0.1579354302849489</v>
+        <v>-0.1579354302680546</v>
       </c>
       <c r="T54" t="n">
-        <v>0.5929638782307266</v>
+        <v>0.5929638782254085</v>
       </c>
       <c r="U54" t="n">
-        <v>-2.84390995568791</v>
+        <v>-2.843910019210522</v>
       </c>
       <c r="V54" t="n">
-        <v>415.3603101746583</v>
+        <v>415.3603101746409</v>
       </c>
       <c r="W54" t="n">
-        <v>1.589104542249985</v>
+        <v>1.589104596153066</v>
       </c>
       <c r="X54" t="n">
         <v>450</v>
@@ -4814,31 +4814,31 @@
         <v>6.900000000000006</v>
       </c>
       <c r="E55" t="n">
-        <v>415.3705950159311</v>
+        <v>415.370595015969</v>
       </c>
       <c r="F55" t="n">
-        <v>6.81190452748289</v>
+        <v>6.811904198558571</v>
       </c>
       <c r="G55" t="n">
-        <v>6.883590571785827</v>
+        <v>6.8835898764683</v>
       </c>
       <c r="H55" t="n">
-        <v>-0.07168604430293732</v>
+        <v>-0.07168567790972931</v>
       </c>
       <c r="I55" t="n">
-        <v>0.1555356974564348</v>
+        <v>0.1555353581693832</v>
       </c>
       <c r="J55" t="n">
-        <v>0.1784485172194537</v>
+        <v>0.1784485172133759</v>
       </c>
       <c r="K55" t="n">
-        <v>-0.1279666825207774</v>
+        <v>-0.1279666825086201</v>
       </c>
       <c r="L55" t="n">
-        <v>0.580031272382652</v>
+        <v>0.5800312723542216</v>
       </c>
       <c r="M55" t="n">
-        <v>0.07213224232587673</v>
+        <v>0.0721322421509602</v>
       </c>
       <c r="N55" t="n">
         <v>40.45</v>
@@ -4853,22 +4853,22 @@
         <v>0</v>
       </c>
       <c r="R55" t="n">
-        <v>0.2199322075851335</v>
+        <v>0.2199322075915358</v>
       </c>
       <c r="S55" t="n">
-        <v>-0.1493582005318801</v>
+        <v>-0.1493582004889467</v>
       </c>
       <c r="T55" t="n">
-        <v>0.604673697457368</v>
+        <v>0.6046736974247372</v>
       </c>
       <c r="U55" t="n">
-        <v>-6.81190452748289</v>
+        <v>-6.811904198558571</v>
       </c>
       <c r="V55" t="n">
-        <v>415.3705950159311</v>
+        <v>415.370595015969</v>
       </c>
       <c r="W55" t="n">
-        <v>0.2085466074373766</v>
+        <v>0.2085464455954147</v>
       </c>
       <c r="X55" t="n">
         <v>450</v>
@@ -4888,37 +4888,37 @@
         <v>2880.25</v>
       </c>
       <c r="C56" t="n">
-        <v>0.9883893317408906</v>
+        <v>0.9883893317408907</v>
       </c>
       <c r="D56" t="n">
         <v>11.90000000000001</v>
       </c>
       <c r="E56" t="n">
-        <v>415.3527394798202</v>
+        <v>415.3527394798396</v>
       </c>
       <c r="F56" t="n">
-        <v>12.22207694002589</v>
+        <v>12.22207693955732</v>
       </c>
       <c r="G56" t="n">
-        <v>12.29422759822129</v>
+        <v>12.29422759721204</v>
       </c>
       <c r="H56" t="n">
-        <v>-0.0721506581953968</v>
+        <v>-0.07215065765471565</v>
       </c>
       <c r="I56" t="n">
-        <v>0.1115195774300823</v>
+        <v>0.1115195769506316</v>
       </c>
       <c r="J56" t="n">
-        <v>0.1800595253926087</v>
+        <v>0.1800595253981445</v>
       </c>
       <c r="K56" t="n">
-        <v>-0.1458370084371916</v>
+        <v>-0.1458370084971463</v>
       </c>
       <c r="L56" t="n">
-        <v>0.6176792774260391</v>
+        <v>0.6176792774036286</v>
       </c>
       <c r="M56" t="n">
-        <v>0.07214512762509129</v>
+        <v>0.0721451276248415</v>
       </c>
       <c r="N56" t="n">
         <v>40.45</v>
@@ -4933,22 +4933,22 @@
         <v>0</v>
       </c>
       <c r="R56" t="n">
-        <v>0.2367691899210422</v>
+        <v>0.2367691899367489</v>
       </c>
       <c r="S56" t="n">
-        <v>-0.2218193237097301</v>
+        <v>-0.2218193237365317</v>
       </c>
       <c r="T56" t="n">
-        <v>0.6672809045278373</v>
+        <v>0.6672809044950614</v>
       </c>
       <c r="U56" t="n">
-        <v>-12.22207694002589</v>
+        <v>-12.22207693955732</v>
       </c>
       <c r="V56" t="n">
-        <v>415.3527394798202</v>
+        <v>415.3527394798396</v>
       </c>
       <c r="W56" t="n">
-        <v>0.177144797515296</v>
+        <v>0.1771447973124181</v>
       </c>
       <c r="X56" t="n">
         <v>450</v>
@@ -4974,31 +4974,31 @@
         <v>16.90000000000001</v>
       </c>
       <c r="E57" t="n">
-        <v>415.3119834345793</v>
+        <v>415.3119834345592</v>
       </c>
       <c r="F57" t="n">
-        <v>16.94280558144232</v>
+        <v>16.94281118398082</v>
       </c>
       <c r="G57" t="n">
-        <v>17.00708776609422</v>
+        <v>17.00709991497616</v>
       </c>
       <c r="H57" t="n">
-        <v>-0.06428218465189843</v>
+        <v>-0.06428873099534679</v>
       </c>
       <c r="I57" t="n">
-        <v>0.1052263558817473</v>
+        <v>0.1052301894605938</v>
       </c>
       <c r="J57" t="n">
-        <v>0.1687015093916788</v>
+        <v>0.1687015093084858</v>
       </c>
       <c r="K57" t="n">
-        <v>-0.1643275077293055</v>
+        <v>-0.1643275077834821</v>
       </c>
       <c r="L57" t="n">
-        <v>0.6553295746488447</v>
+        <v>0.6553295746480102</v>
       </c>
       <c r="M57" t="n">
-        <v>0.06428629484709063</v>
+        <v>0.06428629621915564</v>
       </c>
       <c r="N57" t="n">
         <v>40.45</v>
@@ -5013,22 +5013,22 @@
         <v>0</v>
       </c>
       <c r="R57" t="n">
-        <v>0.2671932001874077</v>
+        <v>0.2671932000167628</v>
       </c>
       <c r="S57" t="n">
-        <v>-0.2632965529068071</v>
+        <v>-0.263296553007816</v>
       </c>
       <c r="T57" t="n">
-        <v>0.7242031073205701</v>
+        <v>0.7242031073099128</v>
       </c>
       <c r="U57" t="n">
-        <v>-16.94280558144232</v>
+        <v>-16.94281118398082</v>
       </c>
       <c r="V57" t="n">
-        <v>415.3119834345793</v>
+        <v>415.3119834345592</v>
       </c>
       <c r="W57" t="n">
-        <v>0.1617977069099018</v>
+        <v>0.1618005325817498</v>
       </c>
       <c r="X57" t="n">
         <v>450</v>
@@ -5048,37 +5048,37 @@
         <v>3400.5</v>
       </c>
       <c r="C58" t="n">
-        <v>0.9846663357655699</v>
+        <v>0.9846663357655696</v>
       </c>
       <c r="D58" t="n">
         <v>21.90000000000001</v>
       </c>
       <c r="E58" t="n">
-        <v>415.3251686561772</v>
+        <v>415.3251686562132</v>
       </c>
       <c r="F58" t="n">
-        <v>22.09910211126247</v>
+        <v>22.09910252179074</v>
       </c>
       <c r="G58" t="n">
-        <v>22.14348712706708</v>
+        <v>22.14348801756694</v>
       </c>
       <c r="H58" t="n">
-        <v>-0.04438501580461487</v>
+        <v>-0.04438549577619864</v>
       </c>
       <c r="I58" t="n">
-        <v>0.1373627335338667</v>
+        <v>0.1373630175274703</v>
       </c>
       <c r="J58" t="n">
-        <v>0.2003243399766464</v>
+        <v>0.2003243399917317</v>
       </c>
       <c r="K58" t="n">
-        <v>-0.1547854994070704</v>
+        <v>-0.1547854995211505</v>
       </c>
       <c r="L58" t="n">
-        <v>0.6732078867951911</v>
+        <v>0.6732078869083846</v>
       </c>
       <c r="M58" t="n">
-        <v>0.04438497096011809</v>
+        <v>0.04438497116607625</v>
       </c>
       <c r="N58" t="n">
         <v>40.45</v>
@@ -5093,22 +5093,22 @@
         <v>0</v>
       </c>
       <c r="R58" t="n">
-        <v>0.3654192450856837</v>
+        <v>0.3654192451331047</v>
       </c>
       <c r="S58" t="n">
-        <v>-0.2464084364391587</v>
+        <v>-0.2464084366352698</v>
       </c>
       <c r="T58" t="n">
-        <v>0.7638949407483022</v>
+        <v>0.7638949408495165</v>
       </c>
       <c r="U58" t="n">
-        <v>-22.09910211126247</v>
+        <v>-22.09910252179074</v>
       </c>
       <c r="V58" t="n">
-        <v>415.3251686561772</v>
+        <v>415.3251686562132</v>
       </c>
       <c r="W58" t="n">
-        <v>0.1978189500161366</v>
+        <v>0.197819179160383</v>
       </c>
       <c r="X58" t="n">
         <v>450</v>
@@ -5128,37 +5128,37 @@
         <v>3661.5</v>
       </c>
       <c r="C59" t="n">
-        <v>0.978021765211373</v>
+        <v>0.9780217652113731</v>
       </c>
       <c r="D59" t="n">
         <v>26.90000000000001</v>
       </c>
       <c r="E59" t="n">
-        <v>415.3421343171429</v>
+        <v>415.342134316996</v>
       </c>
       <c r="F59" t="n">
-        <v>27.82487389256678</v>
+        <v>27.82487389191052</v>
       </c>
       <c r="G59" t="n">
-        <v>27.84518183438559</v>
+        <v>27.84518183297603</v>
       </c>
       <c r="H59" t="n">
-        <v>-0.02030794181880934</v>
+        <v>-0.02030794106550395</v>
       </c>
       <c r="I59" t="n">
-        <v>0.1456533543004116</v>
+        <v>0.1456533538508169</v>
       </c>
       <c r="J59" t="n">
-        <v>0.2249181439563975</v>
+        <v>0.2249181435365439</v>
       </c>
       <c r="K59" t="n">
-        <v>-0.1328180227199396</v>
+        <v>-0.132818022680798</v>
       </c>
       <c r="L59" t="n">
-        <v>0.6667331677841982</v>
+        <v>0.6667331673891166</v>
       </c>
       <c r="M59" t="n">
-        <v>0.02032517047352667</v>
+        <v>0.0203251704728497</v>
       </c>
       <c r="N59" t="n">
         <v>40.45</v>
@@ -5173,22 +5173,22 @@
         <v>0</v>
       </c>
       <c r="R59" t="n">
-        <v>0.4450366243142085</v>
+        <v>0.4450366238516399</v>
       </c>
       <c r="S59" t="n">
-        <v>-0.2369663067961708</v>
+        <v>-0.236966306804075</v>
       </c>
       <c r="T59" t="n">
-        <v>0.7843292107148961</v>
+        <v>0.7843292102667035</v>
       </c>
       <c r="U59" t="n">
-        <v>-27.82487389256678</v>
+        <v>-27.82487389191052</v>
       </c>
       <c r="V59" t="n">
-        <v>415.3421343171429</v>
+        <v>415.342134316996</v>
       </c>
       <c r="W59" t="n">
-        <v>0.2032186054592494</v>
+        <v>0.203218605136061</v>
       </c>
       <c r="X59" t="n">
         <v>450</v>
@@ -5208,37 +5208,37 @@
         <v>3922.5</v>
       </c>
       <c r="C60" t="n">
-        <v>0.968345782567954</v>
+        <v>0.9683457825679542</v>
       </c>
       <c r="D60" t="n">
         <v>31.90000000000001</v>
       </c>
       <c r="E60" t="n">
-        <v>415.3443326575942</v>
+        <v>415.3443326576233</v>
       </c>
       <c r="F60" t="n">
-        <v>32.53934057834172</v>
+        <v>32.53934057761518</v>
       </c>
       <c r="G60" t="n">
-        <v>32.63277172314477</v>
+        <v>32.63277172154561</v>
       </c>
       <c r="H60" t="n">
-        <v>-0.09343114480304777</v>
+        <v>-0.0934311439304293</v>
       </c>
       <c r="I60" t="n">
-        <v>0.2018580480171847</v>
+        <v>0.2018580473451751</v>
       </c>
       <c r="J60" t="n">
-        <v>0.2369348517183124</v>
+        <v>0.2369348518976921</v>
       </c>
       <c r="K60" t="n">
-        <v>-0.1252704067710355</v>
+        <v>-0.1252704067048308</v>
       </c>
       <c r="L60" t="n">
-        <v>0.6629991650580751</v>
+        <v>0.6629991649934404</v>
       </c>
       <c r="M60" t="n">
-        <v>0.09342977172840321</v>
+        <v>0.09342977172781813</v>
       </c>
       <c r="N60" t="n">
         <v>40.45</v>
@@ -5253,22 +5253,22 @@
         <v>0</v>
       </c>
       <c r="R60" t="n">
-        <v>0.4826690915630978</v>
+        <v>0.4826690917497787</v>
       </c>
       <c r="S60" t="n">
-        <v>-0.1962405090000144</v>
+        <v>-0.1962405090628308</v>
       </c>
       <c r="T60" t="n">
-        <v>0.7820442177809244</v>
+        <v>0.7820442177978415</v>
       </c>
       <c r="U60" t="n">
-        <v>-32.53934057834172</v>
+        <v>-32.53934057761518</v>
       </c>
       <c r="V60" t="n">
-        <v>415.3443326575942</v>
+        <v>415.3443326576233</v>
       </c>
       <c r="W60" t="n">
-        <v>0.2746749083664398</v>
+        <v>0.2746749078831216</v>
       </c>
       <c r="X60" t="n">
         <v>450</v>
@@ -5288,37 +5288,37 @@
         <v>4183.5</v>
       </c>
       <c r="C61" t="n">
-        <v>0.9532603045007808</v>
+        <v>0.9532603045007798</v>
       </c>
       <c r="D61" t="n">
         <v>36.90000000000001</v>
       </c>
       <c r="E61" t="n">
-        <v>415.376160778696</v>
+        <v>415.3761607789073</v>
       </c>
       <c r="F61" t="n">
-        <v>37.65116451824323</v>
+        <v>37.65116378165594</v>
       </c>
       <c r="G61" t="n">
-        <v>37.69291482618025</v>
+        <v>37.69291322976678</v>
       </c>
       <c r="H61" t="n">
-        <v>-0.04175030793701708</v>
+        <v>-0.04174944811084001</v>
       </c>
       <c r="I61" t="n">
-        <v>0.2534633073955815</v>
+        <v>0.25346290262592</v>
       </c>
       <c r="J61" t="n">
-        <v>0.2318647061108045</v>
+        <v>0.2318647062077543</v>
       </c>
       <c r="K61" t="n">
-        <v>-0.0944503820452514</v>
+        <v>-0.09445038200071565</v>
       </c>
       <c r="L61" t="n">
-        <v>0.6480199816988069</v>
+        <v>0.648019981864408</v>
       </c>
       <c r="M61" t="n">
-        <v>0.04177405272948356</v>
+        <v>0.04177405197080001</v>
       </c>
       <c r="N61" t="n">
         <v>40.45</v>
@@ -5333,22 +5333,22 @@
         <v>0</v>
       </c>
       <c r="R61" t="n">
-        <v>0.5218251821543337</v>
+        <v>0.5218251822053313</v>
       </c>
       <c r="S61" t="n">
-        <v>-0.1838970800275102</v>
+        <v>-0.1838970797870895</v>
       </c>
       <c r="T61" t="n">
-        <v>0.7970377820741901</v>
+        <v>0.7970377821596851</v>
       </c>
       <c r="U61" t="n">
-        <v>-37.65116451824323</v>
+        <v>-37.65116378165594</v>
       </c>
       <c r="V61" t="n">
-        <v>415.376160778696</v>
+        <v>415.3761607789073</v>
       </c>
       <c r="W61" t="n">
-        <v>0.3225707537725948</v>
+        <v>0.3225705709696292</v>
       </c>
       <c r="X61" t="n">
         <v>450</v>
@@ -5368,37 +5368,37 @@
         <v>4444.5</v>
       </c>
       <c r="C62" t="n">
-        <v>0.9323087700812922</v>
+        <v>0.9323087700812945</v>
       </c>
       <c r="D62" t="n">
         <v>41.90000000000001</v>
       </c>
       <c r="E62" t="n">
-        <v>415.2869965310832</v>
+        <v>415.2869965311131</v>
       </c>
       <c r="F62" t="n">
-        <v>42.35035853873321</v>
+        <v>42.35035853345518</v>
       </c>
       <c r="G62" t="n">
-        <v>42.43896635786599</v>
+        <v>42.43896634641208</v>
       </c>
       <c r="H62" t="n">
-        <v>-0.08860781913278176</v>
+        <v>-0.08860781295691034</v>
       </c>
       <c r="I62" t="n">
-        <v>0.2779859723190027</v>
+        <v>0.2779859708476057</v>
       </c>
       <c r="J62" t="n">
-        <v>0.2083174284894961</v>
+        <v>0.2083174288126505</v>
       </c>
       <c r="K62" t="n">
-        <v>-0.1288940911448183</v>
+        <v>-0.1288940907609814</v>
       </c>
       <c r="L62" t="n">
-        <v>0.6385343998047638</v>
+        <v>0.638534399882483</v>
       </c>
       <c r="M62" t="n">
-        <v>0.08861538352586489</v>
+        <v>0.08861538352228125</v>
       </c>
       <c r="N62" t="n">
         <v>40.45</v>
@@ -5413,22 +5413,22 @@
         <v>0</v>
       </c>
       <c r="R62" t="n">
-        <v>0.4395517679638348</v>
+        <v>0.4395517682578439</v>
       </c>
       <c r="S62" t="n">
-        <v>-0.3588930878911379</v>
+        <v>-0.3588930877348172</v>
       </c>
       <c r="T62" t="n">
-        <v>0.7890624083598095</v>
+        <v>0.7890624084760723</v>
       </c>
       <c r="U62" t="n">
-        <v>-42.35035853873321</v>
+        <v>-42.35035853345518</v>
       </c>
       <c r="V62" t="n">
-        <v>415.2869965310832</v>
+        <v>415.2869965311131</v>
       </c>
       <c r="W62" t="n">
-        <v>0.3488414529845138</v>
+        <v>0.3488414519560942</v>
       </c>
       <c r="X62" t="n">
         <v>450</v>
@@ -5448,37 +5448,37 @@
         <v>4704.533333333334</v>
       </c>
       <c r="C63" t="n">
-        <v>0.8949815444014055</v>
+        <v>0.8949815444014052</v>
       </c>
       <c r="D63" t="n">
         <v>46.90000000000001</v>
       </c>
       <c r="E63" t="n">
-        <v>415.3205767474718</v>
+        <v>415.3205767474121</v>
       </c>
       <c r="F63" t="n">
-        <v>47.67090085567193</v>
+        <v>47.67090594691275</v>
       </c>
       <c r="G63" t="n">
-        <v>47.73905463312075</v>
+        <v>47.73906567743065</v>
       </c>
       <c r="H63" t="n">
-        <v>-0.06815377744882151</v>
+        <v>-0.06815973051789435</v>
       </c>
       <c r="I63" t="n">
-        <v>0.4058758456711705</v>
+        <v>0.4058777812511639</v>
       </c>
       <c r="J63" t="n">
-        <v>0.1314976688145633</v>
+        <v>0.1314976686001672</v>
       </c>
       <c r="K63" t="n">
-        <v>-0.1285519661433513</v>
+        <v>-0.1285519663202107</v>
       </c>
       <c r="L63" t="n">
-        <v>0.6294950811007957</v>
+        <v>0.6294950811743529</v>
       </c>
       <c r="M63" t="n">
-        <v>0.06732125108290379</v>
+        <v>0.06732125203707184</v>
       </c>
       <c r="N63" t="n">
         <v>40.45</v>
@@ -5493,22 +5493,22 @@
         <v>0</v>
       </c>
       <c r="R63" t="n">
-        <v>0.4403434652128676</v>
+        <v>0.4403434650871599</v>
       </c>
       <c r="S63" t="n">
-        <v>-0.2663508464152626</v>
+        <v>-0.266350846573696</v>
       </c>
       <c r="T63" t="n">
-        <v>0.7748138153952282</v>
+        <v>0.7748138154026696</v>
       </c>
       <c r="U63" t="n">
-        <v>-47.67090085567193</v>
+        <v>-47.67090594691275</v>
       </c>
       <c r="V63" t="n">
-        <v>415.3205767474718</v>
+        <v>415.3205767474121</v>
       </c>
       <c r="W63" t="n">
-        <v>0.5707988044172105</v>
+        <v>0.5707995966809749</v>
       </c>
       <c r="X63" t="n">
         <v>450</v>
@@ -5528,37 +5528,37 @@
         <v>4965.5</v>
       </c>
       <c r="C64" t="n">
-        <v>0.833800777043493</v>
+        <v>0.8338007770434946</v>
       </c>
       <c r="D64" t="n">
         <v>51.90000000000001</v>
       </c>
       <c r="E64" t="n">
-        <v>415.2178141333084</v>
+        <v>415.2178141332375</v>
       </c>
       <c r="F64" t="n">
-        <v>53.0160431214039</v>
+        <v>53.01604338632288</v>
       </c>
       <c r="G64" t="n">
-        <v>53.27214888613017</v>
+        <v>53.27214946097494</v>
       </c>
       <c r="H64" t="n">
-        <v>-0.2561057647262606</v>
+        <v>-0.2561060746520608</v>
       </c>
       <c r="I64" t="n">
-        <v>0.522584401301138</v>
+        <v>0.5225844641773904</v>
       </c>
       <c r="J64" t="n">
-        <v>0.1348572104035242</v>
+        <v>0.1348572105336733</v>
       </c>
       <c r="K64" t="n">
-        <v>-0.1035390549374462</v>
+        <v>-0.1035390549229306</v>
       </c>
       <c r="L64" t="n">
-        <v>0.6449110649525664</v>
+        <v>0.644911065127649</v>
       </c>
       <c r="M64" t="n">
-        <v>0.2560762919262611</v>
+        <v>0.256076292016911</v>
       </c>
       <c r="N64" t="n">
         <v>40.45</v>
@@ -5573,22 +5573,22 @@
         <v>0</v>
       </c>
       <c r="R64" t="n">
-        <v>0.4544080192449782</v>
+        <v>0.4544080194279508</v>
       </c>
       <c r="S64" t="n">
-        <v>-0.3106729151368041</v>
+        <v>-0.3106729150780186</v>
       </c>
       <c r="T64" t="n">
-        <v>0.802058435263555</v>
+        <v>0.8020584354922345</v>
       </c>
       <c r="U64" t="n">
-        <v>-53.0160431214039</v>
+        <v>-53.01604338632288</v>
       </c>
       <c r="V64" t="n">
-        <v>415.2178141333084</v>
+        <v>415.2178141332375</v>
       </c>
       <c r="W64" t="n">
-        <v>0.7301484475645836</v>
+        <v>0.7301485079643113</v>
       </c>
       <c r="X64" t="n">
         <v>450</v>

--- a/publication/analyses/outputs/rmse_z/idpt_bin_r-z_rmse-z.xlsx
+++ b/publication/analyses/outputs/rmse_z/idpt_bin_r-z_rmse-z.xlsx
@@ -568,37 +568,37 @@
         <v>136.9545454545455</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9031694553093585</v>
+        <v>0.9031694553093642</v>
       </c>
       <c r="D2" t="n">
         <v>-48.09999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>149.2878433458782</v>
+        <v>149.2878433458186</v>
       </c>
       <c r="F2" t="n">
-        <v>-47.77155866322609</v>
+        <v>-47.77155866124069</v>
       </c>
       <c r="G2" t="n">
-        <v>-47.8082832843972</v>
+        <v>-47.80828328181187</v>
       </c>
       <c r="H2" t="n">
-        <v>0.03672462117110589</v>
+        <v>0.0367246205711756</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4869755499610376</v>
+        <v>0.4869755503906758</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.05607369421217744</v>
+        <v>-0.05607369434271319</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1928064201660362</v>
+        <v>0.1928064200101789</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7931955403496516</v>
+        <v>0.7931955403349854</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.03673818865280133</v>
+        <v>-0.03673818865213806</v>
       </c>
       <c r="N2" t="n">
         <v>50.18181818181818</v>
@@ -613,22 +613,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2387561485520469</v>
+        <v>0.2387561484518303</v>
       </c>
       <c r="S2" t="n">
-        <v>1.023326445158137</v>
+        <v>1.023326444974934</v>
       </c>
       <c r="T2" t="n">
-        <v>1.228403252449257</v>
+        <v>1.228403252333477</v>
       </c>
       <c r="U2" t="n">
-        <v>47.77155866322609</v>
+        <v>47.77155866124069</v>
       </c>
       <c r="V2" t="n">
-        <v>149.2878433458782</v>
+        <v>149.2878433458186</v>
       </c>
       <c r="W2" t="n">
-        <v>0.6080926861617174</v>
+        <v>0.608092686311496</v>
       </c>
       <c r="X2" t="n">
         <v>150</v>
@@ -648,37 +648,37 @@
         <v>395.953125</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9363323668300543</v>
+        <v>0.9363323668300573</v>
       </c>
       <c r="D3" t="n">
         <v>-43.09999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>148.4388624928171</v>
+        <v>148.4388624926819</v>
       </c>
       <c r="F3" t="n">
-        <v>-43.24514053745244</v>
+        <v>-43.24514074460109</v>
       </c>
       <c r="G3" t="n">
-        <v>-43.1463581034952</v>
+        <v>-43.14635836850329</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.09878243395723639</v>
+        <v>-0.09878237609779972</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3331253872151322</v>
+        <v>0.3331253697636622</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.1842674930980399</v>
+        <v>-0.1842674930625066</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2214328587437486</v>
+        <v>0.2214328588350907</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7803478619403479</v>
+        <v>0.7803478618801082</v>
       </c>
       <c r="M3" t="n">
-        <v>0.09876903239606571</v>
+        <v>0.09876903240193703</v>
       </c>
       <c r="N3" t="n">
         <v>50.96875</v>
@@ -693,22 +693,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.01416800450347689</v>
+        <v>0.01416800457756029</v>
       </c>
       <c r="S3" t="n">
-        <v>1.026003081311478</v>
+        <v>1.026003081314049</v>
       </c>
       <c r="T3" t="n">
-        <v>1.164801898382822</v>
+        <v>1.16480189833012</v>
       </c>
       <c r="U3" t="n">
-        <v>43.24514053745244</v>
+        <v>43.24514074460109</v>
       </c>
       <c r="V3" t="n">
-        <v>148.4388624928171</v>
+        <v>148.4388624926819</v>
       </c>
       <c r="W3" t="n">
-        <v>0.4464847674900723</v>
+        <v>0.4464847502541367</v>
       </c>
       <c r="X3" t="n">
         <v>150</v>
@@ -728,37 +728,37 @@
         <v>656.9545454545455</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9573055830619362</v>
+        <v>0.9573055830619394</v>
       </c>
       <c r="D4" t="n">
         <v>-38.09999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>149.3337207338922</v>
+        <v>149.3337207353526</v>
       </c>
       <c r="F4" t="n">
-        <v>-37.82106964082241</v>
+        <v>-37.82106988293327</v>
       </c>
       <c r="G4" t="n">
-        <v>-37.68519009447498</v>
+        <v>-37.68519041376937</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.1358795463474316</v>
+        <v>-0.135879469163897</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4093452046592525</v>
+        <v>0.4093451676697881</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.2255682719654831</v>
+        <v>-0.2255682724744909</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2120808728467422</v>
+        <v>0.2120808739854968</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8569244004957287</v>
+        <v>0.8569244017863273</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1358598051673276</v>
+        <v>0.1358598052225278</v>
       </c>
       <c r="N4" t="n">
         <v>50.18181818181818</v>
@@ -773,22 +773,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.06937611222876211</v>
+        <v>-0.06937611296059228</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9353143320469859</v>
+        <v>0.935314333485691</v>
       </c>
       <c r="T4" t="n">
-        <v>1.14260851518091</v>
+        <v>1.142608516832746</v>
       </c>
       <c r="U4" t="n">
-        <v>37.82106964082241</v>
+        <v>37.82106988293327</v>
       </c>
       <c r="V4" t="n">
-        <v>149.3337207338922</v>
+        <v>149.3337207353526</v>
       </c>
       <c r="W4" t="n">
-        <v>0.5118683837161545</v>
+        <v>0.5118683573020174</v>
       </c>
       <c r="X4" t="n">
         <v>150</v>
@@ -808,37 +808,37 @@
         <v>917.9545454545455</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9689386457804972</v>
+        <v>0.9689386457804988</v>
       </c>
       <c r="D5" t="n">
         <v>-33.09999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>149.2984252520587</v>
+        <v>149.2984252520079</v>
       </c>
       <c r="F5" t="n">
-        <v>-33.04614239012022</v>
+        <v>-33.04614406368921</v>
       </c>
       <c r="G5" t="n">
-        <v>-32.98388033237012</v>
+        <v>-32.98388251965225</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.06226205775009212</v>
+        <v>-0.06226154403696222</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2174468160567779</v>
+        <v>0.2174466776142045</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.2247531001014944</v>
+        <v>-0.2247531001733075</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2398371896525962</v>
+        <v>0.2398371891206378</v>
       </c>
       <c r="L5" t="n">
-        <v>0.845567755942486</v>
+        <v>0.8455677558700533</v>
       </c>
       <c r="M5" t="n">
-        <v>0.06225078433685707</v>
+        <v>0.06225078456549194</v>
       </c>
       <c r="N5" t="n">
         <v>50.18181818181818</v>
@@ -853,22 +853,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.1096804640859175</v>
+        <v>-0.1096804643879223</v>
       </c>
       <c r="S5" t="n">
-        <v>0.8977156226931133</v>
+        <v>0.8977156221864705</v>
       </c>
       <c r="T5" t="n">
-        <v>1.111636161917867</v>
+        <v>1.111636161638175</v>
       </c>
       <c r="U5" t="n">
-        <v>33.04614239012022</v>
+        <v>33.04614406368921</v>
       </c>
       <c r="V5" t="n">
-        <v>149.2984252520587</v>
+        <v>149.2984252520079</v>
       </c>
       <c r="W5" t="n">
-        <v>0.290909775502467</v>
+        <v>0.2909097615118346</v>
       </c>
       <c r="X5" t="n">
         <v>150</v>
@@ -888,37 +888,37 @@
         <v>1178.954545454545</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9778834975485656</v>
+        <v>0.9778834975485664</v>
       </c>
       <c r="D6" t="n">
         <v>-28.09999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>149.2825176789985</v>
+        <v>149.2825176793018</v>
       </c>
       <c r="F6" t="n">
-        <v>-28.43898565992245</v>
+        <v>-28.43899077095561</v>
       </c>
       <c r="G6" t="n">
-        <v>-28.40995576474833</v>
+        <v>-28.40996244040846</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.02902989517412247</v>
+        <v>-0.02902833054715065</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1778531219381436</v>
+        <v>0.1778528828195909</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.2066203310751851</v>
+        <v>-0.2066203311536768</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2054867657625548</v>
+        <v>0.2054867660214301</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8055063530103841</v>
+        <v>0.8055063531958524</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02902071001414925</v>
+        <v>0.02902071088295053</v>
       </c>
       <c r="N6" t="n">
         <v>50.18181818181818</v>
@@ -933,22 +933,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.1687020374426209</v>
+        <v>-0.1687020375217526</v>
       </c>
       <c r="S6" t="n">
-        <v>0.7716006796472409</v>
+        <v>0.7716006801057084</v>
       </c>
       <c r="T6" t="n">
-        <v>1.018260845549219</v>
+        <v>1.018260845887511</v>
       </c>
       <c r="U6" t="n">
-        <v>28.43898565992245</v>
+        <v>28.43899077095561</v>
       </c>
       <c r="V6" t="n">
-        <v>149.2825176789985</v>
+        <v>149.2825176793018</v>
       </c>
       <c r="W6" t="n">
-        <v>0.2444622677217396</v>
+        <v>0.2444623566020603</v>
       </c>
       <c r="X6" t="n">
         <v>150</v>
@@ -968,37 +968,37 @@
         <v>1439.954545454545</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9832878008450031</v>
+        <v>0.9832878008450041</v>
       </c>
       <c r="D7" t="n">
         <v>-23.09999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>149.145782820348</v>
+        <v>149.1457828202938</v>
       </c>
       <c r="F7" t="n">
-        <v>-22.93043053032644</v>
+        <v>-22.9304304735576</v>
       </c>
       <c r="G7" t="n">
-        <v>-22.86769740813532</v>
+        <v>-22.86769733400464</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.06273312219112313</v>
+        <v>-0.06273313955296445</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1550858943003285</v>
+        <v>0.1550858994053476</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.1487670307951983</v>
+        <v>-0.1487670307520959</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1879467667764771</v>
+        <v>0.1879467668453154</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7869212105878681</v>
+        <v>0.786921210611856</v>
       </c>
       <c r="M7" t="n">
-        <v>0.06272866523980991</v>
+        <v>0.06272866524036984</v>
       </c>
       <c r="N7" t="n">
         <v>50.18181818181818</v>
@@ -1013,22 +1013,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.1263008674719315</v>
+        <v>-0.126300867458684</v>
       </c>
       <c r="S7" t="n">
-        <v>0.5873963517596668</v>
+        <v>0.5873963517246852</v>
       </c>
       <c r="T7" t="n">
-        <v>0.9093434149187405</v>
+        <v>0.9093434148672929</v>
       </c>
       <c r="U7" t="n">
-        <v>22.93043053032644</v>
+        <v>22.9304304735576</v>
       </c>
       <c r="V7" t="n">
-        <v>149.145782820348</v>
+        <v>149.1457828202938</v>
       </c>
       <c r="W7" t="n">
-        <v>0.1882299097324363</v>
+        <v>0.1882299103373922</v>
       </c>
       <c r="X7" t="n">
         <v>150</v>
@@ -1048,37 +1048,37 @@
         <v>1695.112903225806</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9844128345596413</v>
+        <v>0.9844128345596418</v>
       </c>
       <c r="D8" t="n">
         <v>-18.09999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>148.4201273714244</v>
+        <v>148.4201273714849</v>
       </c>
       <c r="F8" t="n">
-        <v>-18.21796946574603</v>
+        <v>-18.21796946333814</v>
       </c>
       <c r="G8" t="n">
-        <v>-18.20520396847115</v>
+        <v>-18.20520396538731</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.01276549727488349</v>
+        <v>-0.01276549795082555</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1562869469663442</v>
+        <v>0.1562869476430704</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.1808856072395764</v>
+        <v>-0.1808856071729747</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1409368704260133</v>
+        <v>0.1409368704047965</v>
       </c>
       <c r="L8" t="n">
-        <v>0.701484210269245</v>
+        <v>0.7014842103314245</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01304149492879682</v>
+        <v>0.01304149492820083</v>
       </c>
       <c r="N8" t="n">
         <v>50.03225806451613</v>
@@ -1093,22 +1093,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.1843616455250532</v>
+        <v>-0.1843616456008833</v>
       </c>
       <c r="S8" t="n">
-        <v>0.3485629856383319</v>
+        <v>0.3485629855587145</v>
       </c>
       <c r="T8" t="n">
-        <v>0.7449267845933398</v>
+        <v>0.7449267846534957</v>
       </c>
       <c r="U8" t="n">
-        <v>18.21796946574603</v>
+        <v>18.21796946333814</v>
       </c>
       <c r="V8" t="n">
-        <v>148.4201273714244</v>
+        <v>148.4201273714849</v>
       </c>
       <c r="W8" t="n">
-        <v>0.1959415126000545</v>
+        <v>0.1959415129845394</v>
       </c>
       <c r="X8" t="n">
         <v>150</v>
@@ -1128,37 +1128,37 @@
         <v>1915.452380952381</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9820034291284172</v>
+        <v>0.9820034291284174</v>
       </c>
       <c r="D9" t="n">
         <v>-13.09999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>147.1050737194527</v>
+        <v>147.1050737194702</v>
       </c>
       <c r="F9" t="n">
-        <v>-13.61247443413641</v>
+        <v>-13.61247447183834</v>
       </c>
       <c r="G9" t="n">
-        <v>-13.53538230868667</v>
+        <v>-13.53538236173275</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.07709212544974109</v>
+        <v>-0.07709211010559584</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1712028521235715</v>
+        <v>0.1712028429703294</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.1974473840410574</v>
+        <v>-0.1974473839281555</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1463844342697052</v>
+        <v>0.1463844343504201</v>
       </c>
       <c r="L9" t="n">
-        <v>0.6569189703341999</v>
+        <v>0.6569189703531211</v>
       </c>
       <c r="M9" t="n">
-        <v>0.07582101091560071</v>
+        <v>0.0758210109237883</v>
       </c>
       <c r="N9" t="n">
         <v>46.47619047619047</v>
@@ -1173,22 +1173,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.1859249696634687</v>
+        <v>-0.1859249695492554</v>
       </c>
       <c r="S9" t="n">
-        <v>0.3639042721557813</v>
+        <v>0.3639042723034361</v>
       </c>
       <c r="T9" t="n">
-        <v>0.7172531280547757</v>
+        <v>0.717253128087738</v>
       </c>
       <c r="U9" t="n">
-        <v>13.61247443413641</v>
+        <v>13.61247447183834</v>
       </c>
       <c r="V9" t="n">
-        <v>147.1050737194527</v>
+        <v>147.1050737194702</v>
       </c>
       <c r="W9" t="n">
-        <v>0.2819077340684246</v>
+        <v>0.2819077330794003</v>
       </c>
       <c r="X9" t="n">
         <v>150</v>
@@ -1208,37 +1208,37 @@
         <v>2084.321428571428</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9767894133164196</v>
+        <v>0.9767894133164197</v>
       </c>
       <c r="D10" t="n">
         <v>-8.099999999999994</v>
       </c>
       <c r="E10" t="n">
-        <v>143.2645534029742</v>
+        <v>143.2645534030977</v>
       </c>
       <c r="F10" t="n">
-        <v>-8.548833859202317</v>
+        <v>-8.548833370402608</v>
       </c>
       <c r="G10" t="n">
-        <v>-8.412366981061535</v>
+        <v>-8.412366091911087</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.1364668781407816</v>
+        <v>-0.1364672784915211</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1737556418446798</v>
+        <v>0.1737558695285309</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.05721486612033999</v>
+        <v>-0.05721486613359771</v>
       </c>
       <c r="K10" t="n">
-        <v>0.05913984017363865</v>
+        <v>0.05913984021509781</v>
       </c>
       <c r="L10" t="n">
-        <v>0.643729466043783</v>
+        <v>0.6437294660604768</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1353623264186324</v>
+        <v>0.1353623264454733</v>
       </c>
       <c r="N10" t="n">
         <v>43.96428571428572</v>
@@ -1253,22 +1253,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.08552303258700229</v>
+        <v>-0.0855230325549903</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1550151478911549</v>
+        <v>0.1550151479693105</v>
       </c>
       <c r="T10" t="n">
-        <v>0.6596606276361773</v>
+        <v>0.6596606276535141</v>
       </c>
       <c r="U10" t="n">
-        <v>8.548833859202317</v>
+        <v>8.548833370402608</v>
       </c>
       <c r="V10" t="n">
-        <v>143.2645534029742</v>
+        <v>143.2645534030977</v>
       </c>
       <c r="W10" t="n">
-        <v>0.1871867846861847</v>
+        <v>0.1871870302575588</v>
       </c>
       <c r="X10" t="n">
         <v>150</v>
@@ -1294,31 +1294,31 @@
         <v>-3.099999999999994</v>
       </c>
       <c r="E11" t="n">
-        <v>185.6305682809677</v>
+        <v>185.6305682810123</v>
       </c>
       <c r="F11" t="n">
-        <v>-4.414231298361277</v>
+        <v>-4.414231299952392</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.162115872956935</v>
+        <v>-4.162115875790267</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.2521154254043415</v>
+        <v>-0.2521154241621252</v>
       </c>
       <c r="I11" t="n">
-        <v>0.356088503598176</v>
+        <v>0.3560885035782011</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.002220436251356261</v>
+        <v>-0.002220436226529898</v>
       </c>
       <c r="K11" t="n">
-        <v>0.07660547803538501</v>
+        <v>0.07660547801172868</v>
       </c>
       <c r="L11" t="n">
-        <v>0.5850243241169695</v>
+        <v>0.5850243241681636</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2520332204553108</v>
+        <v>0.2520332204546853</v>
       </c>
       <c r="N11" t="n">
         <v>34.75</v>
@@ -1333,22 +1333,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0.1009390817991616</v>
+        <v>0.1009390818649199</v>
       </c>
       <c r="S11" t="n">
-        <v>0.0778421940472498</v>
+        <v>0.07784219401396797</v>
       </c>
       <c r="T11" t="n">
-        <v>0.5786711843944247</v>
+        <v>0.5786711844475421</v>
       </c>
       <c r="U11" t="n">
-        <v>4.414231298361277</v>
+        <v>4.414231299952392</v>
       </c>
       <c r="V11" t="n">
-        <v>185.6305682809677</v>
+        <v>185.6305682810123</v>
       </c>
       <c r="W11" t="n">
-        <v>0.3700926405109633</v>
+        <v>0.3700926400325167</v>
       </c>
       <c r="X11" t="n">
         <v>150</v>
@@ -1374,31 +1374,31 @@
         <v>1.900000000000006</v>
       </c>
       <c r="E12" t="n">
-        <v>149.0704048992446</v>
+        <v>149.0704048992995</v>
       </c>
       <c r="F12" t="n">
-        <v>2.482042468784713</v>
+        <v>2.482042513832987</v>
       </c>
       <c r="G12" t="n">
         <v>1.5</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9820424687847127</v>
+        <v>0.9820425138329876</v>
       </c>
       <c r="I12" t="n">
-        <v>1.477917651182878</v>
+        <v>1.47791768533581</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.1070891290055972</v>
+        <v>-0.1070891289660704</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2162202544245904</v>
+        <v>0.2162202544790115</v>
       </c>
       <c r="L12" t="n">
-        <v>0.7283568278478751</v>
+        <v>0.7283568278931257</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2241780577386283</v>
+        <v>0.2241780577498951</v>
       </c>
       <c r="N12" t="n">
         <v>50.18181818181818</v>
@@ -1413,22 +1413,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.1004271328184534</v>
+        <v>-0.100427132763584</v>
       </c>
       <c r="S12" t="n">
-        <v>0.1900535769638997</v>
+        <v>0.1900535770108787</v>
       </c>
       <c r="T12" t="n">
-        <v>0.72124528642958</v>
+        <v>0.7212452864707891</v>
       </c>
       <c r="U12" t="n">
-        <v>-2.482042468784713</v>
+        <v>-2.482042513832987</v>
       </c>
       <c r="V12" t="n">
-        <v>149.0704048992446</v>
+        <v>149.0704048992995</v>
       </c>
       <c r="W12" t="n">
-        <v>1.765232486673549</v>
+        <v>1.765232517496457</v>
       </c>
       <c r="X12" t="n">
         <v>150</v>
@@ -1454,31 +1454,31 @@
         <v>6.900000000000007</v>
       </c>
       <c r="E13" t="n">
-        <v>148.1094431471088</v>
+        <v>148.1094431472103</v>
       </c>
       <c r="F13" t="n">
-        <v>6.960924232768805</v>
+        <v>6.96092475501137</v>
       </c>
       <c r="G13" t="n">
-        <v>6.8835898764683</v>
+        <v>6.883590572356015</v>
       </c>
       <c r="H13" t="n">
-        <v>0.07733435630050418</v>
+        <v>0.07733418265535494</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1102651145275987</v>
+        <v>0.1102649744136058</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.09456971636480317</v>
+        <v>-0.09456971632190038</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2474637105907771</v>
+        <v>0.2474637106584442</v>
       </c>
       <c r="L13" t="n">
-        <v>0.7303560472982847</v>
+        <v>0.730356047343509</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.07672121992315528</v>
+        <v>-0.07672121970952468</v>
       </c>
       <c r="N13" t="n">
         <v>49.19047619047619</v>
@@ -1493,22 +1493,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.04648410051593706</v>
+        <v>-0.04648410046642598</v>
       </c>
       <c r="S13" t="n">
-        <v>0.222456018437959</v>
+        <v>0.2224560185132251</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7140886019715884</v>
+        <v>0.7140886020194098</v>
       </c>
       <c r="U13" t="n">
-        <v>-6.960924232768805</v>
+        <v>-6.96092475501137</v>
       </c>
       <c r="V13" t="n">
-        <v>148.1094431471088</v>
+        <v>148.1094431472103</v>
       </c>
       <c r="W13" t="n">
-        <v>0.1364845747016104</v>
+        <v>0.1364844754562181</v>
       </c>
       <c r="X13" t="n">
         <v>150</v>
@@ -1534,31 +1534,31 @@
         <v>11.90000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>149.0476525762481</v>
+        <v>149.0476525762093</v>
       </c>
       <c r="F14" t="n">
-        <v>12.34756151724115</v>
+        <v>12.34756048993777</v>
       </c>
       <c r="G14" t="n">
-        <v>12.29422759721204</v>
+        <v>12.29422626908773</v>
       </c>
       <c r="H14" t="n">
-        <v>0.05333392002911043</v>
+        <v>0.05333422085003858</v>
       </c>
       <c r="I14" t="n">
-        <v>0.08095242931617062</v>
+        <v>0.08095264277530097</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.1022317781951343</v>
+        <v>-0.1022317781723598</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2431191713094643</v>
+        <v>0.243119171325101</v>
       </c>
       <c r="L14" t="n">
-        <v>0.7625910907028962</v>
+        <v>0.7625910907587509</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.05333043645922161</v>
+        <v>-0.05333043683257942</v>
       </c>
       <c r="N14" t="n">
         <v>50.18181818181818</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.03633340344954315</v>
+        <v>-0.03633340345492046</v>
       </c>
       <c r="S14" t="n">
-        <v>0.1612108337244282</v>
+        <v>0.1612108337329224</v>
       </c>
       <c r="T14" t="n">
-        <v>0.7357687739331998</v>
+        <v>0.7357687739949735</v>
       </c>
       <c r="U14" t="n">
-        <v>-12.34756151724115</v>
+        <v>-12.34756048993777</v>
       </c>
       <c r="V14" t="n">
-        <v>149.0476525762481</v>
+        <v>149.0476525762093</v>
       </c>
       <c r="W14" t="n">
-        <v>0.09669957856845975</v>
+        <v>0.09669986882884185</v>
       </c>
       <c r="X14" t="n">
         <v>150</v>
@@ -1614,31 +1614,31 @@
         <v>16.90000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>149.0165900209454</v>
+        <v>149.0165900209954</v>
       </c>
       <c r="F15" t="n">
-        <v>17.04379066423665</v>
+        <v>17.04379066284796</v>
       </c>
       <c r="G15" t="n">
-        <v>17.00709991497616</v>
+        <v>17.0070999131628</v>
       </c>
       <c r="H15" t="n">
-        <v>0.03669074926048698</v>
+        <v>0.03669074968516513</v>
       </c>
       <c r="I15" t="n">
-        <v>0.08205086699211918</v>
+        <v>0.08205086726275543</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.09440334464440353</v>
+        <v>-0.09440334466062802</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2234724126275572</v>
+        <v>0.2234724127376288</v>
       </c>
       <c r="L15" t="n">
-        <v>0.7768356577831868</v>
+        <v>0.7768356579538828</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.03668781393039545</v>
+        <v>-0.03668781393077559</v>
       </c>
       <c r="N15" t="n">
         <v>50.18181818181818</v>
@@ -1653,22 +1653,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.0148702537011943</v>
+        <v>0.01487025373522414</v>
       </c>
       <c r="S15" t="n">
-        <v>0.1175500582333028</v>
+        <v>0.1175500583380859</v>
       </c>
       <c r="T15" t="n">
-        <v>0.7482529006406249</v>
+        <v>0.7482529007917171</v>
       </c>
       <c r="U15" t="n">
-        <v>-17.04379066423665</v>
+        <v>-17.04379066284796</v>
       </c>
       <c r="V15" t="n">
-        <v>149.0165900209454</v>
+        <v>149.0165900209954</v>
       </c>
       <c r="W15" t="n">
-        <v>0.1024487856650398</v>
+        <v>0.1024487861056475</v>
       </c>
       <c r="X15" t="n">
         <v>150</v>
@@ -1694,31 +1694,31 @@
         <v>21.90000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>149.0392810483402</v>
+        <v>149.0392810484562</v>
       </c>
       <c r="F16" t="n">
-        <v>22.16988645642637</v>
+        <v>22.16988600887944</v>
       </c>
       <c r="G16" t="n">
-        <v>22.14348801756694</v>
+        <v>22.14348743371205</v>
       </c>
       <c r="H16" t="n">
-        <v>0.02639843885943552</v>
+        <v>0.0263985751673899</v>
       </c>
       <c r="I16" t="n">
-        <v>0.09369842526575953</v>
+        <v>0.09369843747531674</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.1199148809540121</v>
+        <v>-0.1199148808623318</v>
       </c>
       <c r="K16" t="n">
-        <v>0.21448857554916</v>
+        <v>0.2144885757454885</v>
       </c>
       <c r="L16" t="n">
-        <v>0.7930349396303075</v>
+        <v>0.7930349397071487</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.02639793955115847</v>
+        <v>-0.02639793964531002</v>
       </c>
       <c r="N16" t="n">
         <v>50.18181818181818</v>
@@ -1733,22 +1733,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0.05771911810580013</v>
+        <v>0.05771911820824792</v>
       </c>
       <c r="S16" t="n">
-        <v>0.1147793517957097</v>
+        <v>0.1147793520354253</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7566718478030113</v>
+        <v>0.7566718478546423</v>
       </c>
       <c r="U16" t="n">
-        <v>-22.16988645642637</v>
+        <v>-22.16988600887944</v>
       </c>
       <c r="V16" t="n">
-        <v>149.0392810483402</v>
+        <v>149.0392810484562</v>
       </c>
       <c r="W16" t="n">
-        <v>0.1370910873533422</v>
+        <v>0.1370911312716598</v>
       </c>
       <c r="X16" t="n">
         <v>150</v>
@@ -1774,31 +1774,31 @@
         <v>26.90000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>149.1275755534606</v>
+        <v>149.127575553608</v>
       </c>
       <c r="F17" t="n">
-        <v>27.877212494682</v>
+        <v>27.87721249689194</v>
       </c>
       <c r="G17" t="n">
-        <v>27.84518183297603</v>
+        <v>27.8451818358611</v>
       </c>
       <c r="H17" t="n">
-        <v>0.03203066170596772</v>
+        <v>0.03203066103083069</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1157736226642509</v>
+        <v>0.1157736226063736</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.1342058892181891</v>
+        <v>-0.134205889073592</v>
       </c>
       <c r="K17" t="n">
-        <v>0.2326162530585525</v>
+        <v>0.2326162530559372</v>
       </c>
       <c r="L17" t="n">
-        <v>0.7893068853465033</v>
+        <v>0.7893068853272353</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.03202975668749194</v>
+        <v>-0.03202975668699736</v>
       </c>
       <c r="N17" t="n">
         <v>50.18181818181818</v>
@@ -1813,22 +1813,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0.09722142988580283</v>
+        <v>0.09722142998489985</v>
       </c>
       <c r="S17" t="n">
-        <v>0.1211748748320171</v>
+        <v>0.121174874862278</v>
       </c>
       <c r="T17" t="n">
-        <v>0.7359056793792839</v>
+        <v>0.7359056794085428</v>
       </c>
       <c r="U17" t="n">
-        <v>-27.877212494682</v>
+        <v>-27.87721249689194</v>
       </c>
       <c r="V17" t="n">
-        <v>149.1275755534606</v>
+        <v>149.127575553608</v>
       </c>
       <c r="W17" t="n">
-        <v>0.1697684288704619</v>
+        <v>0.1697684288080066</v>
       </c>
       <c r="X17" t="n">
         <v>150</v>
@@ -1854,31 +1854,31 @@
         <v>31.90000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>149.1245503952668</v>
+        <v>149.1245503951276</v>
       </c>
       <c r="F18" t="n">
-        <v>32.69718445828426</v>
+        <v>32.69718093125866</v>
       </c>
       <c r="G18" t="n">
-        <v>32.63277172154561</v>
+        <v>32.63276711592759</v>
       </c>
       <c r="H18" t="n">
-        <v>0.06441273673864752</v>
+        <v>0.06441381533106731</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1428656232074725</v>
+        <v>0.1428664822984074</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.2008291303601908</v>
+        <v>-0.2008291300607784</v>
       </c>
       <c r="K18" t="n">
-        <v>0.2439977625391572</v>
+        <v>0.2439977623194303</v>
       </c>
       <c r="L18" t="n">
-        <v>0.8002736691857963</v>
+        <v>0.8002736691031095</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.06440904358094134</v>
+        <v>-0.06440904350251206</v>
       </c>
       <c r="N18" t="n">
         <v>50.18181818181818</v>
@@ -1893,22 +1893,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.05213689905171662</v>
+        <v>0.05213689943826434</v>
       </c>
       <c r="S18" t="n">
-        <v>0.1683637960905953</v>
+        <v>0.1683637959512458</v>
       </c>
       <c r="T18" t="n">
-        <v>0.7400679993785387</v>
+        <v>0.740067999366674</v>
       </c>
       <c r="U18" t="n">
-        <v>-32.69718445828426</v>
+        <v>-32.69718093125866</v>
       </c>
       <c r="V18" t="n">
-        <v>149.1245503952668</v>
+        <v>149.1245503951276</v>
       </c>
       <c r="W18" t="n">
-        <v>0.1757876889982048</v>
+        <v>0.1757884944406604</v>
       </c>
       <c r="X18" t="n">
         <v>150</v>
@@ -1928,37 +1928,37 @@
         <v>4197.954545454545</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9630893707370036</v>
+        <v>0.9630893707370043</v>
       </c>
       <c r="D19" t="n">
         <v>36.90000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>149.0786375618914</v>
+        <v>149.078637560777</v>
       </c>
       <c r="F19" t="n">
-        <v>37.73366916633602</v>
+        <v>37.73367919436262</v>
       </c>
       <c r="G19" t="n">
-        <v>37.69291322976678</v>
+        <v>37.69292631788438</v>
       </c>
       <c r="H19" t="n">
-        <v>0.04075593656924598</v>
+        <v>0.04075287647824292</v>
       </c>
       <c r="I19" t="n">
-        <v>0.170682716549108</v>
+        <v>0.1706813571946152</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.1898798220463509</v>
+        <v>-0.1898798220025767</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2267351384825609</v>
+        <v>0.2267351374559106</v>
       </c>
       <c r="L19" t="n">
-        <v>0.7783510035557729</v>
+        <v>0.7783510024301947</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.04074956325718939</v>
+        <v>-0.04074956356781059</v>
       </c>
       <c r="N19" t="n">
         <v>50.18181818181818</v>
@@ -1973,22 +1973,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0.1035494758878315</v>
+        <v>0.1035494759019403</v>
       </c>
       <c r="S19" t="n">
-        <v>0.135051811512786</v>
+        <v>0.1350518100900641</v>
       </c>
       <c r="T19" t="n">
-        <v>0.720121541053833</v>
+        <v>0.7201215397238013</v>
       </c>
       <c r="U19" t="n">
-        <v>-37.73366916633602</v>
+        <v>-37.73367919436262</v>
       </c>
       <c r="V19" t="n">
-        <v>149.0786375618914</v>
+        <v>149.078637560777</v>
       </c>
       <c r="W19" t="n">
-        <v>0.2187411329553209</v>
+        <v>0.2187397580005803</v>
       </c>
       <c r="X19" t="n">
         <v>150</v>
@@ -2008,37 +2008,37 @@
         <v>4458.954545454545</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9481543443077066</v>
+        <v>0.9481543443077105</v>
       </c>
       <c r="D20" t="n">
         <v>41.90000000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>149.0351192884869</v>
+        <v>149.0351192883237</v>
       </c>
       <c r="F20" t="n">
-        <v>42.56668629148376</v>
+        <v>42.56668629231149</v>
       </c>
       <c r="G20" t="n">
-        <v>42.43896634641209</v>
+        <v>42.43896634748509</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1277199450716796</v>
+        <v>0.1277199448263959</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2364848116116219</v>
+        <v>0.2364848114063517</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.198583107265782</v>
+        <v>-0.1985831076730987</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2300517292966105</v>
+        <v>0.2300517288824821</v>
       </c>
       <c r="L20" t="n">
-        <v>0.7982418210137721</v>
+        <v>0.7982418210988266</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.1277112621338363</v>
+        <v>-0.1277112621339509</v>
       </c>
       <c r="N20" t="n">
         <v>50.18181818181818</v>
@@ -2053,22 +2053,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0.03837164930405078</v>
+        <v>0.03837164890907428</v>
       </c>
       <c r="S20" t="n">
-        <v>-0.003635936595128263</v>
+        <v>-0.003635936990796343</v>
       </c>
       <c r="T20" t="n">
-        <v>0.7388174011362735</v>
+        <v>0.7388174012100274</v>
       </c>
       <c r="U20" t="n">
-        <v>-42.56668629148376</v>
+        <v>-42.56668629231149</v>
       </c>
       <c r="V20" t="n">
-        <v>149.0351192884869</v>
+        <v>149.0351192883237</v>
       </c>
       <c r="W20" t="n">
-        <v>0.2956531657678652</v>
+        <v>0.2956531655492407</v>
       </c>
       <c r="X20" t="n">
         <v>150</v>
@@ -2088,37 +2088,37 @@
         <v>4718.954545454545</v>
       </c>
       <c r="C21" t="n">
-        <v>0.917269291649472</v>
+        <v>0.9172692916494719</v>
       </c>
       <c r="D21" t="n">
         <v>46.90000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>149.0552815075829</v>
+        <v>149.0552815076262</v>
       </c>
       <c r="F21" t="n">
-        <v>47.8294684948191</v>
+        <v>47.8294615837215</v>
       </c>
       <c r="G21" t="n">
-        <v>47.73906567743065</v>
+        <v>47.7390566550323</v>
       </c>
       <c r="H21" t="n">
-        <v>0.09040281738845113</v>
+        <v>0.09040492868920216</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3522981827270814</v>
+        <v>0.3522986745126599</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.1462044218581625</v>
+        <v>-0.1462044219772352</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2347031037578319</v>
+        <v>0.2347031037641566</v>
       </c>
       <c r="L21" t="n">
-        <v>0.7153931983250897</v>
+        <v>0.7153931984528845</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.09100877024437688</v>
+        <v>-0.09100877140608465</v>
       </c>
       <c r="N21" t="n">
         <v>50.18181818181818</v>
@@ -2133,22 +2133,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.167799286532618</v>
+        <v>0.1677992864804215</v>
       </c>
       <c r="S21" t="n">
-        <v>0.09358048535547038</v>
+        <v>0.09358048542042562</v>
       </c>
       <c r="T21" t="n">
-        <v>0.6796184808436434</v>
+        <v>0.6796184810257914</v>
       </c>
       <c r="U21" t="n">
-        <v>-47.8294684948191</v>
+        <v>-47.8294615837215</v>
       </c>
       <c r="V21" t="n">
-        <v>149.0552815075829</v>
+        <v>149.0552815076262</v>
       </c>
       <c r="W21" t="n">
-        <v>0.4407290504418727</v>
+        <v>0.4407294902746843</v>
       </c>
       <c r="X21" t="n">
         <v>150</v>
@@ -2168,37 +2168,37 @@
         <v>4979.954545454545</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8666223389210791</v>
+        <v>0.8666223389210875</v>
       </c>
       <c r="D22" t="n">
         <v>51.90000000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>149.0238187767136</v>
+        <v>149.0238187766414</v>
       </c>
       <c r="F22" t="n">
-        <v>53.34342316434687</v>
+        <v>53.34342317413395</v>
       </c>
       <c r="G22" t="n">
-        <v>53.27214946097494</v>
+        <v>53.27214947375982</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0712737033719323</v>
+        <v>0.07127370037412957</v>
       </c>
       <c r="I22" t="n">
-        <v>0.4929080321818752</v>
+        <v>0.4929080299013191</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.1041000702259219</v>
+        <v>-0.1041000705296932</v>
       </c>
       <c r="K22" t="n">
-        <v>0.2177301749797791</v>
+        <v>0.2177301746537261</v>
       </c>
       <c r="L22" t="n">
-        <v>0.6918427690729924</v>
+        <v>0.6918427689491432</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.07125411929200041</v>
+        <v>-0.07125411928924061</v>
       </c>
       <c r="N22" t="n">
         <v>50.18181818181818</v>
@@ -2213,22 +2213,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0.2173104457601418</v>
+        <v>0.2173104454810897</v>
       </c>
       <c r="S22" t="n">
-        <v>0.009400719549859542</v>
+        <v>0.009400719132368743</v>
       </c>
       <c r="T22" t="n">
-        <v>0.6744837678128374</v>
+        <v>0.67448376740802</v>
       </c>
       <c r="U22" t="n">
-        <v>-53.34342316434687</v>
+        <v>-53.34342317413395</v>
       </c>
       <c r="V22" t="n">
-        <v>149.0238187767136</v>
+        <v>149.0238187766414</v>
       </c>
       <c r="W22" t="n">
-        <v>0.5987605897204263</v>
+        <v>0.5987605880202904</v>
       </c>
       <c r="X22" t="n">
         <v>150</v>
@@ -2248,37 +2248,37 @@
         <v>129.9333333333333</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8915527531498173</v>
+        <v>0.8915527531498199</v>
       </c>
       <c r="D23" t="n">
         <v>-48.09999999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>308.5870349755199</v>
+        <v>308.5870349755036</v>
       </c>
       <c r="F23" t="n">
-        <v>-47.83552901861364</v>
+        <v>-47.83552901643182</v>
       </c>
       <c r="G23" t="n">
-        <v>-47.8082832843972</v>
+        <v>-47.80828328181187</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.02724573421644199</v>
+        <v>-0.02724573461994909</v>
       </c>
       <c r="I23" t="n">
-        <v>0.5377379983132534</v>
+        <v>0.5377379984173845</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.01968942654435929</v>
+        <v>-0.01968942647657278</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.03130480294768187</v>
+        <v>-0.03130480263851915</v>
       </c>
       <c r="L23" t="n">
-        <v>0.6496056905199324</v>
+        <v>0.6496056905316644</v>
       </c>
       <c r="M23" t="n">
-        <v>0.02721587939932141</v>
+        <v>0.02721587939918283</v>
       </c>
       <c r="N23" t="n">
         <v>50.71111111111111</v>
@@ -2293,22 +2293,22 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0.2792388841582177</v>
+        <v>0.2792388842520545</v>
       </c>
       <c r="S23" t="n">
-        <v>0.8133930971993956</v>
+        <v>0.8133930974665321</v>
       </c>
       <c r="T23" t="n">
-        <v>1.057868326277907</v>
+        <v>1.057868326378205</v>
       </c>
       <c r="U23" t="n">
-        <v>47.83552901861364</v>
+        <v>47.83552901643182</v>
       </c>
       <c r="V23" t="n">
-        <v>308.5870349755199</v>
+        <v>308.5870349755036</v>
       </c>
       <c r="W23" t="n">
-        <v>0.6448802143103912</v>
+        <v>0.6448802145984255</v>
       </c>
       <c r="X23" t="n">
         <v>300</v>
@@ -2328,37 +2328,37 @@
         <v>390.3037037037037</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9252411134718892</v>
+        <v>0.9252411134718921</v>
       </c>
       <c r="D24" t="n">
         <v>-43.09999999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>308.566934973798</v>
+        <v>308.5669349733927</v>
       </c>
       <c r="F24" t="n">
-        <v>-43.1121031558302</v>
+        <v>-43.11210337838208</v>
       </c>
       <c r="G24" t="n">
-        <v>-43.1463581034952</v>
+        <v>-43.14635836850329</v>
       </c>
       <c r="H24" t="n">
-        <v>0.03425494766499986</v>
+        <v>0.03425499012120015</v>
       </c>
       <c r="I24" t="n">
-        <v>0.4179406057507558</v>
+        <v>0.4179405980005625</v>
       </c>
       <c r="J24" t="n">
-        <v>0.01139141244427804</v>
+        <v>0.01139141240003617</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.03733178144244365</v>
+        <v>-0.03733178147356479</v>
       </c>
       <c r="L24" t="n">
-        <v>0.6241590930440697</v>
+        <v>0.6241590932288913</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.03430390960494084</v>
+        <v>-0.03430390958996527</v>
       </c>
       <c r="N24" t="n">
         <v>50.71111111111111</v>
@@ -2373,22 +2373,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.2123049574662804</v>
+        <v>0.2123049574600022</v>
       </c>
       <c r="S24" t="n">
-        <v>0.7747577571532959</v>
+        <v>0.7747577570242805</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9829481232025395</v>
+        <v>0.982948123132932</v>
       </c>
       <c r="U24" t="n">
-        <v>43.1121031558302</v>
+        <v>43.11210337838208</v>
       </c>
       <c r="V24" t="n">
-        <v>308.566934973798</v>
+        <v>308.5669349733927</v>
       </c>
       <c r="W24" t="n">
-        <v>0.5453481853978954</v>
+        <v>0.5453481789334329</v>
       </c>
       <c r="X24" t="n">
         <v>300</v>
@@ -2408,37 +2408,37 @@
         <v>649.9333333333333</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9509430623369406</v>
+        <v>0.950943062336942</v>
       </c>
       <c r="D25" t="n">
         <v>-38.09999999999999</v>
       </c>
       <c r="E25" t="n">
-        <v>308.5865516447028</v>
+        <v>308.5865516449712</v>
       </c>
       <c r="F25" t="n">
-        <v>-37.66980884196366</v>
+        <v>-37.6698091077253</v>
       </c>
       <c r="G25" t="n">
-        <v>-37.68519009447498</v>
+        <v>-37.68519041376937</v>
       </c>
       <c r="H25" t="n">
-        <v>0.01538125251130985</v>
+        <v>0.01538130604407026</v>
       </c>
       <c r="I25" t="n">
-        <v>0.3536492225031188</v>
+        <v>0.3536492126320511</v>
       </c>
       <c r="J25" t="n">
-        <v>0.01642188354206911</v>
+        <v>0.01642188377525228</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.05437846811797163</v>
+        <v>-0.05437846836266313</v>
       </c>
       <c r="L25" t="n">
-        <v>0.5641088684991249</v>
+        <v>0.5641088685141792</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.01538116021762851</v>
+        <v>-0.01538116019166096</v>
       </c>
       <c r="N25" t="n">
         <v>50.71111111111111</v>
@@ -2453,22 +2453,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0.1744611235838579</v>
+        <v>0.1744611235979954</v>
       </c>
       <c r="S25" t="n">
-        <v>0.6752406792279603</v>
+        <v>0.67524067929627</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8605565403849127</v>
+        <v>0.8605565403914287</v>
       </c>
       <c r="U25" t="n">
-        <v>37.66980884196366</v>
+        <v>37.6698091077253</v>
       </c>
       <c r="V25" t="n">
-        <v>308.5865516447028</v>
+        <v>308.5865516449712</v>
       </c>
       <c r="W25" t="n">
-        <v>0.4424721665375829</v>
+        <v>0.4424721371086607</v>
       </c>
       <c r="X25" t="n">
         <v>300</v>
@@ -2494,31 +2494,31 @@
         <v>-33.09999999999999</v>
       </c>
       <c r="E26" t="n">
-        <v>308.5963950708129</v>
+        <v>308.5963950707707</v>
       </c>
       <c r="F26" t="n">
-        <v>-32.98103364079348</v>
+        <v>-32.98103547890749</v>
       </c>
       <c r="G26" t="n">
-        <v>-32.98388033237012</v>
+        <v>-32.98388251965225</v>
       </c>
       <c r="H26" t="n">
-        <v>0.002846691576642025</v>
+        <v>0.002847040744763647</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2088194504871399</v>
+        <v>0.208819860610369</v>
       </c>
       <c r="J26" t="n">
-        <v>0.01937061965319966</v>
+        <v>0.01937061959000441</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.05955406952792223</v>
+        <v>-0.05955406919315086</v>
       </c>
       <c r="L26" t="n">
-        <v>0.604153795173306</v>
+        <v>0.6041537951507422</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.002834460907123972</v>
+        <v>-0.002834460719043733</v>
       </c>
       <c r="N26" t="n">
         <v>50.71111111111111</v>
@@ -2533,22 +2533,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0.1362081082606462</v>
+        <v>0.1362081079622253</v>
       </c>
       <c r="S26" t="n">
-        <v>0.6044301928061203</v>
+        <v>0.604430193149158</v>
       </c>
       <c r="T26" t="n">
-        <v>0.8308825953910578</v>
+        <v>0.8308825955110568</v>
       </c>
       <c r="U26" t="n">
-        <v>32.98103364079348</v>
+        <v>32.98103547890749</v>
       </c>
       <c r="V26" t="n">
-        <v>308.5963950708129</v>
+        <v>308.5963950707707</v>
       </c>
       <c r="W26" t="n">
-        <v>0.2618030048444576</v>
+        <v>0.2618031614246834</v>
       </c>
       <c r="X26" t="n">
         <v>300</v>
@@ -2568,37 +2568,37 @@
         <v>1171.933333333333</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9762366841143043</v>
+        <v>0.9762366841143051</v>
       </c>
       <c r="D27" t="n">
         <v>-28.09999999999999</v>
       </c>
       <c r="E27" t="n">
-        <v>308.6033196927368</v>
+        <v>308.6033196928212</v>
       </c>
       <c r="F27" t="n">
-        <v>-28.41338927432961</v>
+        <v>-28.41339488581668</v>
       </c>
       <c r="G27" t="n">
-        <v>-28.40995576474833</v>
+        <v>-28.40996244040846</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.003433509581281624</v>
+        <v>-0.003432445408222751</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1906264455395008</v>
+        <v>0.1906265186538582</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.0003911520174074989</v>
+        <v>-0.0003911519603297621</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.03753208180937095</v>
+        <v>-0.03753208173031002</v>
       </c>
       <c r="L27" t="n">
-        <v>0.6266705601945419</v>
+        <v>0.6266705602641757</v>
       </c>
       <c r="M27" t="n">
-        <v>0.003430576971325572</v>
+        <v>0.003430577592669643</v>
       </c>
       <c r="N27" t="n">
         <v>50.71111111111111</v>
@@ -2613,22 +2613,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.03783047047896781</v>
+        <v>0.03783047053065206</v>
       </c>
       <c r="S27" t="n">
-        <v>0.5296319383965096</v>
+        <v>0.5296319386590115</v>
       </c>
       <c r="T27" t="n">
-        <v>0.78226763793473</v>
+        <v>0.7822676381888002</v>
       </c>
       <c r="U27" t="n">
-        <v>28.41338927432961</v>
+        <v>28.41339488581668</v>
       </c>
       <c r="V27" t="n">
-        <v>308.6033196927368</v>
+        <v>308.6033196928212</v>
       </c>
       <c r="W27" t="n">
-        <v>0.2277452622668796</v>
+        <v>0.2277453398836166</v>
       </c>
       <c r="X27" t="n">
         <v>300</v>
@@ -2648,37 +2648,37 @@
         <v>1432.933333333333</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9825975625350751</v>
+        <v>0.9825975625350754</v>
       </c>
       <c r="D28" t="n">
         <v>-23.09999999999999</v>
       </c>
       <c r="E28" t="n">
-        <v>308.5824166875241</v>
+        <v>308.5824166874721</v>
       </c>
       <c r="F28" t="n">
-        <v>-22.8689334180196</v>
+        <v>-22.86893335570559</v>
       </c>
       <c r="G28" t="n">
-        <v>-22.86769740813532</v>
+        <v>-22.86769733400464</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.001236009884281152</v>
+        <v>-0.001236021700949434</v>
       </c>
       <c r="I28" t="n">
-        <v>0.1816995472624588</v>
+        <v>0.1816995400747179</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.02103885844559567</v>
+        <v>-0.02103885842896529</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.008167488190984515</v>
+        <v>-0.008167488184230895</v>
       </c>
       <c r="L28" t="n">
-        <v>0.6118305468261888</v>
+        <v>0.611830546941057</v>
       </c>
       <c r="M28" t="n">
-        <v>0.00124095970415281</v>
+        <v>0.001240959697900451</v>
       </c>
       <c r="N28" t="n">
         <v>50.71111111111111</v>
@@ -2693,22 +2693,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0.001602189288649924</v>
+        <v>0.001602189276644066</v>
       </c>
       <c r="S28" t="n">
-        <v>0.3918875944745887</v>
+        <v>0.3918875943817038</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7051457326032298</v>
+        <v>0.705145732594983</v>
       </c>
       <c r="U28" t="n">
-        <v>22.8689334180196</v>
+        <v>22.86893335570559</v>
       </c>
       <c r="V28" t="n">
-        <v>308.5824166875241</v>
+        <v>308.5824166874721</v>
       </c>
       <c r="W28" t="n">
-        <v>0.2359350356128134</v>
+        <v>0.2359350250470612</v>
       </c>
       <c r="X28" t="n">
         <v>300</v>
@@ -2728,37 +2728,37 @@
         <v>1689.03125</v>
       </c>
       <c r="C29" t="n">
-        <v>0.9837636240663274</v>
+        <v>0.9837636240663278</v>
       </c>
       <c r="D29" t="n">
         <v>-18.09999999999999</v>
       </c>
       <c r="E29" t="n">
-        <v>310.7649334863275</v>
+        <v>310.7649334864169</v>
       </c>
       <c r="F29" t="n">
-        <v>-18.2323726920757</v>
+        <v>-18.23237268938679</v>
       </c>
       <c r="G29" t="n">
-        <v>-18.20520396847115</v>
+        <v>-18.20520396538731</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.02716872360454955</v>
+        <v>-0.02716872399947986</v>
       </c>
       <c r="I29" t="n">
-        <v>0.2533307872977475</v>
+        <v>0.2533307874649993</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.006954880479420058</v>
+        <v>-0.00695488047106052</v>
       </c>
       <c r="K29" t="n">
-        <v>0.01288724663113982</v>
+        <v>0.01288724662792784</v>
       </c>
       <c r="L29" t="n">
-        <v>0.5905286377060392</v>
+        <v>0.5905286376757609</v>
       </c>
       <c r="M29" t="n">
-        <v>0.02735741987160692</v>
+        <v>0.02735741987163969</v>
       </c>
       <c r="N29" t="n">
         <v>51.734375</v>
@@ -2773,22 +2773,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>-0.0109072835500278</v>
+        <v>-0.01090728368361094</v>
       </c>
       <c r="S29" t="n">
-        <v>0.2171230965544685</v>
+        <v>0.2171230964983417</v>
       </c>
       <c r="T29" t="n">
-        <v>0.6168522809070054</v>
+        <v>0.6168522808485891</v>
       </c>
       <c r="U29" t="n">
-        <v>18.2323726920757</v>
+        <v>18.23237268938679</v>
       </c>
       <c r="V29" t="n">
-        <v>310.7649334863275</v>
+        <v>310.7649334864169</v>
       </c>
       <c r="W29" t="n">
-        <v>0.3353541256129964</v>
+        <v>0.3353541252731936</v>
       </c>
       <c r="X29" t="n">
         <v>300</v>
@@ -2808,37 +2808,37 @@
         <v>1915.775510204082</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9819803884808185</v>
+        <v>0.9819803884808186</v>
       </c>
       <c r="D30" t="n">
         <v>-13.09999999999999</v>
       </c>
       <c r="E30" t="n">
-        <v>314.1591880295448</v>
+        <v>314.1591880295205</v>
       </c>
       <c r="F30" t="n">
-        <v>-13.60102462842354</v>
+        <v>-13.60102467986003</v>
       </c>
       <c r="G30" t="n">
-        <v>-13.53538230868667</v>
+        <v>-13.53538236173275</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.06564231973687043</v>
+        <v>-0.06564231812727619</v>
       </c>
       <c r="I30" t="n">
-        <v>0.2650995271327111</v>
+        <v>0.2650995239318121</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.02446361446491918</v>
+        <v>-0.02446361446857166</v>
       </c>
       <c r="K30" t="n">
-        <v>0.001686902362736214</v>
+        <v>0.001686902312097429</v>
       </c>
       <c r="L30" t="n">
-        <v>0.6242913004359845</v>
+        <v>0.6242913004639336</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0629413883483517</v>
+        <v>0.06294138835155186</v>
       </c>
       <c r="N30" t="n">
         <v>50.61224489795919</v>
@@ -2853,22 +2853,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>-0.009012679360489275</v>
+        <v>-0.009012679357650428</v>
       </c>
       <c r="S30" t="n">
-        <v>0.217148440749037</v>
+        <v>0.2171484407623991</v>
       </c>
       <c r="T30" t="n">
-        <v>0.6440448958906004</v>
+        <v>0.6440448959306132</v>
       </c>
       <c r="U30" t="n">
-        <v>13.60102462842354</v>
+        <v>13.60102467986003</v>
       </c>
       <c r="V30" t="n">
-        <v>314.1591880295448</v>
+        <v>314.1591880295205</v>
       </c>
       <c r="W30" t="n">
-        <v>0.3729404825725992</v>
+        <v>0.3729404834040483</v>
       </c>
       <c r="X30" t="n">
         <v>300</v>
@@ -2894,31 +2894,31 @@
         <v>-8.099999999999994</v>
       </c>
       <c r="E31" t="n">
-        <v>313.8355989618049</v>
+        <v>313.835598961714</v>
       </c>
       <c r="F31" t="n">
-        <v>-8.414479740836576</v>
+        <v>-8.414478774528774</v>
       </c>
       <c r="G31" t="n">
-        <v>-8.412366981061535</v>
+        <v>-8.412366091911087</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.002112759775041384</v>
+        <v>-0.002112682617686937</v>
       </c>
       <c r="I31" t="n">
-        <v>0.1599228124655617</v>
+        <v>0.1599229314429876</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.0938359254132435</v>
+        <v>-0.09383592540976338</v>
       </c>
       <c r="K31" t="n">
-        <v>0.004546449440668824</v>
+        <v>0.004546449452042884</v>
       </c>
       <c r="L31" t="n">
-        <v>0.5702434324711756</v>
+        <v>0.5702434325430195</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.00320835364421175</v>
+        <v>-0.003208353809039981</v>
       </c>
       <c r="N31" t="n">
         <v>52.9054054054054</v>
@@ -2933,22 +2933,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>-0.105024599901208</v>
+        <v>-0.1050245998753289</v>
       </c>
       <c r="S31" t="n">
-        <v>0.09069748716386258</v>
+        <v>0.09069748721523752</v>
       </c>
       <c r="T31" t="n">
-        <v>0.5760791196475159</v>
+        <v>0.5760791197197452</v>
       </c>
       <c r="U31" t="n">
-        <v>8.414479740836576</v>
+        <v>8.414478774528774</v>
       </c>
       <c r="V31" t="n">
-        <v>313.8355989618049</v>
+        <v>313.835598961714</v>
       </c>
       <c r="W31" t="n">
-        <v>0.2118739217851475</v>
+        <v>0.2118740766149114</v>
       </c>
       <c r="X31" t="n">
         <v>300</v>
@@ -2968,37 +2968,37 @@
         <v>2209.363636363636</v>
       </c>
       <c r="C32" t="n">
-        <v>0.9471045725109226</v>
+        <v>0.9471045725109227</v>
       </c>
       <c r="D32" t="n">
         <v>-3.099999999999994</v>
       </c>
       <c r="E32" t="n">
-        <v>299.4965286255546</v>
+        <v>299.4965286255575</v>
       </c>
       <c r="F32" t="n">
-        <v>-4.288859783716774</v>
+        <v>-4.288859786518559</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.162115872956935</v>
+        <v>-4.162115875790267</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.1267439107598382</v>
+        <v>-0.1267439107282928</v>
       </c>
       <c r="I32" t="n">
-        <v>0.1975957911195989</v>
+        <v>0.1975957909151919</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.1652317745151131</v>
+        <v>-0.1652317745432756</v>
       </c>
       <c r="K32" t="n">
-        <v>0.075917517175948</v>
+        <v>0.07591751718549425</v>
       </c>
       <c r="L32" t="n">
-        <v>0.5378698327701095</v>
+        <v>0.5378698327651578</v>
       </c>
       <c r="M32" t="n">
-        <v>0.1269059393440277</v>
+        <v>0.1269059393443401</v>
       </c>
       <c r="N32" t="n">
         <v>63.72727272727273</v>
@@ -3013,22 +3013,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>-0.06812974828781992</v>
+        <v>-0.06812974827465035</v>
       </c>
       <c r="S32" t="n">
-        <v>0.03553526464120761</v>
+        <v>0.03553526464451916</v>
       </c>
       <c r="T32" t="n">
-        <v>0.5271826846611449</v>
+        <v>0.5271826846479782</v>
       </c>
       <c r="U32" t="n">
-        <v>4.288859783716774</v>
+        <v>4.288859786518559</v>
       </c>
       <c r="V32" t="n">
-        <v>299.4965286255546</v>
+        <v>299.4965286255575</v>
       </c>
       <c r="W32" t="n">
-        <v>0.2481053034062696</v>
+        <v>0.2481053032608591</v>
       </c>
       <c r="X32" t="n">
         <v>300</v>
@@ -3054,31 +3054,31 @@
         <v>1.900000000000006</v>
       </c>
       <c r="E33" t="n">
-        <v>308.4510535483271</v>
+        <v>308.4510535483066</v>
       </c>
       <c r="F33" t="n">
-        <v>2.751490500335121</v>
+        <v>2.751490550386755</v>
       </c>
       <c r="G33" t="n">
         <v>1.5</v>
       </c>
       <c r="H33" t="n">
-        <v>1.251490500335121</v>
+        <v>1.251490550386755</v>
       </c>
       <c r="I33" t="n">
-        <v>1.565798176289123</v>
+        <v>1.565798212720922</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.02821347548377693</v>
+        <v>-0.02821347550865378</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.04620885176671339</v>
+        <v>-0.04620885179285346</v>
       </c>
       <c r="L33" t="n">
-        <v>0.578460541652967</v>
+        <v>0.5784605416691262</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.05271285337399748</v>
+        <v>-0.05271285338569353</v>
       </c>
       <c r="N33" t="n">
         <v>50.91044776119403</v>
@@ -3093,22 +3093,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>-0.02193302933035791</v>
+        <v>-0.02193302934113111</v>
       </c>
       <c r="S33" t="n">
-        <v>-0.07461927186451885</v>
+        <v>-0.07461927189861557</v>
       </c>
       <c r="T33" t="n">
-        <v>0.5811663044016325</v>
+        <v>0.5811663044166685</v>
       </c>
       <c r="U33" t="n">
-        <v>-2.751490500335121</v>
+        <v>-2.751490550386755</v>
       </c>
       <c r="V33" t="n">
-        <v>308.4510535483271</v>
+        <v>308.4510535483066</v>
       </c>
       <c r="W33" t="n">
-        <v>1.746506626669227</v>
+        <v>1.746506658546646</v>
       </c>
       <c r="X33" t="n">
         <v>300</v>
@@ -3134,31 +3134,31 @@
         <v>6.900000000000006</v>
       </c>
       <c r="E34" t="n">
-        <v>312.2934600676149</v>
+        <v>312.2934600675928</v>
       </c>
       <c r="F34" t="n">
-        <v>6.880316549770694</v>
+        <v>6.880317124819029</v>
       </c>
       <c r="G34" t="n">
-        <v>6.8835898764683</v>
+        <v>6.883590572356015</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.003273326697606147</v>
+        <v>-0.003273447536985613</v>
       </c>
       <c r="I34" t="n">
-        <v>0.1147072020334342</v>
+        <v>0.1147070612161862</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.03829853953117886</v>
+        <v>-0.03829853955757232</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.06380816787675116</v>
+        <v>-0.06380816789644213</v>
       </c>
       <c r="L34" t="n">
-        <v>0.5831479590707808</v>
+        <v>0.5831479590378266</v>
       </c>
       <c r="M34" t="n">
-        <v>0.004076631662107607</v>
+        <v>0.004076631468873339</v>
       </c>
       <c r="N34" t="n">
         <v>49.69354838709678</v>
@@ -3173,22 +3173,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0.008842451143570356</v>
+        <v>0.008842451123878468</v>
       </c>
       <c r="S34" t="n">
-        <v>-0.09207255212591223</v>
+        <v>-0.09207255213794494</v>
       </c>
       <c r="T34" t="n">
-        <v>0.5853859901504014</v>
+        <v>0.5853859901165507</v>
       </c>
       <c r="U34" t="n">
-        <v>-6.880316549770694</v>
+        <v>-6.880317124819029</v>
       </c>
       <c r="V34" t="n">
-        <v>312.2934600676149</v>
+        <v>312.2934600675928</v>
       </c>
       <c r="W34" t="n">
-        <v>0.166537563546051</v>
+        <v>0.1665375100151806</v>
       </c>
       <c r="X34" t="n">
         <v>300</v>
@@ -3208,37 +3208,37 @@
         <v>2887.204545454545</v>
       </c>
       <c r="C35" t="n">
-        <v>0.9893457461426297</v>
+        <v>0.9893457461426299</v>
       </c>
       <c r="D35" t="n">
         <v>11.90000000000001</v>
       </c>
       <c r="E35" t="n">
-        <v>310.1874683268499</v>
+        <v>310.187468326873</v>
       </c>
       <c r="F35" t="n">
-        <v>12.30035640516434</v>
+        <v>12.30035530111307</v>
       </c>
       <c r="G35" t="n">
-        <v>12.29422759721204</v>
+        <v>12.29422626908773</v>
       </c>
       <c r="H35" t="n">
-        <v>0.006128807952300852</v>
+        <v>0.006129032025337974</v>
       </c>
       <c r="I35" t="n">
-        <v>0.08507383303953715</v>
+        <v>0.08507390121882473</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.03072934971998623</v>
+        <v>-0.03072934971472681</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.05527003633769314</v>
+        <v>-0.05527003636164715</v>
       </c>
       <c r="L35" t="n">
-        <v>0.6115710252516438</v>
+        <v>0.6115710251939657</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.006128021599864367</v>
+        <v>-0.006128021292876748</v>
       </c>
       <c r="N35" t="n">
         <v>50.13636363636363</v>
@@ -3253,22 +3253,22 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0.03369946321104828</v>
+        <v>0.03369946318955028</v>
       </c>
       <c r="S35" t="n">
-        <v>-0.1408081406696236</v>
+        <v>-0.1408081406973198</v>
       </c>
       <c r="T35" t="n">
-        <v>0.6222246032825177</v>
+        <v>0.6222246032293088</v>
       </c>
       <c r="U35" t="n">
-        <v>-12.30035640516434</v>
+        <v>-12.30035530111307</v>
       </c>
       <c r="V35" t="n">
-        <v>310.1874683268499</v>
+        <v>310.187468326873</v>
       </c>
       <c r="W35" t="n">
-        <v>0.1212018160965221</v>
+        <v>0.1212018768309236</v>
       </c>
       <c r="X35" t="n">
         <v>300</v>
@@ -3294,31 +3294,31 @@
         <v>16.90000000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>308.4777068872494</v>
+        <v>308.4777068871369</v>
       </c>
       <c r="F36" t="n">
-        <v>17.01773499862643</v>
+        <v>17.01773499710141</v>
       </c>
       <c r="G36" t="n">
-        <v>17.00709991497616</v>
+        <v>17.0070999131628</v>
       </c>
       <c r="H36" t="n">
-        <v>0.01063508365027193</v>
+        <v>0.01063508393861157</v>
       </c>
       <c r="I36" t="n">
-        <v>0.08718838961018147</v>
+        <v>0.08718838972222577</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.02882570231125035</v>
+        <v>-0.02882570236753786</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.03621873160296595</v>
+        <v>-0.03621873165811001</v>
       </c>
       <c r="L36" t="n">
-        <v>0.599826328237507</v>
+        <v>0.5998263281838835</v>
       </c>
       <c r="M36" t="n">
-        <v>-0.01063542262032108</v>
+        <v>-0.01063542262007068</v>
       </c>
       <c r="N36" t="n">
         <v>50.71111111111111</v>
@@ -3333,22 +3333,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.0790107697395338</v>
+        <v>0.07901076973376041</v>
       </c>
       <c r="S36" t="n">
-        <v>-0.1471187760235067</v>
+        <v>-0.1471187760830472</v>
       </c>
       <c r="T36" t="n">
-        <v>0.6148595752722802</v>
+        <v>0.6148595752326912</v>
       </c>
       <c r="U36" t="n">
-        <v>-17.01773499862643</v>
+        <v>-17.01773499710141</v>
       </c>
       <c r="V36" t="n">
-        <v>308.4777068872494</v>
+        <v>308.4777068871369</v>
       </c>
       <c r="W36" t="n">
-        <v>0.1245639175984641</v>
+        <v>0.1245639176645701</v>
       </c>
       <c r="X36" t="n">
         <v>300</v>
@@ -3368,37 +3368,37 @@
         <v>3407.933333333333</v>
       </c>
       <c r="C37" t="n">
-        <v>0.9865147083627426</v>
+        <v>0.9865147083627427</v>
       </c>
       <c r="D37" t="n">
         <v>21.90000000000001</v>
       </c>
       <c r="E37" t="n">
-        <v>308.5057142366175</v>
+        <v>308.5057142366409</v>
       </c>
       <c r="F37" t="n">
-        <v>22.15030924063803</v>
+        <v>22.15030874934344</v>
       </c>
       <c r="G37" t="n">
-        <v>22.14348801756694</v>
+        <v>22.14348743371205</v>
       </c>
       <c r="H37" t="n">
-        <v>0.006821223071095939</v>
+        <v>0.006821315631386838</v>
       </c>
       <c r="I37" t="n">
-        <v>0.1034614697871858</v>
+        <v>0.1034615292427183</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.03040798708563451</v>
+        <v>-0.03040798707223452</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.03606752603682416</v>
+        <v>-0.03606752612112826</v>
       </c>
       <c r="L37" t="n">
-        <v>0.6036033038995366</v>
+        <v>0.6036033037827303</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.006820994515457075</v>
+        <v>-0.006820994409492232</v>
       </c>
       <c r="N37" t="n">
         <v>50.71111111111111</v>
@@ -3413,22 +3413,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.1455547331490655</v>
+        <v>0.1455547331727413</v>
       </c>
       <c r="S37" t="n">
-        <v>-0.1415657007337903</v>
+        <v>-0.1415657007763939</v>
       </c>
       <c r="T37" t="n">
-        <v>0.6299251414139053</v>
+        <v>0.6299251412968803</v>
       </c>
       <c r="U37" t="n">
-        <v>-22.15030924063803</v>
+        <v>-22.15030874934344</v>
       </c>
       <c r="V37" t="n">
-        <v>308.5057142366175</v>
+        <v>308.5057142366409</v>
       </c>
       <c r="W37" t="n">
-        <v>0.1473274491432342</v>
+        <v>0.1473275187819946</v>
       </c>
       <c r="X37" t="n">
         <v>300</v>
@@ -3448,37 +3448,37 @@
         <v>3668.933333333333</v>
       </c>
       <c r="C38" t="n">
-        <v>0.9806205367592167</v>
+        <v>0.9806205367592173</v>
       </c>
       <c r="D38" t="n">
         <v>26.90000000000001</v>
       </c>
       <c r="E38" t="n">
-        <v>308.4817713070503</v>
+        <v>308.4817713071315</v>
       </c>
       <c r="F38" t="n">
-        <v>27.83854816458837</v>
+        <v>27.83854816701663</v>
       </c>
       <c r="G38" t="n">
-        <v>27.84518183297603</v>
+        <v>27.8451818358611</v>
       </c>
       <c r="H38" t="n">
-        <v>-0.006633668387657347</v>
+        <v>-0.006633668844472904</v>
       </c>
       <c r="I38" t="n">
-        <v>0.134438531159596</v>
+        <v>0.1344385307843682</v>
       </c>
       <c r="J38" t="n">
-        <v>-0.03435185128778463</v>
+        <v>-0.03435185126952842</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.05469326919263306</v>
+        <v>-0.05469326911243436</v>
       </c>
       <c r="L38" t="n">
-        <v>0.620223992932706</v>
+        <v>0.6202239929056985</v>
       </c>
       <c r="M38" t="n">
-        <v>0.006625583059281711</v>
+        <v>0.006625583058640012</v>
       </c>
       <c r="N38" t="n">
         <v>50.71111111111111</v>
@@ -3493,22 +3493,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0.1955681164513768</v>
+        <v>0.1955681164277923</v>
       </c>
       <c r="S38" t="n">
-        <v>-0.1713556109545767</v>
+        <v>-0.1713556108288106</v>
       </c>
       <c r="T38" t="n">
-        <v>0.6496494220179201</v>
+        <v>0.6496494219905549</v>
       </c>
       <c r="U38" t="n">
-        <v>-27.83854816458837</v>
+        <v>-27.83854816701663</v>
       </c>
       <c r="V38" t="n">
-        <v>308.4817713070503</v>
+        <v>308.4817713071315</v>
       </c>
       <c r="W38" t="n">
-        <v>0.1818058677356001</v>
+        <v>0.1818058674361211</v>
       </c>
       <c r="X38" t="n">
         <v>300</v>
@@ -3528,37 +3528,37 @@
         <v>3929.933333333333</v>
       </c>
       <c r="C39" t="n">
-        <v>0.971803090296791</v>
+        <v>0.9718030902967913</v>
       </c>
       <c r="D39" t="n">
         <v>31.90000000000001</v>
       </c>
       <c r="E39" t="n">
-        <v>308.4718985020298</v>
+        <v>308.4718985020048</v>
       </c>
       <c r="F39" t="n">
-        <v>32.64280601792176</v>
+        <v>32.64280214533908</v>
       </c>
       <c r="G39" t="n">
-        <v>32.63277172154561</v>
+        <v>32.63276711592759</v>
       </c>
       <c r="H39" t="n">
-        <v>0.01003429637615772</v>
+        <v>0.0100350294114859</v>
       </c>
       <c r="I39" t="n">
-        <v>0.1487503923591752</v>
+        <v>0.1487509097721974</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.007121248223342137</v>
+        <v>-0.007121248124476596</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.0636120587057208</v>
+        <v>-0.06361205858348135</v>
       </c>
       <c r="L39" t="n">
-        <v>0.6060405296641245</v>
+        <v>0.6060405294991525</v>
       </c>
       <c r="M39" t="n">
-        <v>-0.01003547723947835</v>
+        <v>-0.01003547642172299</v>
       </c>
       <c r="N39" t="n">
         <v>50.71111111111111</v>
@@ -3573,22 +3573,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.2448808805241025</v>
+        <v>0.2448808807157108</v>
       </c>
       <c r="S39" t="n">
-        <v>-0.1425846267263058</v>
+        <v>-0.1425846265044181</v>
       </c>
       <c r="T39" t="n">
-        <v>0.6363515138019518</v>
+        <v>0.6363515136722074</v>
       </c>
       <c r="U39" t="n">
-        <v>-32.64280601792176</v>
+        <v>-32.64280214533908</v>
       </c>
       <c r="V39" t="n">
-        <v>308.4718985020298</v>
+        <v>308.4718985020048</v>
       </c>
       <c r="W39" t="n">
-        <v>0.1972773818160725</v>
+        <v>0.197277890758403</v>
       </c>
       <c r="X39" t="n">
         <v>300</v>
@@ -3608,37 +3608,37 @@
         <v>4190.933333333333</v>
       </c>
       <c r="C40" t="n">
-        <v>0.9589580989054929</v>
+        <v>0.9589580989054944</v>
       </c>
       <c r="D40" t="n">
         <v>36.90000000000001</v>
       </c>
       <c r="E40" t="n">
-        <v>308.4620422306878</v>
+        <v>308.4620422307116</v>
       </c>
       <c r="F40" t="n">
-        <v>37.69155014249382</v>
+        <v>37.69156115070805</v>
       </c>
       <c r="G40" t="n">
-        <v>37.69291322976678</v>
+        <v>37.69292631788438</v>
       </c>
       <c r="H40" t="n">
-        <v>-0.001363087272955161</v>
+        <v>-0.001365167176323702</v>
       </c>
       <c r="I40" t="n">
-        <v>0.2105904112892664</v>
+        <v>0.2105893538382664</v>
       </c>
       <c r="J40" t="n">
-        <v>-0.01022084531428578</v>
+        <v>-0.01022084525270983</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.06887034236893433</v>
+        <v>-0.06887034189164441</v>
       </c>
       <c r="L40" t="n">
-        <v>0.5950620656936869</v>
+        <v>0.5950620657493679</v>
       </c>
       <c r="M40" t="n">
-        <v>0.001355763383151672</v>
+        <v>0.001355760761169502</v>
       </c>
       <c r="N40" t="n">
         <v>50.71111111111111</v>
@@ -3653,22 +3653,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.2827460108483069</v>
+        <v>0.282746010875372</v>
       </c>
       <c r="S40" t="n">
-        <v>-0.1621551198954262</v>
+        <v>-0.1621551198295768</v>
       </c>
       <c r="T40" t="n">
-        <v>0.6342270967040822</v>
+        <v>0.6342270967160317</v>
       </c>
       <c r="U40" t="n">
-        <v>-37.69155014249382</v>
+        <v>-37.69156115070805</v>
       </c>
       <c r="V40" t="n">
-        <v>308.4620422306878</v>
+        <v>308.4620422307116</v>
       </c>
       <c r="W40" t="n">
-        <v>0.2839189730715864</v>
+        <v>0.2839187360230068</v>
       </c>
       <c r="X40" t="n">
         <v>300</v>
@@ -3688,37 +3688,37 @@
         <v>4451.933333333333</v>
       </c>
       <c r="C41" t="n">
-        <v>0.9413263418681878</v>
+        <v>0.9413263418681885</v>
       </c>
       <c r="D41" t="n">
         <v>41.90000000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>308.4685752597886</v>
+        <v>308.4685752597699</v>
       </c>
       <c r="F41" t="n">
-        <v>42.41590675194633</v>
+        <v>42.41590675285211</v>
       </c>
       <c r="G41" t="n">
-        <v>42.43896634641209</v>
+        <v>42.43896634748509</v>
       </c>
       <c r="H41" t="n">
-        <v>-0.02305959446575134</v>
+        <v>-0.023059594632985</v>
       </c>
       <c r="I41" t="n">
-        <v>0.2202058618126155</v>
+        <v>0.2202058618126174</v>
       </c>
       <c r="J41" t="n">
-        <v>0.004499550746138918</v>
+        <v>0.004499550862145596</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.05518347176231089</v>
+        <v>-0.05518347154310214</v>
       </c>
       <c r="L41" t="n">
-        <v>0.5851590143420691</v>
+        <v>0.5851590143637143</v>
       </c>
       <c r="M41" t="n">
-        <v>0.02305200214439514</v>
+        <v>0.02305200214431704</v>
       </c>
       <c r="N41" t="n">
         <v>50.71111111111111</v>
@@ -3733,22 +3733,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0.2406917967825686</v>
+        <v>0.2406917969074492</v>
       </c>
       <c r="S41" t="n">
-        <v>-0.2915126272140266</v>
+        <v>-0.2915126269883536</v>
       </c>
       <c r="T41" t="n">
-        <v>0.6596314353429079</v>
+        <v>0.6596314352678572</v>
       </c>
       <c r="U41" t="n">
-        <v>-42.41590675194633</v>
+        <v>-42.41590675285211</v>
       </c>
       <c r="V41" t="n">
-        <v>308.4685752597886</v>
+        <v>308.4685752597699</v>
       </c>
       <c r="W41" t="n">
-        <v>0.3056873712265341</v>
+        <v>0.3056873712842547</v>
       </c>
       <c r="X41" t="n">
         <v>300</v>
@@ -3768,37 +3768,37 @@
         <v>4712.888059701492</v>
       </c>
       <c r="C42" t="n">
-        <v>0.9106308327383875</v>
+        <v>0.9106308327383885</v>
       </c>
       <c r="D42" t="n">
         <v>46.90000000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>308.210754453222</v>
+        <v>308.2107544532898</v>
       </c>
       <c r="F42" t="n">
-        <v>47.72459945255541</v>
+        <v>47.72459184004816</v>
       </c>
       <c r="G42" t="n">
-        <v>47.73906567743065</v>
+        <v>47.7390566550323</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.01446622487523849</v>
+        <v>-0.01446481498414528</v>
       </c>
       <c r="I42" t="n">
-        <v>0.3182158741246715</v>
+        <v>0.318216877376059</v>
       </c>
       <c r="J42" t="n">
-        <v>0.01313158004940203</v>
+        <v>0.0131315799653146</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.05803945424482923</v>
+        <v>-0.05803945435170461</v>
       </c>
       <c r="L42" t="n">
-        <v>0.6048679142594804</v>
+        <v>0.6048679142877056</v>
       </c>
       <c r="M42" t="n">
-        <v>0.01468137099929054</v>
+        <v>0.01468137192179094</v>
       </c>
       <c r="N42" t="n">
         <v>50.6044776119403</v>
@@ -3813,22 +3813,22 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.326578865576731</v>
+        <v>0.3265788655514412</v>
       </c>
       <c r="S42" t="n">
-        <v>-0.2012156136483326</v>
+        <v>-0.2012156137204158</v>
       </c>
       <c r="T42" t="n">
-        <v>0.6614893720700209</v>
+        <v>0.6614893720568136</v>
       </c>
       <c r="U42" t="n">
-        <v>-47.72459945255541</v>
+        <v>-47.72459184004816</v>
       </c>
       <c r="V42" t="n">
-        <v>308.210754453222</v>
+        <v>308.2107544532898</v>
       </c>
       <c r="W42" t="n">
-        <v>0.4112704168907243</v>
+        <v>0.4112705800862799</v>
       </c>
       <c r="X42" t="n">
         <v>300</v>
@@ -3848,37 +3848,37 @@
         <v>4972.933333333333</v>
       </c>
       <c r="C43" t="n">
-        <v>0.8627178261950076</v>
+        <v>0.8627178261950131</v>
       </c>
       <c r="D43" t="n">
         <v>51.90000000000001</v>
       </c>
       <c r="E43" t="n">
-        <v>308.4566636055029</v>
+        <v>308.4566636054582</v>
       </c>
       <c r="F43" t="n">
-        <v>53.35112947751534</v>
+        <v>53.35112948826188</v>
       </c>
       <c r="G43" t="n">
-        <v>53.27214946097494</v>
+        <v>53.27214947375982</v>
       </c>
       <c r="H43" t="n">
-        <v>0.07898001654040092</v>
+        <v>0.07898001450206714</v>
       </c>
       <c r="I43" t="n">
-        <v>0.4941499941005444</v>
+        <v>0.4941499940458073</v>
       </c>
       <c r="J43" t="n">
-        <v>-0.00904317034946755</v>
+        <v>-0.009043170200913711</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.06042850557973012</v>
+        <v>-0.06042850549698738</v>
       </c>
       <c r="L43" t="n">
-        <v>0.672911435493325</v>
+        <v>0.6729114354680393</v>
       </c>
       <c r="M43" t="n">
-        <v>-0.07897633813145084</v>
+        <v>-0.07897633813367286</v>
       </c>
       <c r="N43" t="n">
         <v>50.71111111111111</v>
@@ -3893,22 +3893,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0.3121197497985355</v>
+        <v>0.3121197499723922</v>
       </c>
       <c r="S43" t="n">
-        <v>-0.26961717113374</v>
+        <v>-0.2696171711403922</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7531442417971991</v>
+        <v>0.753144241874839</v>
       </c>
       <c r="U43" t="n">
-        <v>-53.35112947751534</v>
+        <v>-53.35112948826188</v>
       </c>
       <c r="V43" t="n">
-        <v>308.4566636055029</v>
+        <v>308.4566636054582</v>
       </c>
       <c r="W43" t="n">
-        <v>0.6426078682162589</v>
+        <v>0.6426078683157361</v>
       </c>
       <c r="X43" t="n">
         <v>300</v>
@@ -3928,37 +3928,37 @@
         <v>122.5</v>
       </c>
       <c r="C44" t="n">
-        <v>0.8708195109094899</v>
+        <v>0.8708195109094919</v>
       </c>
       <c r="D44" t="n">
         <v>-48.09999999999999</v>
       </c>
       <c r="E44" t="n">
-        <v>415.4057274664183</v>
+        <v>415.4057274662533</v>
       </c>
       <c r="F44" t="n">
-        <v>-47.787377422726</v>
+        <v>-47.78737742153155</v>
       </c>
       <c r="G44" t="n">
-        <v>-47.8082832843972</v>
+        <v>-47.80828328181187</v>
       </c>
       <c r="H44" t="n">
-        <v>0.02090586167119793</v>
+        <v>0.02090586028031384</v>
       </c>
       <c r="I44" t="n">
-        <v>0.5881343031210469</v>
+        <v>0.5881343028868657</v>
       </c>
       <c r="J44" t="n">
-        <v>0.1059822733575284</v>
+        <v>0.1059822733484681</v>
       </c>
       <c r="K44" t="n">
-        <v>-0.1416512555500331</v>
+        <v>-0.1416512560742431</v>
       </c>
       <c r="L44" t="n">
-        <v>0.6228007282534094</v>
+        <v>0.6228007280263329</v>
       </c>
       <c r="M44" t="n">
-        <v>-0.02082372113036778</v>
+        <v>-0.02082372113081366</v>
       </c>
       <c r="N44" t="n">
         <v>40.45</v>
@@ -3973,22 +3973,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0.4315154906136149</v>
+        <v>0.431515490603055</v>
       </c>
       <c r="S44" t="n">
-        <v>0.6690501189697624</v>
+        <v>0.6690501184387662</v>
       </c>
       <c r="T44" t="n">
-        <v>0.9466729801039777</v>
+        <v>0.9466729797524986</v>
       </c>
       <c r="U44" t="n">
-        <v>47.787377422726</v>
+        <v>47.78737742153155</v>
       </c>
       <c r="V44" t="n">
-        <v>415.4057274664183</v>
+        <v>415.4057274662533</v>
       </c>
       <c r="W44" t="n">
-        <v>0.6915283049292704</v>
+        <v>0.6915283041797218</v>
       </c>
       <c r="X44" t="n">
         <v>450</v>
@@ -4008,37 +4008,37 @@
         <v>382.9666666666666</v>
       </c>
       <c r="C45" t="n">
-        <v>0.9112877202352612</v>
+        <v>0.9112877202352647</v>
       </c>
       <c r="D45" t="n">
         <v>-43.09999999999999</v>
       </c>
       <c r="E45" t="n">
-        <v>415.4902715824031</v>
+        <v>415.4902715822439</v>
       </c>
       <c r="F45" t="n">
-        <v>-43.11821004297639</v>
+        <v>-43.11821016473979</v>
       </c>
       <c r="G45" t="n">
-        <v>-43.1463581034952</v>
+        <v>-43.14635836850329</v>
       </c>
       <c r="H45" t="n">
-        <v>0.02814806051881234</v>
+        <v>0.02814820376350203</v>
       </c>
       <c r="I45" t="n">
-        <v>0.3498271771784813</v>
+        <v>0.3498271680323055</v>
       </c>
       <c r="J45" t="n">
-        <v>0.1709213146378096</v>
+        <v>0.1709213147001824</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.152198541081202</v>
+        <v>-0.1521985411082909</v>
       </c>
       <c r="L45" t="n">
-        <v>0.6028147048589981</v>
+        <v>0.602814704895813</v>
       </c>
       <c r="M45" t="n">
-        <v>-0.02816983794464058</v>
+        <v>-0.02816983798464938</v>
       </c>
       <c r="N45" t="n">
         <v>40.45</v>
@@ -4053,22 +4053,22 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.3890564605506573</v>
+        <v>0.3890564606306821</v>
       </c>
       <c r="S45" t="n">
-        <v>0.6378807078848346</v>
+        <v>0.6378807077857934</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8855109899251343</v>
+        <v>0.8855109899754962</v>
       </c>
       <c r="U45" t="n">
-        <v>43.11821004297639</v>
+        <v>43.11821016473979</v>
       </c>
       <c r="V45" t="n">
-        <v>415.4902715824031</v>
+        <v>415.4902715822439</v>
       </c>
       <c r="W45" t="n">
-        <v>0.4531498046130774</v>
+        <v>0.4531498402693098</v>
       </c>
       <c r="X45" t="n">
         <v>450</v>
@@ -4088,37 +4088,37 @@
         <v>642.5</v>
       </c>
       <c r="C46" t="n">
-        <v>0.943339558093934</v>
+        <v>0.9433395580939353</v>
       </c>
       <c r="D46" t="n">
         <v>-38.09999999999999</v>
       </c>
       <c r="E46" t="n">
-        <v>415.5574254732204</v>
+        <v>415.5574254730594</v>
       </c>
       <c r="F46" t="n">
-        <v>-37.57032846615331</v>
+        <v>-37.57032861151238</v>
       </c>
       <c r="G46" t="n">
-        <v>-37.68519009447498</v>
+        <v>-37.68519041376937</v>
       </c>
       <c r="H46" t="n">
-        <v>0.1148616283216692</v>
+        <v>0.114861802256992</v>
       </c>
       <c r="I46" t="n">
-        <v>0.3638453542502781</v>
+        <v>0.3638454065233466</v>
       </c>
       <c r="J46" t="n">
-        <v>0.2111758611916115</v>
+        <v>0.2111758612266721</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.1109374068659483</v>
+        <v>-0.1109374075679839</v>
       </c>
       <c r="L46" t="n">
-        <v>0.635425866772766</v>
+        <v>0.6354258666907321</v>
       </c>
       <c r="M46" t="n">
-        <v>-0.1148381751943834</v>
+        <v>-0.1148381753135284</v>
       </c>
       <c r="N46" t="n">
         <v>40.45</v>
@@ -4133,22 +4133,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0.3812024500744547</v>
+        <v>0.3812024499149666</v>
       </c>
       <c r="S46" t="n">
-        <v>0.6033693718048336</v>
+        <v>0.603369371384428</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8634243051522773</v>
+        <v>0.8634243047686261</v>
       </c>
       <c r="U46" t="n">
-        <v>37.57032846615331</v>
+        <v>37.57032861151238</v>
       </c>
       <c r="V46" t="n">
-        <v>415.5574254732204</v>
+        <v>415.5574254730594</v>
       </c>
       <c r="W46" t="n">
-        <v>0.450001670938503</v>
+        <v>0.4500017691769583</v>
       </c>
       <c r="X46" t="n">
         <v>450</v>
@@ -4168,37 +4168,37 @@
         <v>903.5</v>
       </c>
       <c r="C47" t="n">
-        <v>0.9595929891839906</v>
+        <v>0.9595929891839926</v>
       </c>
       <c r="D47" t="n">
         <v>-33.09999999999999</v>
       </c>
       <c r="E47" t="n">
-        <v>415.5616907985217</v>
+        <v>415.5616907982057</v>
       </c>
       <c r="F47" t="n">
-        <v>-32.92179709459969</v>
+        <v>-32.92179810080253</v>
       </c>
       <c r="G47" t="n">
-        <v>-32.98388033237012</v>
+        <v>-32.98388251965225</v>
       </c>
       <c r="H47" t="n">
-        <v>0.06208323777043022</v>
+        <v>0.06208441884971923</v>
       </c>
       <c r="I47" t="n">
-        <v>0.2707117496519794</v>
+        <v>0.2707114091456385</v>
       </c>
       <c r="J47" t="n">
-        <v>0.2036445158920738</v>
+        <v>0.2036445161128753</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.129824252180252</v>
+        <v>-0.1298242523480602</v>
       </c>
       <c r="L47" t="n">
-        <v>0.6297013997715667</v>
+        <v>0.6297013999966218</v>
       </c>
       <c r="M47" t="n">
-        <v>-0.06209832572946835</v>
+        <v>-0.06209832640421489</v>
       </c>
       <c r="N47" t="n">
         <v>40.45</v>
@@ -4213,22 +4213,22 @@
         <v>0</v>
       </c>
       <c r="R47" t="n">
-        <v>0.3319426057951908</v>
+        <v>0.3319426057491466</v>
       </c>
       <c r="S47" t="n">
-        <v>0.5195216614034599</v>
+        <v>0.5195216612846271</v>
       </c>
       <c r="T47" t="n">
-        <v>0.7870877492591197</v>
+        <v>0.7870877491812281</v>
       </c>
       <c r="U47" t="n">
-        <v>32.92179709459969</v>
+        <v>32.92179810080253</v>
       </c>
       <c r="V47" t="n">
-        <v>415.5616907985217</v>
+        <v>415.5616907982057</v>
       </c>
       <c r="W47" t="n">
-        <v>0.3466176799915396</v>
+        <v>0.3466174270485086</v>
       </c>
       <c r="X47" t="n">
         <v>450</v>
@@ -4248,37 +4248,37 @@
         <v>1164.5</v>
       </c>
       <c r="C48" t="n">
-        <v>0.9715303067953509</v>
+        <v>0.9715303067953525</v>
       </c>
       <c r="D48" t="n">
         <v>-28.09999999999999</v>
       </c>
       <c r="E48" t="n">
-        <v>415.5370594825903</v>
+        <v>415.5370594823528</v>
       </c>
       <c r="F48" t="n">
-        <v>-28.37029745218187</v>
+        <v>-28.37030052432916</v>
       </c>
       <c r="G48" t="n">
-        <v>-28.40995576474833</v>
+        <v>-28.40996244040846</v>
       </c>
       <c r="H48" t="n">
-        <v>0.03965831256646168</v>
+        <v>0.03966191607929326</v>
       </c>
       <c r="I48" t="n">
-        <v>0.1919912769331968</v>
+        <v>0.1919901951905848</v>
       </c>
       <c r="J48" t="n">
-        <v>0.2281624562205167</v>
+        <v>0.2281624561793907</v>
       </c>
       <c r="K48" t="n">
-        <v>-0.1415882582677784</v>
+        <v>-0.1415882587303826</v>
       </c>
       <c r="L48" t="n">
-        <v>0.6350195303476571</v>
+        <v>0.6350195302325115</v>
       </c>
       <c r="M48" t="n">
-        <v>-0.039641579201028</v>
+        <v>-0.03964158155475387</v>
       </c>
       <c r="N48" t="n">
         <v>40.45</v>
@@ -4293,22 +4293,22 @@
         <v>0</v>
       </c>
       <c r="R48" t="n">
-        <v>0.2683550650084931</v>
+        <v>0.2683550649314522</v>
       </c>
       <c r="S48" t="n">
-        <v>0.423058208544446</v>
+        <v>0.4230582083033646</v>
       </c>
       <c r="T48" t="n">
-        <v>0.7220888620464213</v>
+        <v>0.7220888618128736</v>
       </c>
       <c r="U48" t="n">
-        <v>28.37029745218187</v>
+        <v>28.37030052432916</v>
       </c>
       <c r="V48" t="n">
-        <v>415.5370594825903</v>
+        <v>415.5370594823528</v>
       </c>
       <c r="W48" t="n">
-        <v>0.2504149524433176</v>
+        <v>0.2504146980331136</v>
       </c>
       <c r="X48" t="n">
         <v>450</v>
@@ -4328,37 +4328,37 @@
         <v>1425.5</v>
       </c>
       <c r="C49" t="n">
-        <v>0.9787439859426676</v>
+        <v>0.9787439859426681</v>
       </c>
       <c r="D49" t="n">
         <v>-23.09999999999999</v>
       </c>
       <c r="E49" t="n">
-        <v>415.4749938377411</v>
+        <v>415.4749938375819</v>
       </c>
       <c r="F49" t="n">
-        <v>-22.7959098412055</v>
+        <v>-22.79590980707081</v>
       </c>
       <c r="G49" t="n">
-        <v>-22.86769740813532</v>
+        <v>-22.86769733400464</v>
       </c>
       <c r="H49" t="n">
-        <v>0.07178756692981522</v>
+        <v>0.07178752693382802</v>
       </c>
       <c r="I49" t="n">
-        <v>0.2806678628739423</v>
+        <v>0.2806678832661305</v>
       </c>
       <c r="J49" t="n">
-        <v>0.21098116537687</v>
+        <v>0.2109811652907948</v>
       </c>
       <c r="K49" t="n">
-        <v>-0.1883645950241109</v>
+        <v>-0.1883645951154727</v>
       </c>
       <c r="L49" t="n">
-        <v>0.648409008715465</v>
+        <v>0.6484090087949684</v>
       </c>
       <c r="M49" t="n">
-        <v>-0.07179369109813744</v>
+        <v>-0.07179369108466638</v>
       </c>
       <c r="N49" t="n">
         <v>40.45</v>
@@ -4373,22 +4373,22 @@
         <v>0</v>
       </c>
       <c r="R49" t="n">
-        <v>0.2347588526386675</v>
+        <v>0.2347588525317634</v>
       </c>
       <c r="S49" t="n">
-        <v>0.2102387335592168</v>
+        <v>0.2102387333582017</v>
       </c>
       <c r="T49" t="n">
-        <v>0.6379468438060688</v>
+        <v>0.6379468437150194</v>
       </c>
       <c r="U49" t="n">
-        <v>22.7959098412055</v>
+        <v>22.79590980707081</v>
       </c>
       <c r="V49" t="n">
-        <v>415.4749938377411</v>
+        <v>415.4749938375819</v>
       </c>
       <c r="W49" t="n">
-        <v>0.3689455633953507</v>
+        <v>0.3689455782616984</v>
       </c>
       <c r="X49" t="n">
         <v>450</v>
@@ -4408,37 +4408,37 @@
         <v>1680.533333333333</v>
       </c>
       <c r="C50" t="n">
-        <v>0.9825690553165841</v>
+        <v>0.9825690553165844</v>
       </c>
       <c r="D50" t="n">
         <v>-18.09999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>415.422351496625</v>
+        <v>415.4223514966166</v>
       </c>
       <c r="F50" t="n">
-        <v>-18.13439968246968</v>
+        <v>-18.13439968108154</v>
       </c>
       <c r="G50" t="n">
-        <v>-18.20520396847115</v>
+        <v>-18.20520396538731</v>
       </c>
       <c r="H50" t="n">
-        <v>0.07080428600146178</v>
+        <v>0.07080428430577038</v>
       </c>
       <c r="I50" t="n">
-        <v>0.2212875442905284</v>
+        <v>0.2212875453578426</v>
       </c>
       <c r="J50" t="n">
-        <v>0.2017522058373601</v>
+        <v>0.2017522057499999</v>
       </c>
       <c r="K50" t="n">
-        <v>-0.1731275589198528</v>
+        <v>-0.1731275588916231</v>
       </c>
       <c r="L50" t="n">
-        <v>0.6514701824851318</v>
+        <v>0.6514701823440957</v>
       </c>
       <c r="M50" t="n">
-        <v>-0.07183870715252756</v>
+        <v>-0.07183870715196156</v>
       </c>
       <c r="N50" t="n">
         <v>40.45</v>
@@ -4453,22 +4453,22 @@
         <v>0</v>
       </c>
       <c r="R50" t="n">
-        <v>0.1914284260843847</v>
+        <v>0.1914284258644318</v>
       </c>
       <c r="S50" t="n">
-        <v>0.03837710245149872</v>
+        <v>0.03837710241564653</v>
       </c>
       <c r="T50" t="n">
-        <v>0.6254541533425438</v>
+        <v>0.6254541531641356</v>
       </c>
       <c r="U50" t="n">
-        <v>18.13439968246968</v>
+        <v>18.13439968108154</v>
       </c>
       <c r="V50" t="n">
-        <v>415.422351496625</v>
+        <v>415.4223514966166</v>
       </c>
       <c r="W50" t="n">
-        <v>0.2683335630891678</v>
+        <v>0.2683335637143344</v>
       </c>
       <c r="X50" t="n">
         <v>450</v>
@@ -4488,37 +4488,37 @@
         <v>1904.827586206897</v>
       </c>
       <c r="C51" t="n">
-        <v>0.9812028134277795</v>
+        <v>0.9812028134277796</v>
       </c>
       <c r="D51" t="n">
         <v>-13.09999999999999</v>
       </c>
       <c r="E51" t="n">
-        <v>413.1781941817729</v>
+        <v>413.1781941819071</v>
       </c>
       <c r="F51" t="n">
-        <v>-13.37319350107687</v>
+        <v>-13.37319352182838</v>
       </c>
       <c r="G51" t="n">
-        <v>-13.53538230868667</v>
+        <v>-13.53538236173275</v>
       </c>
       <c r="H51" t="n">
-        <v>0.1621888076098018</v>
+        <v>0.162188839904374</v>
       </c>
       <c r="I51" t="n">
-        <v>0.2195344996764403</v>
+        <v>0.2195345061541164</v>
       </c>
       <c r="J51" t="n">
-        <v>0.1843142128842411</v>
+        <v>0.1843142128085958</v>
       </c>
       <c r="K51" t="n">
-        <v>-0.1088528046705301</v>
+        <v>-0.108852804643557</v>
       </c>
       <c r="L51" t="n">
-        <v>0.6139276416487081</v>
+        <v>0.6139276416972612</v>
       </c>
       <c r="M51" t="n">
-        <v>-0.1612541123550702</v>
+        <v>-0.1612541123663903</v>
       </c>
       <c r="N51" t="n">
         <v>38.70689655172414</v>
@@ -4533,22 +4533,22 @@
         <v>0</v>
       </c>
       <c r="R51" t="n">
-        <v>0.1917652128095955</v>
+        <v>0.1917652127261824</v>
       </c>
       <c r="S51" t="n">
-        <v>0.111502753234539</v>
+        <v>0.1115027533329305</v>
       </c>
       <c r="T51" t="n">
-        <v>0.5999138257543964</v>
+        <v>0.5999138258242882</v>
       </c>
       <c r="U51" t="n">
-        <v>13.37319350107687</v>
+        <v>13.37319352182838</v>
       </c>
       <c r="V51" t="n">
-        <v>413.1781941817729</v>
+        <v>413.1781941819071</v>
       </c>
       <c r="W51" t="n">
-        <v>0.3039041143095061</v>
+        <v>0.3039041155156686</v>
       </c>
       <c r="X51" t="n">
         <v>450</v>
@@ -4574,31 +4574,31 @@
         <v>-8.099999999999994</v>
       </c>
       <c r="E52" t="n">
-        <v>410.7168958451291</v>
+        <v>410.7168958451635</v>
       </c>
       <c r="F52" t="n">
-        <v>-8.343243295000971</v>
+        <v>-8.343242952561958</v>
       </c>
       <c r="G52" t="n">
-        <v>-8.412366981061535</v>
+        <v>-8.412366091911087</v>
       </c>
       <c r="H52" t="n">
-        <v>0.0691236860605646</v>
+        <v>0.06912313934912874</v>
       </c>
       <c r="I52" t="n">
-        <v>0.1698871911415396</v>
+        <v>0.1698867266937339</v>
       </c>
       <c r="J52" t="n">
-        <v>0.1675661712145563</v>
+        <v>0.1675661712168242</v>
       </c>
       <c r="K52" t="n">
-        <v>-0.0390657408522045</v>
+        <v>-0.03906574089137838</v>
       </c>
       <c r="L52" t="n">
-        <v>0.561693571358272</v>
+        <v>0.5616935713458353</v>
       </c>
       <c r="M52" t="n">
-        <v>-0.06966131313823294</v>
+        <v>-0.06966131291380477</v>
       </c>
       <c r="N52" t="n">
         <v>36.8235294117647</v>
@@ -4613,22 +4613,22 @@
         <v>0</v>
       </c>
       <c r="R52" t="n">
-        <v>0.1367589087294581</v>
+        <v>0.1367589087814569</v>
       </c>
       <c r="S52" t="n">
-        <v>0.06178240881136578</v>
+        <v>0.06178240880248343</v>
       </c>
       <c r="T52" t="n">
-        <v>0.552144507408334</v>
+        <v>0.5521445073814574</v>
       </c>
       <c r="U52" t="n">
-        <v>8.343243295000971</v>
+        <v>8.343242952561958</v>
       </c>
       <c r="V52" t="n">
-        <v>410.7168958451291</v>
+        <v>410.7168958451635</v>
       </c>
       <c r="W52" t="n">
-        <v>0.2506666765747865</v>
+        <v>0.2506663661293757</v>
       </c>
       <c r="X52" t="n">
         <v>450</v>
@@ -4654,31 +4654,31 @@
         <v>-3.099999999999993</v>
       </c>
       <c r="E53" t="n">
-        <v>411.3074863070213</v>
+        <v>411.3074863070248</v>
       </c>
       <c r="F53" t="n">
-        <v>-3.990498384430218</v>
+        <v>-3.990498385556434</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.162115872956935</v>
+        <v>-4.162115875790267</v>
       </c>
       <c r="H53" t="n">
-        <v>0.1716174885267175</v>
+        <v>0.171617490233833</v>
       </c>
       <c r="I53" t="n">
-        <v>0.2759373979006988</v>
+        <v>0.2759373990585083</v>
       </c>
       <c r="J53" t="n">
-        <v>0.1304593760481115</v>
+        <v>0.1304593760631021</v>
       </c>
       <c r="K53" t="n">
-        <v>-0.08153675721983197</v>
+        <v>-0.08153675722042546</v>
       </c>
       <c r="L53" t="n">
-        <v>0.4707667742518729</v>
+        <v>0.4707667743011386</v>
       </c>
       <c r="M53" t="n">
-        <v>-0.1717213010432561</v>
+        <v>-0.1717213010433199</v>
       </c>
       <c r="N53" t="n">
         <v>32.35714285714285</v>
@@ -4693,22 +4693,22 @@
         <v>0</v>
       </c>
       <c r="R53" t="n">
-        <v>0.2273018464558319</v>
+        <v>0.2273018465122618</v>
       </c>
       <c r="S53" t="n">
-        <v>-0.07683799549250803</v>
+        <v>-0.0768379955030014</v>
       </c>
       <c r="T53" t="n">
-        <v>0.5016954701212468</v>
+        <v>0.5016954701878523</v>
       </c>
       <c r="U53" t="n">
-        <v>3.990498384430218</v>
+        <v>3.990498385556434</v>
       </c>
       <c r="V53" t="n">
-        <v>411.3074863070213</v>
+        <v>411.3074863070248</v>
       </c>
       <c r="W53" t="n">
-        <v>0.3636381159440817</v>
+        <v>0.363638116160927</v>
       </c>
       <c r="X53" t="n">
         <v>450</v>
@@ -4734,31 +4734,31 @@
         <v>1.900000000000006</v>
       </c>
       <c r="E54" t="n">
-        <v>415.3603101746409</v>
+        <v>415.3603101746843</v>
       </c>
       <c r="F54" t="n">
-        <v>2.843910019210522</v>
+        <v>2.84391004640971</v>
       </c>
       <c r="G54" t="n">
         <v>1.5</v>
       </c>
       <c r="H54" t="n">
-        <v>1.343910019210522</v>
+        <v>1.34391004640971</v>
       </c>
       <c r="I54" t="n">
-        <v>1.411906674887694</v>
+        <v>1.411906689158395</v>
       </c>
       <c r="J54" t="n">
-        <v>0.1808081371526933</v>
+        <v>0.1808081371651298</v>
       </c>
       <c r="K54" t="n">
-        <v>-0.1346425109213207</v>
+        <v>-0.1346425109230546</v>
       </c>
       <c r="L54" t="n">
-        <v>0.5820580521082754</v>
+        <v>0.5820580521330009</v>
       </c>
       <c r="M54" t="n">
-        <v>-0.1288704909772286</v>
+        <v>-0.1288704909635</v>
       </c>
       <c r="N54" t="n">
         <v>40.45</v>
@@ -4773,22 +4773,22 @@
         <v>0</v>
       </c>
       <c r="R54" t="n">
-        <v>0.18301359272881</v>
+        <v>0.1830135927604784</v>
       </c>
       <c r="S54" t="n">
-        <v>-0.1579354302680546</v>
+        <v>-0.157935430277485</v>
       </c>
       <c r="T54" t="n">
-        <v>0.5929638782254085</v>
+        <v>0.5929638782557044</v>
       </c>
       <c r="U54" t="n">
-        <v>-2.843910019210522</v>
+        <v>-2.84391004640971</v>
       </c>
       <c r="V54" t="n">
-        <v>415.3603101746409</v>
+        <v>415.3603101746843</v>
       </c>
       <c r="W54" t="n">
-        <v>1.589104596153066</v>
+        <v>1.589104619353716</v>
       </c>
       <c r="X54" t="n">
         <v>450</v>
@@ -4808,37 +4808,37 @@
         <v>2628.933333333333</v>
       </c>
       <c r="C55" t="n">
-        <v>0.9746678128982353</v>
+        <v>0.9746678128982355</v>
       </c>
       <c r="D55" t="n">
         <v>6.900000000000006</v>
       </c>
       <c r="E55" t="n">
-        <v>415.370595015969</v>
+        <v>415.3705950159542</v>
       </c>
       <c r="F55" t="n">
-        <v>6.811904198558571</v>
+        <v>6.811904527751571</v>
       </c>
       <c r="G55" t="n">
-        <v>6.8835898764683</v>
+        <v>6.883590572356015</v>
       </c>
       <c r="H55" t="n">
-        <v>-0.07168567790972931</v>
+        <v>-0.07168604460444379</v>
       </c>
       <c r="I55" t="n">
-        <v>0.1555353581693832</v>
+        <v>0.1555356977338602</v>
       </c>
       <c r="J55" t="n">
-        <v>0.1784485172133759</v>
+        <v>0.1784485172238223</v>
       </c>
       <c r="K55" t="n">
-        <v>-0.1279666825086201</v>
+        <v>-0.127966682538618</v>
       </c>
       <c r="L55" t="n">
-        <v>0.5800312723542216</v>
+        <v>0.580031272367215</v>
       </c>
       <c r="M55" t="n">
-        <v>0.0721322421509602</v>
+        <v>0.07213224232599473</v>
       </c>
       <c r="N55" t="n">
         <v>40.45</v>
@@ -4853,22 +4853,22 @@
         <v>0</v>
       </c>
       <c r="R55" t="n">
-        <v>0.2199322075915358</v>
+        <v>0.2199322076074677</v>
       </c>
       <c r="S55" t="n">
-        <v>-0.1493582004889467</v>
+        <v>-0.1493582005112139</v>
       </c>
       <c r="T55" t="n">
-        <v>0.6046736974247372</v>
+        <v>0.6046736974395229</v>
       </c>
       <c r="U55" t="n">
-        <v>-6.811904198558571</v>
+        <v>-6.811904527751571</v>
       </c>
       <c r="V55" t="n">
-        <v>415.370595015969</v>
+        <v>415.3705950159542</v>
       </c>
       <c r="W55" t="n">
-        <v>0.2085464455954147</v>
+        <v>0.2085466075702119</v>
       </c>
       <c r="X55" t="n">
         <v>450</v>
@@ -4894,31 +4894,31 @@
         <v>11.90000000000001</v>
       </c>
       <c r="E56" t="n">
-        <v>415.3527394798396</v>
+        <v>415.3527394798487</v>
       </c>
       <c r="F56" t="n">
-        <v>12.22207693955732</v>
+        <v>12.22207632025911</v>
       </c>
       <c r="G56" t="n">
-        <v>12.29422759721204</v>
+        <v>12.29422626908773</v>
       </c>
       <c r="H56" t="n">
-        <v>-0.07215065765471565</v>
+        <v>-0.07214994882861342</v>
       </c>
       <c r="I56" t="n">
-        <v>0.1115195769506316</v>
+        <v>0.1115189435402416</v>
       </c>
       <c r="J56" t="n">
-        <v>0.1800595253981445</v>
+        <v>0.1800595253613703</v>
       </c>
       <c r="K56" t="n">
-        <v>-0.1458370084971463</v>
+        <v>-0.1458370084620479</v>
       </c>
       <c r="L56" t="n">
-        <v>0.6176792774036286</v>
+        <v>0.6176792774378789</v>
       </c>
       <c r="M56" t="n">
-        <v>0.0721451276248415</v>
+        <v>0.07214512736015619</v>
       </c>
       <c r="N56" t="n">
         <v>40.45</v>
@@ -4933,22 +4933,22 @@
         <v>0</v>
       </c>
       <c r="R56" t="n">
-        <v>0.2367691899367489</v>
+        <v>0.2367691898804343</v>
       </c>
       <c r="S56" t="n">
-        <v>-0.2218193237365317</v>
+        <v>-0.2218193237140567</v>
       </c>
       <c r="T56" t="n">
-        <v>0.6672809044950614</v>
+        <v>0.6672809045140103</v>
       </c>
       <c r="U56" t="n">
-        <v>-12.22207693955732</v>
+        <v>-12.22207632025911</v>
       </c>
       <c r="V56" t="n">
-        <v>415.3527394798396</v>
+        <v>415.3527394798487</v>
       </c>
       <c r="W56" t="n">
-        <v>0.1771447973124181</v>
+        <v>0.1771445313524707</v>
       </c>
       <c r="X56" t="n">
         <v>450</v>
@@ -4968,37 +4968,37 @@
         <v>3139.5</v>
       </c>
       <c r="C57" t="n">
-        <v>0.9884503603571464</v>
+        <v>0.9884503603571465</v>
       </c>
       <c r="D57" t="n">
         <v>16.90000000000001</v>
       </c>
       <c r="E57" t="n">
-        <v>415.3119834345592</v>
+        <v>415.3119834344629</v>
       </c>
       <c r="F57" t="n">
-        <v>16.94281118398082</v>
+        <v>16.94281118314439</v>
       </c>
       <c r="G57" t="n">
-        <v>17.00709991497616</v>
+        <v>17.0070999131628</v>
       </c>
       <c r="H57" t="n">
-        <v>-0.06428873099534679</v>
+        <v>-0.06428873001840886</v>
       </c>
       <c r="I57" t="n">
-        <v>0.1052301894605938</v>
+        <v>0.1052301888876924</v>
       </c>
       <c r="J57" t="n">
-        <v>0.1687015093084858</v>
+        <v>0.1687015094525582</v>
       </c>
       <c r="K57" t="n">
-        <v>-0.1643275077834821</v>
+        <v>-0.1643275077805904</v>
       </c>
       <c r="L57" t="n">
-        <v>0.6553295746480102</v>
+        <v>0.6553295747020985</v>
       </c>
       <c r="M57" t="n">
-        <v>0.06428629621915564</v>
+        <v>0.0642862962190108</v>
       </c>
       <c r="N57" t="n">
         <v>40.45</v>
@@ -5013,22 +5013,22 @@
         <v>0</v>
       </c>
       <c r="R57" t="n">
-        <v>0.2671932000167628</v>
+        <v>0.2671932002130298</v>
       </c>
       <c r="S57" t="n">
-        <v>-0.263296553007816</v>
+        <v>-0.2632965530114659</v>
       </c>
       <c r="T57" t="n">
-        <v>0.7242031073099128</v>
+        <v>0.7242031073820833</v>
       </c>
       <c r="U57" t="n">
-        <v>-16.94281118398082</v>
+        <v>-16.94281118314439</v>
       </c>
       <c r="V57" t="n">
-        <v>415.3119834345592</v>
+        <v>415.3119834344629</v>
       </c>
       <c r="W57" t="n">
-        <v>0.1618005325817498</v>
+        <v>0.1618005321600302</v>
       </c>
       <c r="X57" t="n">
         <v>450</v>
@@ -5048,37 +5048,37 @@
         <v>3400.5</v>
       </c>
       <c r="C58" t="n">
-        <v>0.9846663357655696</v>
+        <v>0.9846663357655702</v>
       </c>
       <c r="D58" t="n">
         <v>21.90000000000001</v>
       </c>
       <c r="E58" t="n">
-        <v>415.3251686562132</v>
+        <v>415.3251686560554</v>
       </c>
       <c r="F58" t="n">
-        <v>22.09910252179074</v>
+        <v>22.0991022525638</v>
       </c>
       <c r="G58" t="n">
-        <v>22.14348801756694</v>
+        <v>22.14348743371205</v>
       </c>
       <c r="H58" t="n">
-        <v>-0.04438549577619864</v>
+        <v>-0.04438518114825616</v>
       </c>
       <c r="I58" t="n">
-        <v>0.1373630175274703</v>
+        <v>0.1373628312732912</v>
       </c>
       <c r="J58" t="n">
-        <v>0.2003243399917317</v>
+        <v>0.2003243398608144</v>
       </c>
       <c r="K58" t="n">
-        <v>-0.1547854995211505</v>
+        <v>-0.1547854995477414</v>
       </c>
       <c r="L58" t="n">
-        <v>0.6732078869083846</v>
+        <v>0.6732078866795917</v>
       </c>
       <c r="M58" t="n">
-        <v>0.04438497116607625</v>
+        <v>0.04438497103120167</v>
       </c>
       <c r="N58" t="n">
         <v>40.45</v>
@@ -5093,22 +5093,22 @@
         <v>0</v>
       </c>
       <c r="R58" t="n">
-        <v>0.3654192451331047</v>
+        <v>0.365419245009297</v>
       </c>
       <c r="S58" t="n">
-        <v>-0.2464084366352698</v>
+        <v>-0.2464084366160778</v>
       </c>
       <c r="T58" t="n">
-        <v>0.7638949408495165</v>
+        <v>0.7638949406301359</v>
       </c>
       <c r="U58" t="n">
-        <v>-22.09910252179074</v>
+        <v>-22.0991022525638</v>
       </c>
       <c r="V58" t="n">
-        <v>415.3251686562132</v>
+        <v>415.3251686560554</v>
       </c>
       <c r="W58" t="n">
-        <v>0.197819179160383</v>
+        <v>0.1978190288867832</v>
       </c>
       <c r="X58" t="n">
         <v>450</v>
@@ -5128,37 +5128,37 @@
         <v>3661.5</v>
       </c>
       <c r="C59" t="n">
-        <v>0.9780217652113731</v>
+        <v>0.9780217652113739</v>
       </c>
       <c r="D59" t="n">
         <v>26.90000000000001</v>
       </c>
       <c r="E59" t="n">
-        <v>415.342134316996</v>
+        <v>415.3421343166784</v>
       </c>
       <c r="F59" t="n">
-        <v>27.82487389191052</v>
+        <v>27.82487389324167</v>
       </c>
       <c r="G59" t="n">
-        <v>27.84518183297603</v>
+        <v>27.8451818358611</v>
       </c>
       <c r="H59" t="n">
-        <v>-0.02030794106550395</v>
+        <v>-0.0203079426194364</v>
       </c>
       <c r="I59" t="n">
-        <v>0.1456533538508169</v>
+        <v>0.1456533547756782</v>
       </c>
       <c r="J59" t="n">
-        <v>0.2249181435365439</v>
+        <v>0.2249181433374806</v>
       </c>
       <c r="K59" t="n">
-        <v>-0.132818022680798</v>
+        <v>-0.1328180228584776</v>
       </c>
       <c r="L59" t="n">
-        <v>0.6667331673891166</v>
+        <v>0.6667331674440755</v>
       </c>
       <c r="M59" t="n">
-        <v>0.0203251704728497</v>
+        <v>0.02032517047374819</v>
       </c>
       <c r="N59" t="n">
         <v>40.45</v>
@@ -5173,22 +5173,22 @@
         <v>0</v>
       </c>
       <c r="R59" t="n">
-        <v>0.4450366238516399</v>
+        <v>0.4450366236345503</v>
       </c>
       <c r="S59" t="n">
-        <v>-0.236966306804075</v>
+        <v>-0.2369663069666225</v>
       </c>
       <c r="T59" t="n">
-        <v>0.7843292102667035</v>
+        <v>0.7843292102759515</v>
       </c>
       <c r="U59" t="n">
-        <v>-27.82487389191052</v>
+        <v>-27.82487389324167</v>
       </c>
       <c r="V59" t="n">
-        <v>415.342134316996</v>
+        <v>415.3421343166784</v>
       </c>
       <c r="W59" t="n">
-        <v>0.203218605136061</v>
+        <v>0.2032186057966441</v>
       </c>
       <c r="X59" t="n">
         <v>450</v>
@@ -5208,37 +5208,37 @@
         <v>3922.5</v>
       </c>
       <c r="C60" t="n">
-        <v>0.9683457825679542</v>
+        <v>0.9683457825679561</v>
       </c>
       <c r="D60" t="n">
         <v>31.90000000000001</v>
       </c>
       <c r="E60" t="n">
-        <v>415.3443326576233</v>
+        <v>415.3443326575563</v>
       </c>
       <c r="F60" t="n">
-        <v>32.53934057761518</v>
+        <v>32.53933845624052</v>
       </c>
       <c r="G60" t="n">
-        <v>32.63277172154561</v>
+        <v>32.63276711592759</v>
       </c>
       <c r="H60" t="n">
-        <v>-0.0934311439304293</v>
+        <v>-0.09342865968707177</v>
       </c>
       <c r="I60" t="n">
-        <v>0.2018580473451751</v>
+        <v>0.2018560972018859</v>
       </c>
       <c r="J60" t="n">
-        <v>0.2369348518976921</v>
+        <v>0.2369348513463585</v>
       </c>
       <c r="K60" t="n">
-        <v>-0.1252704067048308</v>
+        <v>-0.1252704067381873</v>
       </c>
       <c r="L60" t="n">
-        <v>0.6629991649934404</v>
+        <v>0.6629991649530336</v>
       </c>
       <c r="M60" t="n">
-        <v>0.09342977172781813</v>
+        <v>0.09342976980165166</v>
       </c>
       <c r="N60" t="n">
         <v>40.45</v>
@@ -5253,22 +5253,22 @@
         <v>0</v>
       </c>
       <c r="R60" t="n">
-        <v>0.4826690917497787</v>
+        <v>0.4826690913272549</v>
       </c>
       <c r="S60" t="n">
-        <v>-0.1962405090628308</v>
+        <v>-0.1962405090425733</v>
       </c>
       <c r="T60" t="n">
-        <v>0.7820442177978415</v>
+        <v>0.7820442177090627</v>
       </c>
       <c r="U60" t="n">
-        <v>-32.53934057761518</v>
+        <v>-32.53933845624052</v>
       </c>
       <c r="V60" t="n">
-        <v>415.3443326576233</v>
+        <v>415.3443326575563</v>
       </c>
       <c r="W60" t="n">
-        <v>0.2746749078831216</v>
+        <v>0.2746735177257887</v>
       </c>
       <c r="X60" t="n">
         <v>450</v>
@@ -5288,37 +5288,37 @@
         <v>4183.5</v>
       </c>
       <c r="C61" t="n">
-        <v>0.9532603045007798</v>
+        <v>0.9532603045007804</v>
       </c>
       <c r="D61" t="n">
         <v>36.90000000000001</v>
       </c>
       <c r="E61" t="n">
-        <v>415.3761607789073</v>
+        <v>415.3761607788035</v>
       </c>
       <c r="F61" t="n">
-        <v>37.65116378165594</v>
+        <v>37.65116980934426</v>
       </c>
       <c r="G61" t="n">
-        <v>37.69291322976678</v>
+        <v>37.69292631788438</v>
       </c>
       <c r="H61" t="n">
-        <v>-0.04174944811084001</v>
+        <v>-0.04175650854012432</v>
       </c>
       <c r="I61" t="n">
-        <v>0.25346290262592</v>
+        <v>0.2534662159725916</v>
       </c>
       <c r="J61" t="n">
-        <v>0.2318647062077543</v>
+        <v>0.2318647060202162</v>
       </c>
       <c r="K61" t="n">
-        <v>-0.09445038200071565</v>
+        <v>-0.09445038194553608</v>
       </c>
       <c r="L61" t="n">
-        <v>0.648019981864408</v>
+        <v>0.6480199815906176</v>
       </c>
       <c r="M61" t="n">
-        <v>0.04177405197080001</v>
+        <v>0.04177405821196901</v>
       </c>
       <c r="N61" t="n">
         <v>40.45</v>
@@ -5333,22 +5333,22 @@
         <v>0</v>
       </c>
       <c r="R61" t="n">
-        <v>0.5218251822053313</v>
+        <v>0.5218251819564113</v>
       </c>
       <c r="S61" t="n">
-        <v>-0.1838970797870895</v>
+        <v>-0.1838970801065517</v>
       </c>
       <c r="T61" t="n">
-        <v>0.7970377821596851</v>
+        <v>0.7970377819374673</v>
       </c>
       <c r="U61" t="n">
-        <v>-37.65116378165594</v>
+        <v>-37.65116980934426</v>
       </c>
       <c r="V61" t="n">
-        <v>415.3761607789073</v>
+        <v>415.3761607788035</v>
       </c>
       <c r="W61" t="n">
-        <v>0.3225705709696292</v>
+        <v>0.3225720700928054</v>
       </c>
       <c r="X61" t="n">
         <v>450</v>
@@ -5368,37 +5368,37 @@
         <v>4444.5</v>
       </c>
       <c r="C62" t="n">
-        <v>0.9323087700812945</v>
+        <v>0.9323087700812962</v>
       </c>
       <c r="D62" t="n">
         <v>41.90000000000001</v>
       </c>
       <c r="E62" t="n">
-        <v>415.2869965311131</v>
+        <v>415.2869965313225</v>
       </c>
       <c r="F62" t="n">
-        <v>42.35035853345518</v>
+        <v>42.35035853395051</v>
       </c>
       <c r="G62" t="n">
-        <v>42.43896634641208</v>
+        <v>42.43896634748509</v>
       </c>
       <c r="H62" t="n">
-        <v>-0.08860781295691034</v>
+        <v>-0.08860781353458194</v>
       </c>
       <c r="I62" t="n">
-        <v>0.2779859708476057</v>
+        <v>0.2779859709745203</v>
       </c>
       <c r="J62" t="n">
-        <v>0.2083174288126505</v>
+        <v>0.2083174290001189</v>
       </c>
       <c r="K62" t="n">
-        <v>-0.1288940907609814</v>
+        <v>-0.1288940907990305</v>
       </c>
       <c r="L62" t="n">
-        <v>0.638534399882483</v>
+        <v>0.6385344000847418</v>
       </c>
       <c r="M62" t="n">
-        <v>0.08861538352228125</v>
+        <v>0.08861538352266649</v>
       </c>
       <c r="N62" t="n">
         <v>40.45</v>
@@ -5413,22 +5413,22 @@
         <v>0</v>
       </c>
       <c r="R62" t="n">
-        <v>0.4395517682578439</v>
+        <v>0.4395517684316722</v>
       </c>
       <c r="S62" t="n">
-        <v>-0.3588930877348172</v>
+        <v>-0.3588930877376441</v>
       </c>
       <c r="T62" t="n">
-        <v>0.7890624084760723</v>
+        <v>0.7890624087210373</v>
       </c>
       <c r="U62" t="n">
-        <v>-42.35035853345518</v>
+        <v>-42.35035853395051</v>
       </c>
       <c r="V62" t="n">
-        <v>415.2869965311131</v>
+        <v>415.2869965313225</v>
       </c>
       <c r="W62" t="n">
-        <v>0.3488414519560942</v>
+        <v>0.3488414520464971</v>
       </c>
       <c r="X62" t="n">
         <v>450</v>
@@ -5448,37 +5448,37 @@
         <v>4704.533333333334</v>
       </c>
       <c r="C63" t="n">
-        <v>0.8949815444014052</v>
+        <v>0.8949815444014061</v>
       </c>
       <c r="D63" t="n">
         <v>46.90000000000001</v>
       </c>
       <c r="E63" t="n">
-        <v>415.3205767474121</v>
+        <v>415.3205767476096</v>
       </c>
       <c r="F63" t="n">
-        <v>47.67090594691275</v>
+        <v>47.6709017876615</v>
       </c>
       <c r="G63" t="n">
-        <v>47.73906567743065</v>
+        <v>47.7390566550323</v>
       </c>
       <c r="H63" t="n">
-        <v>-0.06815973051789435</v>
+        <v>-0.06815486737080043</v>
       </c>
       <c r="I63" t="n">
-        <v>0.4058777812511639</v>
+        <v>0.4058761991965226</v>
       </c>
       <c r="J63" t="n">
-        <v>0.1314976686001672</v>
+        <v>0.1314976689189807</v>
       </c>
       <c r="K63" t="n">
-        <v>-0.1285519663202107</v>
+        <v>-0.1285519660883773</v>
       </c>
       <c r="L63" t="n">
-        <v>0.6294950811743529</v>
+        <v>0.6294950813485347</v>
       </c>
       <c r="M63" t="n">
-        <v>0.06732125203707184</v>
+        <v>0.06732125125472214</v>
       </c>
       <c r="N63" t="n">
         <v>40.45</v>
@@ -5493,22 +5493,22 @@
         <v>0</v>
       </c>
       <c r="R63" t="n">
-        <v>0.4403434650871599</v>
+        <v>0.440343465435439</v>
       </c>
       <c r="S63" t="n">
-        <v>-0.266350846573696</v>
+        <v>-0.2663508462498634</v>
       </c>
       <c r="T63" t="n">
-        <v>0.7748138154026696</v>
+        <v>0.7748138156503356</v>
       </c>
       <c r="U63" t="n">
-        <v>-47.67090594691275</v>
+        <v>-47.6709017876615</v>
       </c>
       <c r="V63" t="n">
-        <v>415.3205767474121</v>
+        <v>415.3205767476096</v>
       </c>
       <c r="W63" t="n">
-        <v>0.5707995966809749</v>
+        <v>0.5707989492137536</v>
       </c>
       <c r="X63" t="n">
         <v>450</v>
@@ -5528,37 +5528,37 @@
         <v>4965.5</v>
       </c>
       <c r="C64" t="n">
-        <v>0.8338007770434946</v>
+        <v>0.8338007770434952</v>
       </c>
       <c r="D64" t="n">
         <v>51.90000000000001</v>
       </c>
       <c r="E64" t="n">
-        <v>415.2178141332375</v>
+        <v>415.2178141330606</v>
       </c>
       <c r="F64" t="n">
-        <v>53.01604338632288</v>
+        <v>53.01604339221274</v>
       </c>
       <c r="G64" t="n">
-        <v>53.27214946097494</v>
+        <v>53.27214947375982</v>
       </c>
       <c r="H64" t="n">
-        <v>-0.2561060746520608</v>
+        <v>-0.2561060815470701</v>
       </c>
       <c r="I64" t="n">
-        <v>0.5225844641773904</v>
+        <v>0.5225844655772091</v>
       </c>
       <c r="J64" t="n">
-        <v>0.1348572105336733</v>
+        <v>0.1348572105342839</v>
       </c>
       <c r="K64" t="n">
-        <v>-0.1035390549229306</v>
+        <v>-0.1035390547506014</v>
       </c>
       <c r="L64" t="n">
-        <v>0.644911065127649</v>
+        <v>0.644911065221257</v>
       </c>
       <c r="M64" t="n">
-        <v>0.256076292016911</v>
+        <v>0.2560762920189065</v>
       </c>
       <c r="N64" t="n">
         <v>40.45</v>
@@ -5573,22 +5573,22 @@
         <v>0</v>
       </c>
       <c r="R64" t="n">
-        <v>0.4544080194279508</v>
+        <v>0.4544080194576653</v>
       </c>
       <c r="S64" t="n">
-        <v>-0.3106729150780186</v>
+        <v>-0.3106729149999879</v>
       </c>
       <c r="T64" t="n">
-        <v>0.8020584354922345</v>
+        <v>0.8020584355450322</v>
       </c>
       <c r="U64" t="n">
-        <v>-53.01604338632288</v>
+        <v>-53.01604339221274</v>
       </c>
       <c r="V64" t="n">
-        <v>415.2178141332375</v>
+        <v>415.2178141330606</v>
       </c>
       <c r="W64" t="n">
-        <v>0.7301485079643113</v>
+        <v>0.730148509307801</v>
       </c>
       <c r="X64" t="n">
         <v>450</v>
